--- a/trainplan_FIXED.xlsx
+++ b/trainplan_FIXED.xlsx
@@ -93,7 +93,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="75">
+  <fills count="77">
     <fill>
       <patternFill/>
     </fill>
@@ -534,6 +534,18 @@
         <bgColor rgb="FF66B2FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002DD4BF"/>
+        <bgColor rgb="002DD4BF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0038BDF8"/>
+        <bgColor rgb="0038BDF8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -849,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1659,7 +1671,7 @@
     <xf numFmtId="0" fontId="14" fillId="56" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="75" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1674,6 +1686,9 @@
     <xf numFmtId="0" fontId="15" fillId="44" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1684,6 +1699,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="36" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1698,7 +1716,7 @@
     <xf numFmtId="0" fontId="15" fillId="44" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="75" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1713,8 +1731,20 @@
     <xf numFmtId="0" fontId="15" fillId="21" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="76" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="76" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="75" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="76" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1722,9 +1752,8 @@
     <xf numFmtId="0" fontId="14" fillId="22" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2483,6 +2512,11 @@
       <c r="AO3" s="275" t="n"/>
       <c r="AP3" s="275" t="n"/>
       <c r="AQ3" s="275" t="n"/>
+      <c r="AR3" s="195" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="18" customHeight="1">
       <c r="A4" s="273" t="inlineStr">
@@ -2568,23 +2602,22 @@
       </c>
       <c r="AH4" s="274" t="n"/>
       <c r="AI4" s="275" t="n"/>
-      <c r="AJ4" s="285" t="inlineStr"/>
+      <c r="AJ4" s="306" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AK4" s="274" t="inlineStr"/>
       <c r="AL4" s="275" t="n"/>
       <c r="AM4" s="275" t="n"/>
       <c r="AN4" s="274" t="n"/>
       <c r="AO4" s="275" t="n"/>
-      <c r="AP4" s="306" t="inlineStr">
+      <c r="AP4" s="307" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="AQ4" s="287" t="inlineStr"/>
-      <c r="AR4" s="199" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" s="273" t="inlineStr">
@@ -2668,13 +2701,17 @@
       <c r="J6" s="275" t="n"/>
       <c r="K6" s="275" t="n"/>
       <c r="L6" s="275" t="n"/>
-      <c r="M6" s="307" t="inlineStr">
+      <c r="M6" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="N6" s="274" t="n"/>
-      <c r="O6" s="277" t="inlineStr"/>
+      <c r="O6" s="299" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="P6" s="275" t="n"/>
       <c r="Q6" s="274" t="n"/>
       <c r="R6" s="274" t="n"/>
@@ -2690,14 +2727,10 @@
         </is>
       </c>
       <c r="Z6" s="275" t="n"/>
-      <c r="AA6" s="307" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AA6" s="290" t="inlineStr"/>
       <c r="AB6" s="275" t="n"/>
       <c r="AC6" s="275" t="n"/>
-      <c r="AD6" s="308" t="inlineStr">
+      <c r="AD6" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -2711,19 +2744,19 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ6" s="309" t="inlineStr">
+      <c r="AJ6" s="310" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="AK6" s="274" t="n"/>
-      <c r="AL6" s="308" t="inlineStr">
+      <c r="AL6" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="AM6" s="274" t="n"/>
-      <c r="AN6" s="308" t="inlineStr">
+      <c r="AN6" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -2743,7 +2776,7 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C7" s="301" t="inlineStr">
+      <c r="C7" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -2759,7 +2792,7 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="G7" s="310" t="inlineStr">
+      <c r="G7" s="312" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -2781,7 +2814,7 @@
       </c>
       <c r="O7" s="275" t="n"/>
       <c r="P7" s="275" t="n"/>
-      <c r="Q7" s="311" t="inlineStr">
+      <c r="Q7" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -2791,12 +2824,12 @@
       <c r="T7" s="275" t="n"/>
       <c r="U7" s="275" t="n"/>
       <c r="V7" s="274" t="inlineStr"/>
-      <c r="W7" s="312" t="inlineStr">
+      <c r="W7" s="314" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="X7" s="313" t="inlineStr">
+      <c r="X7" s="315" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
@@ -2805,7 +2838,7 @@
       <c r="Z7" s="275" t="n"/>
       <c r="AA7" s="275" t="n"/>
       <c r="AB7" s="275" t="n"/>
-      <c r="AC7" s="314" t="inlineStr">
+      <c r="AC7" s="316" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
@@ -2814,7 +2847,7 @@
       <c r="AE7" s="289" t="inlineStr"/>
       <c r="AF7" s="274" t="n"/>
       <c r="AG7" s="282" t="inlineStr"/>
-      <c r="AH7" s="310" t="inlineStr">
+      <c r="AH7" s="312" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -2828,13 +2861,13 @@
       </c>
       <c r="AL7" s="275" t="n"/>
       <c r="AM7" s="275" t="n"/>
-      <c r="AN7" s="310" t="inlineStr">
+      <c r="AN7" s="312" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AO7" s="275" t="n"/>
-      <c r="AP7" s="313" t="inlineStr">
+      <c r="AP7" s="315" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
@@ -2877,13 +2910,13 @@
       <c r="Y8" s="275" t="n"/>
       <c r="Z8" s="275" t="n"/>
       <c r="AA8" s="275" t="n"/>
-      <c r="AB8" s="315" t="inlineStr">
+      <c r="AB8" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="AC8" s="277" t="inlineStr"/>
-      <c r="AD8" s="316" t="inlineStr">
+      <c r="AD8" s="318" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -2901,7 +2934,7 @@
       <c r="AO8" s="275" t="n"/>
       <c r="AP8" s="275" t="n"/>
       <c r="AQ8" s="275" t="n"/>
-      <c r="AR8" s="200" t="inlineStr">
+      <c r="AR8" s="328" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -2923,7 +2956,7 @@
       <c r="E9" s="275" t="n"/>
       <c r="F9" s="275" t="n"/>
       <c r="G9" s="275" t="inlineStr"/>
-      <c r="H9" s="317" t="inlineStr">
+      <c r="H9" s="319" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -2932,13 +2965,13 @@
       <c r="J9" s="275" t="n"/>
       <c r="K9" s="275" t="n"/>
       <c r="L9" s="275" t="n"/>
-      <c r="M9" s="308" t="inlineStr">
+      <c r="M9" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="N9" s="274" t="n"/>
-      <c r="O9" s="308" t="inlineStr">
+      <c r="O9" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -2957,7 +2990,7 @@
       <c r="AA9" s="289" t="inlineStr"/>
       <c r="AB9" s="275" t="n"/>
       <c r="AC9" s="275" t="n"/>
-      <c r="AD9" s="307" t="inlineStr">
+      <c r="AD9" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
@@ -2965,12 +2998,12 @@
       <c r="AE9" s="277" t="inlineStr"/>
       <c r="AF9" s="277" t="inlineStr"/>
       <c r="AG9" s="274" t="n"/>
-      <c r="AH9" s="307" t="inlineStr">
+      <c r="AH9" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AI9" s="308" t="inlineStr">
+      <c r="AI9" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -2981,7 +3014,7 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AL9" s="307" t="inlineStr">
+      <c r="AL9" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
@@ -3008,29 +3041,21 @@
           <t>E18:00-60 PLB</t>
         </is>
       </c>
-      <c r="D10" s="314" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="E10" s="319" t="inlineStr">
+      <c r="D10" s="274" t="n"/>
+      <c r="E10" s="282" t="inlineStr"/>
+      <c r="F10" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="F10" s="311" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="G10" s="318" t="inlineStr">
+      <c r="G10" s="320" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="H10" s="275" t="n"/>
       <c r="I10" s="274" t="n"/>
-      <c r="J10" s="311" t="inlineStr">
+      <c r="J10" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -3075,9 +3100,13 @@
       <c r="AB10" s="275" t="n"/>
       <c r="AC10" s="282" t="inlineStr"/>
       <c r="AD10" s="275" t="inlineStr"/>
-      <c r="AE10" s="274" t="inlineStr"/>
+      <c r="AE10" s="306" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AF10" s="274" t="n"/>
-      <c r="AG10" s="306" t="inlineStr">
+      <c r="AG10" s="307" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -3085,16 +3114,20 @@
       <c r="AH10" s="274" t="n"/>
       <c r="AI10" s="275" t="n"/>
       <c r="AJ10" s="275" t="n"/>
-      <c r="AK10" s="277" t="inlineStr"/>
+      <c r="AK10" s="313" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AL10" s="275" t="n"/>
       <c r="AM10" s="275" t="n"/>
       <c r="AN10" s="274" t="n"/>
-      <c r="AO10" s="311" t="inlineStr">
+      <c r="AO10" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AP10" s="318" t="inlineStr">
+      <c r="AP10" s="320" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
@@ -3118,7 +3151,7 @@
       <c r="F11" s="275" t="n"/>
       <c r="G11" s="275" t="n"/>
       <c r="H11" s="275" t="n"/>
-      <c r="I11" s="315" t="inlineStr">
+      <c r="I11" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -3131,7 +3164,7 @@
       <c r="O11" s="274" t="n"/>
       <c r="P11" s="275" t="n"/>
       <c r="Q11" s="275" t="n"/>
-      <c r="R11" s="315" t="inlineStr">
+      <c r="R11" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -3140,7 +3173,7 @@
       <c r="T11" s="275" t="n"/>
       <c r="U11" s="274" t="n"/>
       <c r="V11" s="274" t="n"/>
-      <c r="W11" s="316" t="inlineStr">
+      <c r="W11" s="318" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -3160,7 +3193,7 @@
       <c r="AJ11" s="275" t="n"/>
       <c r="AK11" s="275" t="n"/>
       <c r="AL11" s="275" t="n"/>
-      <c r="AM11" s="315" t="inlineStr">
+      <c r="AM11" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -3195,7 +3228,7 @@
       <c r="J12" s="275" t="n"/>
       <c r="K12" s="275" t="n"/>
       <c r="L12" s="275" t="n"/>
-      <c r="M12" s="307" t="inlineStr">
+      <c r="M12" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
@@ -3220,19 +3253,19 @@
       <c r="AA12" s="275" t="n"/>
       <c r="AB12" s="275" t="n"/>
       <c r="AC12" s="275" t="n"/>
-      <c r="AD12" s="317" t="inlineStr">
+      <c r="AD12" s="319" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="AE12" s="275" t="n"/>
       <c r="AF12" s="274" t="n"/>
-      <c r="AG12" s="317" t="inlineStr">
+      <c r="AG12" s="319" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AH12" s="308" t="inlineStr">
+      <c r="AH12" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3246,7 +3279,7 @@
       <c r="AK12" s="287" t="inlineStr"/>
       <c r="AL12" s="275" t="n"/>
       <c r="AM12" s="274" t="n"/>
-      <c r="AN12" s="308" t="inlineStr">
+      <c r="AN12" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3271,16 +3304,12 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="D13" s="301" t="inlineStr">
+      <c r="D13" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="E13" s="322" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="E13" s="280" t="inlineStr"/>
       <c r="F13" s="274" t="n"/>
       <c r="G13" s="275" t="n"/>
       <c r="H13" s="275" t="n"/>
@@ -3291,7 +3320,7 @@
       </c>
       <c r="J13" s="275" t="n"/>
       <c r="K13" s="274" t="n"/>
-      <c r="L13" s="319" t="inlineStr">
+      <c r="L13" s="322" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -3318,7 +3347,7 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="S13" s="311" t="inlineStr">
+      <c r="S13" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -3331,7 +3360,7 @@
         </is>
       </c>
       <c r="W13" s="274" t="n"/>
-      <c r="X13" s="301" t="inlineStr">
+      <c r="X13" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -3343,12 +3372,16 @@
       <c r="AC13" s="274" t="n"/>
       <c r="AD13" s="275" t="inlineStr"/>
       <c r="AE13" s="287" t="inlineStr"/>
-      <c r="AF13" s="310" t="inlineStr">
+      <c r="AF13" s="312" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AG13" s="277" t="inlineStr"/>
+      <c r="AG13" s="313" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AH13" s="274" t="n"/>
       <c r="AI13" s="275" t="n"/>
       <c r="AJ13" s="275" t="n"/>
@@ -3393,13 +3426,13 @@
       <c r="R14" s="274" t="n"/>
       <c r="S14" s="274" t="n"/>
       <c r="T14" s="275" t="n"/>
-      <c r="U14" s="315" t="inlineStr">
+      <c r="U14" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="V14" s="274" t="n"/>
-      <c r="W14" s="320" t="inlineStr">
+      <c r="W14" s="323" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -3409,7 +3442,7 @@
       <c r="Z14" s="275" t="n"/>
       <c r="AA14" s="275" t="n"/>
       <c r="AB14" s="275" t="n"/>
-      <c r="AC14" s="315" t="inlineStr">
+      <c r="AC14" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -3423,7 +3456,7 @@
       <c r="AJ14" s="275" t="n"/>
       <c r="AK14" s="275" t="n"/>
       <c r="AL14" s="275" t="n"/>
-      <c r="AM14" s="315" t="inlineStr">
+      <c r="AM14" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -3467,7 +3500,7 @@
       <c r="O15" s="287" t="inlineStr"/>
       <c r="P15" s="275" t="n"/>
       <c r="Q15" s="274" t="n"/>
-      <c r="R15" s="308" t="inlineStr">
+      <c r="R15" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3483,17 +3516,17 @@
       <c r="AA15" s="275" t="n"/>
       <c r="AB15" s="275" t="n"/>
       <c r="AC15" s="275" t="n"/>
-      <c r="AD15" s="307" t="inlineStr">
+      <c r="AD15" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AE15" s="308" t="inlineStr">
+      <c r="AE15" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AF15" s="308" t="inlineStr">
+      <c r="AF15" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3505,7 +3538,7 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ15" s="308" t="inlineStr">
+      <c r="AJ15" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3549,32 +3582,24 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="G16" s="318" t="inlineStr">
+      <c r="G16" s="320" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="H16" s="275" t="n"/>
       <c r="I16" s="274" t="n"/>
-      <c r="J16" s="303" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="J16" s="282" t="inlineStr"/>
       <c r="K16" s="274" t="n"/>
-      <c r="L16" s="319" t="inlineStr">
+      <c r="L16" s="322" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="M16" s="314" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="M16" s="275" t="n"/>
       <c r="N16" s="275" t="n"/>
       <c r="O16" s="275" t="n"/>
-      <c r="P16" s="301" t="inlineStr">
+      <c r="P16" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -3585,7 +3610,7 @@
         </is>
       </c>
       <c r="R16" s="274" t="n"/>
-      <c r="S16" s="311" t="inlineStr">
+      <c r="S16" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -3596,14 +3621,22 @@
       <c r="W16" s="275" t="n"/>
       <c r="X16" s="275" t="n"/>
       <c r="Y16" s="275" t="n"/>
-      <c r="Z16" s="282" t="inlineStr"/>
+      <c r="Z16" s="303" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AA16" s="275" t="n"/>
       <c r="AB16" s="275" t="n"/>
       <c r="AC16" s="274" t="n"/>
       <c r="AD16" s="275" t="n"/>
-      <c r="AE16" s="274" t="inlineStr"/>
+      <c r="AE16" s="306" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AF16" s="274" t="n"/>
-      <c r="AG16" s="311" t="inlineStr">
+      <c r="AG16" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -3616,12 +3649,12 @@
       <c r="AM16" s="275" t="n"/>
       <c r="AN16" s="274" t="n"/>
       <c r="AO16" s="275" t="n"/>
-      <c r="AP16" s="311" t="inlineStr">
+      <c r="AP16" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AQ16" s="306" t="inlineStr">
+      <c r="AQ16" s="324" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
@@ -3644,7 +3677,7 @@
       <c r="F17" s="275" t="n"/>
       <c r="G17" s="275" t="n"/>
       <c r="H17" s="275" t="n"/>
-      <c r="I17" s="316" t="inlineStr">
+      <c r="I17" s="318" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -3671,7 +3704,7 @@
       <c r="Y17" s="275" t="n"/>
       <c r="Z17" s="275" t="n"/>
       <c r="AA17" s="275" t="n"/>
-      <c r="AB17" s="315" t="inlineStr">
+      <c r="AB17" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -3695,7 +3728,7 @@
       <c r="AO17" s="275" t="n"/>
       <c r="AP17" s="275" t="n"/>
       <c r="AQ17" s="275" t="n"/>
-      <c r="AR17" s="200" t="inlineStr">
+      <c r="AR17" s="328" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -3722,7 +3755,7 @@
       <c r="J18" s="275" t="n"/>
       <c r="K18" s="275" t="n"/>
       <c r="L18" s="275" t="n"/>
-      <c r="M18" s="308" t="inlineStr">
+      <c r="M18" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3731,12 +3764,12 @@
       <c r="O18" s="287" t="inlineStr"/>
       <c r="P18" s="275" t="n"/>
       <c r="Q18" s="274" t="n"/>
-      <c r="R18" s="308" t="inlineStr">
+      <c r="R18" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="S18" s="308" t="inlineStr">
+      <c r="S18" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3759,7 +3792,7 @@
       <c r="AE18" s="275" t="n"/>
       <c r="AF18" s="274" t="n"/>
       <c r="AG18" s="274" t="n"/>
-      <c r="AH18" s="307" t="inlineStr">
+      <c r="AH18" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
@@ -3772,12 +3805,12 @@
       <c r="AJ18" s="289" t="inlineStr"/>
       <c r="AK18" s="275" t="n"/>
       <c r="AL18" s="275" t="n"/>
-      <c r="AM18" s="307" t="inlineStr">
+      <c r="AM18" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AN18" s="308" t="inlineStr">
+      <c r="AN18" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -3802,16 +3835,12 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="D19" s="311" t="inlineStr">
+      <c r="D19" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="E19" s="305" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="E19" s="274" t="n"/>
       <c r="F19" s="304" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
@@ -3819,7 +3848,7 @@
       </c>
       <c r="G19" s="289" t="inlineStr"/>
       <c r="H19" s="275" t="n"/>
-      <c r="I19" s="311" t="inlineStr">
+      <c r="I19" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -3838,18 +3867,18 @@
       <c r="M19" s="275" t="n"/>
       <c r="N19" s="275" t="n"/>
       <c r="O19" s="275" t="n"/>
-      <c r="P19" s="301" t="inlineStr">
+      <c r="P19" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="Q19" s="311" t="inlineStr">
+      <c r="Q19" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="R19" s="274" t="n"/>
-      <c r="S19" s="318" t="inlineStr">
+      <c r="S19" s="320" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
@@ -3858,25 +3887,29 @@
       <c r="U19" s="275" t="n"/>
       <c r="V19" s="274" t="n"/>
       <c r="W19" s="275" t="n"/>
-      <c r="X19" s="301" t="inlineStr">
+      <c r="X19" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="Y19" s="275" t="n"/>
-      <c r="Z19" s="282" t="inlineStr"/>
+      <c r="Z19" s="303" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AA19" s="275" t="n"/>
       <c r="AB19" s="275" t="n"/>
       <c r="AC19" s="274" t="n"/>
       <c r="AD19" s="275" t="n"/>
       <c r="AE19" s="275" t="n"/>
       <c r="AF19" s="274" t="n"/>
-      <c r="AG19" s="311" t="inlineStr">
+      <c r="AG19" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AH19" s="318" t="inlineStr">
+      <c r="AH19" s="320" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
@@ -3907,16 +3940,16 @@
         </is>
       </c>
       <c r="C20" s="274" t="n"/>
-      <c r="D20" s="316" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
+      <c r="D20" s="274" t="n"/>
       <c r="E20" s="274" t="n"/>
       <c r="F20" s="275" t="n"/>
       <c r="G20" s="275" t="n"/>
       <c r="H20" s="275" t="n"/>
-      <c r="I20" s="274" t="inlineStr"/>
+      <c r="I20" s="318" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="J20" s="275" t="n"/>
       <c r="K20" s="281" t="inlineStr">
         <is>
@@ -3932,7 +3965,7 @@
       <c r="R20" s="274" t="n"/>
       <c r="S20" s="274" t="n"/>
       <c r="T20" s="275" t="n"/>
-      <c r="U20" s="315" t="inlineStr">
+      <c r="U20" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -3963,7 +3996,7 @@
       <c r="AO20" s="275" t="n"/>
       <c r="AP20" s="275" t="n"/>
       <c r="AQ20" s="275" t="n"/>
-      <c r="AR20" s="200" t="inlineStr">
+      <c r="AR20" s="328" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -4008,7 +4041,7 @@
       <c r="P21" s="275" t="n"/>
       <c r="Q21" s="274" t="n"/>
       <c r="R21" s="274" t="n"/>
-      <c r="S21" s="307" t="inlineStr">
+      <c r="S21" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
@@ -4021,7 +4054,7 @@
       <c r="Y21" s="274" t="n"/>
       <c r="Z21" s="275" t="n"/>
       <c r="AA21" s="275" t="n"/>
-      <c r="AB21" s="308" t="inlineStr">
+      <c r="AB21" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -4029,7 +4062,7 @@
       <c r="AC21" s="275" t="n"/>
       <c r="AD21" s="275" t="n"/>
       <c r="AE21" s="274" t="n"/>
-      <c r="AF21" s="308" t="inlineStr">
+      <c r="AF21" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -4038,13 +4071,13 @@
       <c r="AH21" s="274" t="n"/>
       <c r="AI21" s="287" t="inlineStr"/>
       <c r="AJ21" s="289" t="inlineStr"/>
-      <c r="AK21" s="317" t="inlineStr">
+      <c r="AK21" s="319" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="AL21" s="275" t="n"/>
-      <c r="AM21" s="308" t="inlineStr">
+      <c r="AM21" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -4075,7 +4108,7 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="E22" s="315" t="inlineStr">
+      <c r="E22" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -4085,7 +4118,7 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="G22" s="301" t="inlineStr">
+      <c r="G22" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -4106,7 +4139,7 @@
       <c r="M22" s="275" t="n"/>
       <c r="N22" s="274" t="n"/>
       <c r="O22" s="275" t="n"/>
-      <c r="P22" s="301" t="inlineStr">
+      <c r="P22" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -4131,7 +4164,7 @@
       <c r="Z22" s="275" t="n"/>
       <c r="AA22" s="275" t="n"/>
       <c r="AB22" s="275" t="n"/>
-      <c r="AC22" s="315" t="inlineStr">
+      <c r="AC22" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -4167,11 +4200,7 @@
         </is>
       </c>
       <c r="C23" s="274" t="n"/>
-      <c r="D23" s="316" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="D23" s="274" t="n"/>
       <c r="E23" s="274" t="n"/>
       <c r="F23" s="275" t="n"/>
       <c r="G23" s="275" t="n"/>
@@ -4181,7 +4210,7 @@
       <c r="K23" s="274" t="n"/>
       <c r="L23" s="275" t="n"/>
       <c r="M23" s="275" t="n"/>
-      <c r="N23" s="315" t="inlineStr">
+      <c r="N23" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -4192,19 +4221,23 @@
       <c r="R23" s="274" t="n"/>
       <c r="S23" s="274" t="n"/>
       <c r="T23" s="275" t="n"/>
-      <c r="U23" s="315" t="inlineStr">
+      <c r="U23" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="V23" s="277" t="inlineStr"/>
+      <c r="V23" s="323" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="W23" s="275" t="n"/>
       <c r="X23" s="275" t="n"/>
       <c r="Y23" s="275" t="n"/>
       <c r="Z23" s="275" t="n"/>
       <c r="AA23" s="275" t="n"/>
       <c r="AB23" s="275" t="n"/>
-      <c r="AC23" s="320" t="inlineStr">
+      <c r="AC23" s="323" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -4266,7 +4299,7 @@
       </c>
       <c r="AB24" s="275" t="n"/>
       <c r="AC24" s="275" t="n"/>
-      <c r="AD24" s="317" t="inlineStr">
+      <c r="AD24" s="319" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -4282,25 +4315,25 @@
         </is>
       </c>
       <c r="AG24" s="274" t="n"/>
-      <c r="AH24" s="317" t="inlineStr">
+      <c r="AH24" s="319" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="AI24" s="277" t="inlineStr"/>
-      <c r="AJ24" s="307" t="inlineStr">
+      <c r="AJ24" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="AK24" s="274" t="n"/>
-      <c r="AL24" s="308" t="inlineStr">
+      <c r="AL24" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="AM24" s="274" t="n"/>
-      <c r="AN24" s="317" t="inlineStr">
+      <c r="AN24" s="319" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -4320,15 +4353,11 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C25" s="305" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="C25" s="275" t="n"/>
       <c r="D25" s="277" t="inlineStr"/>
       <c r="E25" s="274" t="n"/>
       <c r="F25" s="274" t="n"/>
-      <c r="G25" s="318" t="inlineStr">
+      <c r="G25" s="320" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
@@ -4349,14 +4378,14 @@
       <c r="Q25" s="274" t="n"/>
       <c r="R25" s="274" t="n"/>
       <c r="S25" s="277" t="inlineStr"/>
-      <c r="T25" s="311" t="inlineStr">
+      <c r="T25" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="U25" s="275" t="n"/>
       <c r="V25" s="274" t="n"/>
-      <c r="W25" s="301" t="inlineStr">
+      <c r="W25" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -4367,13 +4396,17 @@
         </is>
       </c>
       <c r="Y25" s="275" t="n"/>
-      <c r="Z25" s="282" t="inlineStr"/>
+      <c r="Z25" s="303" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AA25" s="275" t="n"/>
       <c r="AB25" s="275" t="n"/>
       <c r="AC25" s="274" t="n"/>
       <c r="AD25" s="275" t="n"/>
       <c r="AE25" s="274" t="n"/>
-      <c r="AF25" s="310" t="inlineStr">
+      <c r="AF25" s="312" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -4394,22 +4427,22 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AO25" s="301" t="inlineStr">
+      <c r="AO25" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AP25" s="319" t="inlineStr">
+      <c r="AP25" s="322" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AQ25" s="319" t="inlineStr">
+      <c r="AQ25" s="322" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AR25" s="199" t="inlineStr">
+      <c r="AR25" s="329" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
@@ -4437,7 +4470,7 @@
       <c r="K26" s="275" t="n"/>
       <c r="L26" s="288" t="inlineStr"/>
       <c r="M26" s="275" t="n"/>
-      <c r="N26" s="315" t="inlineStr">
+      <c r="N26" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -4448,12 +4481,12 @@
       <c r="R26" s="274" t="n"/>
       <c r="S26" s="274" t="n"/>
       <c r="T26" s="274" t="n"/>
-      <c r="U26" s="315" t="inlineStr">
+      <c r="U26" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="V26" s="315" t="inlineStr">
+      <c r="V26" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -4474,7 +4507,7 @@
       <c r="AJ26" s="275" t="n"/>
       <c r="AK26" s="275" t="n"/>
       <c r="AL26" s="274" t="n"/>
-      <c r="AM26" s="316" t="inlineStr">
+      <c r="AM26" s="318" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -4525,7 +4558,7 @@
       <c r="V27" s="274" t="n"/>
       <c r="W27" s="275" t="n"/>
       <c r="X27" s="275" t="n"/>
-      <c r="Y27" s="308" t="inlineStr">
+      <c r="Y27" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -4535,12 +4568,12 @@
       <c r="AB27" s="275" t="n"/>
       <c r="AC27" s="275" t="n"/>
       <c r="AD27" s="274" t="n"/>
-      <c r="AE27" s="308" t="inlineStr">
+      <c r="AE27" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AF27" s="308" t="inlineStr">
+      <c r="AF27" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -4552,7 +4585,7 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ27" s="308" t="inlineStr">
+      <c r="AJ27" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -4600,13 +4633,9 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="G28" s="314" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="G28" s="275" t="n"/>
       <c r="H28" s="275" t="n"/>
-      <c r="I28" s="311" t="inlineStr">
+      <c r="I28" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -4621,12 +4650,12 @@
       <c r="M28" s="275" t="n"/>
       <c r="N28" s="274" t="n"/>
       <c r="O28" s="275" t="n"/>
-      <c r="P28" s="311" t="inlineStr">
+      <c r="P28" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="Q28" s="311" t="inlineStr">
+      <c r="Q28" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -4651,7 +4680,7 @@
         </is>
       </c>
       <c r="Y28" s="275" t="n"/>
-      <c r="Z28" s="311" t="inlineStr">
+      <c r="Z28" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -4666,11 +4695,15 @@
       <c r="AH28" s="274" t="n"/>
       <c r="AI28" s="275" t="n"/>
       <c r="AJ28" s="274" t="n"/>
-      <c r="AK28" s="282" t="inlineStr"/>
+      <c r="AK28" s="311" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AL28" s="275" t="n"/>
       <c r="AM28" s="275" t="n"/>
       <c r="AN28" s="275" t="n"/>
-      <c r="AO28" s="301" t="inlineStr">
+      <c r="AO28" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -4700,7 +4733,7 @@
       <c r="K29" s="275" t="n"/>
       <c r="L29" s="275" t="n"/>
       <c r="M29" s="275" t="n"/>
-      <c r="N29" s="315" t="inlineStr">
+      <c r="N29" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -4708,14 +4741,10 @@
       <c r="O29" s="274" t="n"/>
       <c r="P29" s="275" t="n"/>
       <c r="Q29" s="275" t="n"/>
-      <c r="R29" s="315" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
+      <c r="R29" s="295" t="inlineStr"/>
       <c r="S29" s="274" t="n"/>
       <c r="T29" s="274" t="n"/>
-      <c r="U29" s="315" t="inlineStr">
+      <c r="U29" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -4727,7 +4756,7 @@
       <c r="Z29" s="275" t="n"/>
       <c r="AA29" s="274" t="n"/>
       <c r="AB29" s="275" t="n"/>
-      <c r="AC29" s="315" t="inlineStr">
+      <c r="AC29" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -4741,7 +4770,11 @@
       <c r="AJ29" s="275" t="n"/>
       <c r="AK29" s="275" t="n"/>
       <c r="AL29" s="274" t="n"/>
-      <c r="AM29" s="274" t="n"/>
+      <c r="AM29" s="318" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="AN29" s="275" t="n"/>
       <c r="AO29" s="275" t="n"/>
       <c r="AP29" s="275" t="n"/>
@@ -4781,7 +4814,7 @@
       </c>
       <c r="P30" s="275" t="n"/>
       <c r="Q30" s="274" t="n"/>
-      <c r="R30" s="308" t="inlineStr">
+      <c r="R30" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -4801,13 +4834,13 @@
       <c r="AA30" s="274" t="n"/>
       <c r="AB30" s="275" t="n"/>
       <c r="AC30" s="275" t="n"/>
-      <c r="AD30" s="308" t="inlineStr">
+      <c r="AD30" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="AE30" s="275" t="n"/>
-      <c r="AF30" s="308" t="inlineStr">
+      <c r="AF30" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -4821,7 +4854,7 @@
       </c>
       <c r="AJ30" s="274" t="n"/>
       <c r="AK30" s="274" t="n"/>
-      <c r="AL30" s="308" t="inlineStr">
+      <c r="AL30" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -4848,22 +4881,22 @@
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="D31" s="311" t="inlineStr">
+      <c r="D31" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="E31" s="274" t="inlineStr"/>
+      <c r="E31" s="316" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
       <c r="F31" s="304" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="G31" s="306" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
+      <c r="G31" s="287" t="inlineStr"/>
       <c r="H31" s="275" t="n"/>
       <c r="I31" s="274" t="n"/>
       <c r="J31" s="304" t="inlineStr">
@@ -4874,14 +4907,14 @@
       <c r="K31" s="275" t="n"/>
       <c r="L31" s="274" t="n"/>
       <c r="M31" s="275" t="n"/>
-      <c r="N31" s="318" t="inlineStr">
+      <c r="N31" s="320" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="O31" s="275" t="n"/>
       <c r="P31" s="274" t="n"/>
-      <c r="Q31" s="311" t="inlineStr">
+      <c r="Q31" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -4900,7 +4933,7 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="X31" s="311" t="inlineStr">
+      <c r="X31" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -4913,7 +4946,7 @@
       <c r="AD31" s="275" t="n"/>
       <c r="AE31" s="275" t="n"/>
       <c r="AF31" s="274" t="n"/>
-      <c r="AG31" s="319" t="inlineStr">
+      <c r="AG31" s="322" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -4921,7 +4954,7 @@
       <c r="AH31" s="274" t="n"/>
       <c r="AI31" s="275" t="n"/>
       <c r="AJ31" s="274" t="n"/>
-      <c r="AK31" s="301" t="inlineStr">
+      <c r="AK31" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -4929,7 +4962,7 @@
       <c r="AL31" s="275" t="n"/>
       <c r="AM31" s="275" t="n"/>
       <c r="AN31" s="275" t="n"/>
-      <c r="AO31" s="301" t="inlineStr">
+      <c r="AO31" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -4967,7 +5000,7 @@
       <c r="K32" s="289" t="inlineStr"/>
       <c r="L32" s="275" t="n"/>
       <c r="M32" s="275" t="n"/>
-      <c r="N32" s="315" t="inlineStr">
+      <c r="N32" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -4989,7 +5022,7 @@
       <c r="Y32" s="275" t="n"/>
       <c r="Z32" s="275" t="n"/>
       <c r="AA32" s="274" t="n"/>
-      <c r="AB32" s="315" t="inlineStr">
+      <c r="AB32" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -5009,7 +5042,7 @@
       <c r="AO32" s="275" t="n"/>
       <c r="AP32" s="275" t="n"/>
       <c r="AQ32" s="275" t="n"/>
-      <c r="AR32" s="200" t="inlineStr">
+      <c r="AR32" s="328" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -5042,14 +5075,14 @@
       <c r="L33" s="275" t="n"/>
       <c r="M33" s="277" t="inlineStr"/>
       <c r="N33" s="274" t="n"/>
-      <c r="O33" s="307" t="inlineStr">
+      <c r="O33" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="P33" s="275" t="n"/>
       <c r="Q33" s="274" t="n"/>
-      <c r="R33" s="308" t="inlineStr">
+      <c r="R33" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -5069,7 +5102,7 @@
       <c r="AE33" s="274" t="n"/>
       <c r="AF33" s="274" t="n"/>
       <c r="AG33" s="274" t="n"/>
-      <c r="AH33" s="308" t="inlineStr">
+      <c r="AH33" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -5080,18 +5113,18 @@
         </is>
       </c>
       <c r="AJ33" s="274" t="n"/>
-      <c r="AK33" s="307" t="inlineStr">
+      <c r="AK33" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="AL33" s="274" t="n"/>
-      <c r="AM33" s="308" t="inlineStr">
+      <c r="AM33" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AN33" s="308" t="inlineStr">
+      <c r="AN33" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -5111,16 +5144,8 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C34" s="314" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="D34" s="314" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
+      <c r="C34" s="274" t="n"/>
+      <c r="D34" s="274" t="n"/>
       <c r="E34" s="303" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
@@ -5147,12 +5172,12 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="S34" s="311" t="inlineStr">
+      <c r="S34" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="T34" s="311" t="inlineStr">
+      <c r="T34" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -5166,18 +5191,22 @@
       </c>
       <c r="X34" s="274" t="n"/>
       <c r="Y34" s="275" t="n"/>
-      <c r="Z34" s="282" t="inlineStr"/>
+      <c r="Z34" s="311" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AA34" s="275" t="n"/>
       <c r="AB34" s="275" t="n"/>
       <c r="AC34" s="274" t="n"/>
       <c r="AD34" s="275" t="inlineStr"/>
-      <c r="AE34" s="310" t="inlineStr">
+      <c r="AE34" s="312" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AF34" s="277" t="inlineStr"/>
-      <c r="AG34" s="311" t="inlineStr">
+      <c r="AG34" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -5189,16 +5218,20 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AK34" s="282" t="inlineStr"/>
+      <c r="AK34" s="301" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
       <c r="AL34" s="275" t="n"/>
       <c r="AM34" s="275" t="n"/>
       <c r="AN34" s="274" t="n"/>
-      <c r="AO34" s="301" t="inlineStr">
+      <c r="AO34" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AP34" s="318" t="inlineStr">
+      <c r="AP34" s="320" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
@@ -5231,7 +5264,7 @@
       <c r="K35" s="275" t="n"/>
       <c r="L35" s="275" t="n"/>
       <c r="M35" s="275" t="n"/>
-      <c r="N35" s="315" t="inlineStr">
+      <c r="N35" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -5242,12 +5275,12 @@
       <c r="R35" s="274" t="n"/>
       <c r="S35" s="274" t="n"/>
       <c r="T35" s="274" t="n"/>
-      <c r="U35" s="315" t="inlineStr">
+      <c r="U35" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="V35" s="315" t="inlineStr">
+      <c r="V35" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -5258,7 +5291,7 @@
       <c r="Z35" s="275" t="n"/>
       <c r="AA35" s="274" t="n"/>
       <c r="AB35" s="275" t="n"/>
-      <c r="AC35" s="315" t="inlineStr">
+      <c r="AC35" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -5309,14 +5342,14 @@
         </is>
       </c>
       <c r="N36" s="275" t="n"/>
-      <c r="O36" s="308" t="inlineStr">
+      <c r="O36" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="P36" s="275" t="n"/>
       <c r="Q36" s="274" t="n"/>
-      <c r="R36" s="308" t="inlineStr">
+      <c r="R36" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -5337,7 +5370,7 @@
       <c r="AB36" s="275" t="n"/>
       <c r="AC36" s="275" t="n"/>
       <c r="AD36" s="274" t="n"/>
-      <c r="AE36" s="308" t="inlineStr">
+      <c r="AE36" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -5352,7 +5385,7 @@
       </c>
       <c r="AJ36" s="274" t="n"/>
       <c r="AK36" s="274" t="n"/>
-      <c r="AL36" s="308" t="inlineStr">
+      <c r="AL36" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -5389,7 +5422,7 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="F37" s="319" t="inlineStr">
+      <c r="F37" s="322" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -5403,7 +5436,7 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="L37" s="311" t="inlineStr">
+      <c r="L37" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -5411,12 +5444,12 @@
       <c r="M37" s="275" t="n"/>
       <c r="N37" s="275" t="n"/>
       <c r="O37" s="275" t="n"/>
-      <c r="P37" s="311" t="inlineStr">
+      <c r="P37" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="Q37" s="311" t="inlineStr">
+      <c r="Q37" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -5444,18 +5477,14 @@
       <c r="AD37" s="275" t="inlineStr"/>
       <c r="AE37" s="274" t="n"/>
       <c r="AF37" s="274" t="n"/>
-      <c r="AG37" s="314" t="inlineStr">
+      <c r="AG37" s="316" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="AH37" s="274" t="n"/>
       <c r="AI37" s="275" t="n"/>
-      <c r="AJ37" s="314" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="AJ37" s="274" t="n"/>
       <c r="AK37" s="304" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
@@ -5464,12 +5493,16 @@
       <c r="AL37" s="275" t="n"/>
       <c r="AM37" s="275" t="n"/>
       <c r="AN37" s="274" t="n"/>
-      <c r="AO37" s="301" t="inlineStr">
+      <c r="AO37" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AP37" s="279" t="inlineStr"/>
+      <c r="AP37" s="311" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AQ37" s="275" t="n"/>
     </row>
     <row r="38" ht="18" customHeight="1">
@@ -5500,22 +5533,22 @@
       <c r="Q38" s="275" t="n"/>
       <c r="R38" s="274" t="n"/>
       <c r="S38" s="274" t="n"/>
-      <c r="T38" s="315" t="inlineStr">
+      <c r="T38" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="U38" s="315" t="inlineStr">
+      <c r="U38" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="V38" s="315" t="inlineStr">
+      <c r="V38" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="W38" s="316" t="inlineStr">
+      <c r="W38" s="325" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -5575,7 +5608,7 @@
       <c r="O39" s="274" t="n"/>
       <c r="P39" s="275" t="n"/>
       <c r="Q39" s="274" t="n"/>
-      <c r="R39" s="308" t="inlineStr">
+      <c r="R39" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -5599,7 +5632,7 @@
       <c r="AE39" s="274" t="n"/>
       <c r="AF39" s="274" t="n"/>
       <c r="AG39" s="274" t="n"/>
-      <c r="AH39" s="308" t="inlineStr">
+      <c r="AH39" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -5612,12 +5645,12 @@
       <c r="AJ39" s="274" t="n"/>
       <c r="AK39" s="274" t="n"/>
       <c r="AL39" s="274" t="n"/>
-      <c r="AM39" s="308" t="inlineStr">
+      <c r="AM39" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AN39" s="308" t="inlineStr">
+      <c r="AN39" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -5637,11 +5670,7 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C40" s="314" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="C40" s="274" t="n"/>
       <c r="D40" s="274" t="n"/>
       <c r="E40" s="274" t="n"/>
       <c r="F40" s="274" t="n"/>
@@ -5658,7 +5687,7 @@
         </is>
       </c>
       <c r="K40" s="274" t="n"/>
-      <c r="L40" s="311" t="inlineStr">
+      <c r="L40" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -5668,12 +5697,12 @@
       <c r="O40" s="275" t="n"/>
       <c r="P40" s="274" t="n"/>
       <c r="Q40" s="274" t="n"/>
-      <c r="R40" s="311" t="inlineStr">
+      <c r="R40" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="S40" s="311" t="inlineStr">
+      <c r="S40" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -5688,7 +5717,11 @@
       <c r="W40" s="274" t="n"/>
       <c r="X40" s="274" t="n"/>
       <c r="Y40" s="275" t="n"/>
-      <c r="Z40" s="282" t="inlineStr"/>
+      <c r="Z40" s="311" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AA40" s="275" t="n"/>
       <c r="AB40" s="275" t="n"/>
       <c r="AC40" s="301" t="inlineStr">
@@ -5703,7 +5736,7 @@
         </is>
       </c>
       <c r="AF40" s="274" t="n"/>
-      <c r="AG40" s="311" t="inlineStr">
+      <c r="AG40" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -5719,7 +5752,7 @@
       <c r="AL40" s="275" t="n"/>
       <c r="AM40" s="275" t="n"/>
       <c r="AN40" s="274" t="n"/>
-      <c r="AO40" s="301" t="inlineStr">
+      <c r="AO40" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -5747,7 +5780,7 @@
         </is>
       </c>
       <c r="C41" s="274" t="n"/>
-      <c r="D41" s="315" t="inlineStr">
+      <c r="D41" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -5761,7 +5794,7 @@
       <c r="K41" s="274" t="n"/>
       <c r="L41" s="275" t="n"/>
       <c r="M41" s="275" t="n"/>
-      <c r="N41" s="315" t="inlineStr">
+      <c r="N41" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -5773,12 +5806,12 @@
       <c r="S41" s="274" t="n"/>
       <c r="T41" s="274" t="n"/>
       <c r="U41" s="274" t="n"/>
-      <c r="V41" s="315" t="inlineStr">
+      <c r="V41" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="W41" s="315" t="inlineStr">
+      <c r="W41" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -5851,20 +5884,20 @@
         </is>
       </c>
       <c r="Z42" s="275" t="n"/>
-      <c r="AA42" s="308" t="inlineStr">
+      <c r="AA42" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="AB42" s="275" t="n"/>
       <c r="AC42" s="275" t="n"/>
-      <c r="AD42" s="308" t="inlineStr">
+      <c r="AD42" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="AE42" s="274" t="n"/>
-      <c r="AF42" s="308" t="inlineStr">
+      <c r="AF42" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -5878,7 +5911,7 @@
       </c>
       <c r="AJ42" s="274" t="n"/>
       <c r="AK42" s="274" t="n"/>
-      <c r="AL42" s="308" t="inlineStr">
+      <c r="AL42" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -5900,7 +5933,7 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C43" s="301" t="inlineStr">
+      <c r="C43" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -5911,7 +5944,7 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="F43" s="311" t="inlineStr">
+      <c r="F43" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -5922,7 +5955,7 @@
         </is>
       </c>
       <c r="H43" s="275" t="n"/>
-      <c r="I43" s="311" t="inlineStr">
+      <c r="I43" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -5941,12 +5974,12 @@
       <c r="M43" s="275" t="n"/>
       <c r="N43" s="274" t="n"/>
       <c r="O43" s="275" t="n"/>
-      <c r="P43" s="311" t="inlineStr">
+      <c r="P43" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="Q43" s="311" t="inlineStr">
+      <c r="Q43" s="313" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -5990,7 +6023,7 @@
       <c r="AL43" s="275" t="n"/>
       <c r="AM43" s="275" t="n"/>
       <c r="AN43" s="274" t="n"/>
-      <c r="AO43" s="301" t="inlineStr">
+      <c r="AO43" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -6010,22 +6043,22 @@
         </is>
       </c>
       <c r="C44" s="274" t="n"/>
-      <c r="D44" s="316" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
+      <c r="D44" s="274" t="n"/>
       <c r="E44" s="274" t="n"/>
       <c r="F44" s="275" t="n"/>
       <c r="G44" s="275" t="n"/>
       <c r="H44" s="275" t="n"/>
-      <c r="I44" s="277" t="inlineStr"/>
+      <c r="I44" s="326" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="J44" s="275" t="n"/>
       <c r="K44" s="274" t="n"/>
       <c r="L44" s="275" t="n"/>
       <c r="M44" s="275" t="n"/>
       <c r="N44" s="280" t="inlineStr"/>
-      <c r="O44" s="315" t="inlineStr">
+      <c r="O44" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -6035,7 +6068,7 @@
       <c r="R44" s="274" t="n"/>
       <c r="S44" s="274" t="n"/>
       <c r="T44" s="274" t="n"/>
-      <c r="U44" s="315" t="inlineStr">
+      <c r="U44" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -6046,7 +6079,7 @@
       <c r="Y44" s="275" t="n"/>
       <c r="Z44" s="275" t="n"/>
       <c r="AA44" s="274" t="n"/>
-      <c r="AB44" s="321" t="inlineStr">
+      <c r="AB44" s="327" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -6097,7 +6130,7 @@
       <c r="O45" s="274" t="n"/>
       <c r="P45" s="275" t="n"/>
       <c r="Q45" s="275" t="n"/>
-      <c r="R45" s="308" t="inlineStr">
+      <c r="R45" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -6114,14 +6147,14 @@
         </is>
       </c>
       <c r="Z45" s="275" t="n"/>
-      <c r="AA45" s="307" t="inlineStr">
+      <c r="AA45" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="AB45" s="275" t="n"/>
       <c r="AC45" s="275" t="n"/>
-      <c r="AD45" s="307" t="inlineStr">
+      <c r="AD45" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
@@ -6129,7 +6162,7 @@
       <c r="AE45" s="275" t="n"/>
       <c r="AF45" s="274" t="n"/>
       <c r="AG45" s="274" t="n"/>
-      <c r="AH45" s="308" t="inlineStr">
+      <c r="AH45" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -6138,12 +6171,12 @@
       <c r="AJ45" s="275" t="n"/>
       <c r="AK45" s="274" t="n"/>
       <c r="AL45" s="274" t="n"/>
-      <c r="AM45" s="308" t="inlineStr">
+      <c r="AM45" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AN45" s="308" t="inlineStr">
+      <c r="AN45" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -6164,7 +6197,7 @@
         </is>
       </c>
       <c r="C46" s="275" t="n"/>
-      <c r="D46" s="321" t="inlineStr">
+      <c r="D46" s="327" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -6180,7 +6213,7 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="L46" s="301" t="inlineStr">
+      <c r="L46" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -6208,7 +6241,7 @@
       <c r="AC46" s="280" t="inlineStr"/>
       <c r="AD46" s="275" t="n"/>
       <c r="AE46" s="275" t="n"/>
-      <c r="AF46" s="320" t="inlineStr">
+      <c r="AF46" s="326" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -6229,7 +6262,7 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AO46" s="301" t="inlineStr">
+      <c r="AO46" s="311" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
@@ -6260,7 +6293,7 @@
       <c r="L47" s="275" t="n"/>
       <c r="M47" s="275" t="n"/>
       <c r="N47" s="280" t="inlineStr"/>
-      <c r="O47" s="315" t="inlineStr">
+      <c r="O47" s="317" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
@@ -6268,13 +6301,13 @@
       <c r="P47" s="275" t="n"/>
       <c r="Q47" s="275" t="n"/>
       <c r="R47" s="275" t="n"/>
-      <c r="S47" s="316" t="inlineStr">
+      <c r="S47" s="318" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="T47" s="275" t="n"/>
-      <c r="U47" s="315" t="inlineStr">
+      <c r="U47" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -6286,7 +6319,7 @@
       <c r="Z47" s="275" t="n"/>
       <c r="AA47" s="274" t="n"/>
       <c r="AB47" s="275" t="n"/>
-      <c r="AC47" s="316" t="inlineStr">
+      <c r="AC47" s="325" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -6333,7 +6366,7 @@
       <c r="L48" s="275" t="n"/>
       <c r="M48" s="287" t="inlineStr"/>
       <c r="N48" s="274" t="n"/>
-      <c r="O48" s="307" t="inlineStr">
+      <c r="O48" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
@@ -6347,7 +6380,7 @@
       <c r="V48" s="274" t="n"/>
       <c r="W48" s="275" t="n"/>
       <c r="X48" s="275" t="n"/>
-      <c r="Y48" s="308" t="inlineStr">
+      <c r="Y48" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -6358,7 +6391,7 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AB48" s="308" t="inlineStr">
+      <c r="AB48" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -6366,7 +6399,7 @@
       <c r="AC48" s="275" t="n"/>
       <c r="AD48" s="275" t="n"/>
       <c r="AE48" s="275" t="n"/>
-      <c r="AF48" s="308" t="inlineStr">
+      <c r="AF48" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -6376,12 +6409,12 @@
       <c r="AI48" s="287" t="inlineStr"/>
       <c r="AJ48" s="275" t="n"/>
       <c r="AK48" s="274" t="n"/>
-      <c r="AL48" s="307" t="inlineStr">
+      <c r="AL48" s="308" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AM48" s="308" t="inlineStr">
+      <c r="AM48" s="309" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
@@ -6403,11 +6436,7 @@
         </is>
       </c>
       <c r="C49" s="275" t="n"/>
-      <c r="D49" s="304" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
+      <c r="D49" s="277" t="inlineStr"/>
       <c r="E49" s="301" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
@@ -6417,7 +6446,7 @@
       <c r="G49" s="282" t="inlineStr"/>
       <c r="H49" s="275" t="n"/>
       <c r="I49" s="287" t="inlineStr"/>
-      <c r="J49" s="315" t="inlineStr">
+      <c r="J49" s="321" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -6438,16 +6467,12 @@
       <c r="P49" s="275" t="n"/>
       <c r="Q49" s="275" t="n"/>
       <c r="R49" s="275" t="n"/>
-      <c r="S49" s="316" t="inlineStr">
+      <c r="S49" s="325" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="T49" s="304" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
+      <c r="T49" s="276" t="inlineStr"/>
       <c r="U49" s="275" t="n"/>
       <c r="V49" s="280" t="inlineStr"/>
       <c r="W49" s="275" t="n"/>
@@ -6459,13 +6484,21 @@
         </is>
       </c>
       <c r="AA49" s="275" t="n"/>
-      <c r="AB49" s="274" t="inlineStr"/>
+      <c r="AB49" s="320" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="AC49" s="280" t="inlineStr"/>
       <c r="AD49" s="275" t="n"/>
       <c r="AE49" s="275" t="n"/>
       <c r="AF49" s="274" t="n"/>
       <c r="AG49" s="274" t="n"/>
-      <c r="AH49" s="274" t="n"/>
+      <c r="AH49" s="320" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="AI49" s="275" t="n"/>
       <c r="AJ49" s="275" t="n"/>
       <c r="AK49" s="304" t="inlineStr">
@@ -6651,7 +6684,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Arndt Stüber, Dirk Kistner</t>
+          <t>Tobias Kahl, Arndt Stüber</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6759,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MARTIN LANGE, Mohamad Albadry, Kerstin Baarck, Björn Junker</t>
+          <t>MARTIN LANGE, Lars Staubermann, Mohamad Albadry, Björn Junker</t>
         </is>
       </c>
     </row>
@@ -6991,7 +7024,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -7001,7 +7034,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Manfred Grell, Jens Hafner</t>
+          <t>Jens Krause, Ralf Colditz</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7049,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -7026,7 +7059,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jens Krause, Ralf Colditz</t>
+          <t>Gunnar Brix, Jens Hafner</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7084,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Thomas Grüneberg, Jürgen Hansen, Kai Schröder, Bernd Sotzek</t>
+          <t>Jürgen Hansen, Kai Schröder, Lorenz Kramp, Bernd Sotzek</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7299,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -7276,7 +7309,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Thomas Grüneberg, Jens Krause, Jan Pappenheim, Andreas Dank</t>
+          <t>Bernd Robioneck, Ralf Colditz, Michael Bock, Carsten Gambal</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7324,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -7301,7 +7334,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Bernd Robioneck, Ralf Colditz, Michael Bock, Carsten Gambal</t>
+          <t>Jens Krause, Jan Pappenheim, Andreas Dank, Jens Hafner</t>
         </is>
       </c>
     </row>
@@ -7426,7 +7459,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Thomas Grüneberg, Kai Schröder</t>
+          <t>Thomas Grüneberg, Wolfgang Aleksik</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7509,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MARTIN LANGE, Ralf Colditz</t>
+          <t>Ralf Colditz, Gunnar Brix</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7684,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Thomas Grüneberg, Heiko Thomsen</t>
+          <t>Wolfgang Aleksik, Heiko Thomsen</t>
         </is>
       </c>
     </row>
@@ -7801,7 +7834,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Manfred Grell, Thomas Bretschneider</t>
+          <t>Bernd Robioneck, Thomas Bretschneider</t>
         </is>
       </c>
     </row>
@@ -7991,7 +8024,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -8001,7 +8034,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Manfred Grell, Oliver Böss</t>
+          <t>Frank Petermann, Thomas Bretschneider</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8049,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -8026,7 +8059,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Frank Petermann, Thomas Bretschneider</t>
+          <t>Liam Wilde, Oliver Böss</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8134,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Matthias Duddek, Markus Muench</t>
+          <t>Markus Muench, Wolfgang Aleksik</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8384,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Jörg Peters, Bernd Sotzek</t>
+          <t>Lorenz Kramp, Bernd Sotzek</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8459,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Frank Petermann, Carsten Gambal</t>
+          <t>Frank Petermann, Michael Rabehl</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8584,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Matthias Duddek, Jörg Peters</t>
+          <t>Matthias Duddek, Thomas Grüneberg</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8799,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -8776,7 +8809,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Matthias Duddek, Bernd Sotzek</t>
+          <t>Frank Koller, Lorenz Kramp</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8824,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -8801,7 +8834,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Manfred Grell, Frank Koller</t>
+          <t>Wolfgang Aleksik, Bernd Sotzek</t>
         </is>
       </c>
     </row>
@@ -9026,7 +9059,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Tobias Kahl, Bernd Sotzek</t>
+          <t>Bernd Sotzek, Arndt Stüber</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9249,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -9226,7 +9259,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Matthias Duddek, Bernd Sotzek</t>
+          <t>Kai Schröder, Oliver Böss</t>
         </is>
       </c>
     </row>
@@ -9241,7 +9274,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -9251,7 +9284,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Kai Schröder, Oliver Böss</t>
+          <t>Wolfgang Aleksik, Bernd Sotzek</t>
         </is>
       </c>
     </row>
@@ -9551,7 +9584,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Manfred Grell, Torsten Bartel</t>
+          <t>Bernd Robioneck, Torsten Bartel</t>
         </is>
       </c>
     </row>
@@ -9891,17 +9924,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Manfred Grell, Karsten Usinger, Wolfgang Aleksik, Lorenz Kramp</t>
+          <t>Kai Schröder, Jan Pappenheim</t>
         </is>
       </c>
     </row>
@@ -9916,17 +9949,17 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Kai Schröder, Jan Pappenheim</t>
+          <t>Wolfgang Aleksik, Torsten Bartel, Anke Ihde, Lorenz Kramp</t>
         </is>
       </c>
     </row>

--- a/trainplan_FIXED.xlsx
+++ b/trainplan_FIXED.xlsx
@@ -22673,7 +22673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22735,16 +22735,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Wolfgang Aleksik, Jörg Peters, Thomas Grüneberg, Jens Krause</t>
+          <t>Liam Wilde, Tobias Kahl, Bernd Sotzek, Björn Junker</t>
         </is>
       </c>
     </row>
@@ -22769,17 +22769,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Andreas Dank, Jens Hafner</t>
+          <t>Wolfgang Aleksik, Jörg Peters, Thomas Grüneberg, Jens Krause</t>
         </is>
       </c>
     </row>
@@ -22794,17 +22794,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>karsten usinger, Markus Muench</t>
+          <t>Bernd Robioneck, Carsten Gambal, Frank Koller, Lorenz Kramp</t>
         </is>
       </c>
     </row>
@@ -22819,7 +22819,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -22829,22 +22829,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>arndt stueber, kai schroeder</t>
+          <t>Andreas Dank, Jens Hafner</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -22854,97 +22854,97 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>martina schmidt, Anke Ihde</t>
+          <t>karsten usinger, Markus Muench</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D20:00-120 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MARTIN LANGE, martina schmidt, Liam Wilde, tobias kahl</t>
+          <t>arndt stueber, kai schroeder</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45922</v>
+        <v>45918</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sebastian Braune, mohamad albadry, kerstin baarck, Jan Pappenheim</t>
+          <t>martina schmidt, Anke Ihde</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45924</v>
+        <v>45918</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jens Krause, Jürgen Hansen, jens hafner, martina schmidt</t>
+          <t>Lars Staubermann, Manfred Grell</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -22954,32 +22954,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jörg Peters, lorenz kramp, gunnar brix, wolfgang aleksik</t>
+          <t>MARTIN LANGE, martina schmidt, Liam Wilde, tobias kahl</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Markus Muench, patrick buehrsch</t>
+          <t>Sebastian Braune, mohamad albadry, kerstin baarck, Jan Pappenheim</t>
         </is>
       </c>
     </row>
@@ -22994,17 +22994,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>kai schroeder, Frank Koller</t>
+          <t>Jens Krause, Jürgen Hansen, jens hafner, martina schmidt</t>
         </is>
       </c>
     </row>
@@ -23019,32 +23019,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>arndt stueber, Oliver Böss</t>
+          <t>Jörg Peters, lorenz kramp, gunnar brix, wolfgang aleksik</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -23054,157 +23054,157 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Torsten Bartel, Sebastian Braune</t>
+          <t>Markus Muench, patrick buehrsch</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>D20:00-120 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sebastian Braune, Anke Ihde, MARTIN LANGE, lena meiss</t>
+          <t>kai schroeder, Frank Koller</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>mohamad albadry, Michael Bock, kerstin baarck, lars staubermann</t>
+          <t>arndt stueber, Oliver Böss</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45931</v>
+        <v>45925</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jens Krause, torsten bartel, gunnar brix, Markus Muench</t>
+          <t>Torsten Bartel, Sebastian Braune</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45931</v>
+        <v>45925</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jürgen Hansen, Andreas Dank, Tobias Kahl, heiko thomsen</t>
+          <t>Thomas Grüneberg, Michael Rabehl</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45931</v>
+        <v>45929</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>patrick buehrsch, kai schroeder</t>
+          <t>Sebastian Braune, Anke Ihde, MARTIN LANGE, lena meiss</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45931</v>
+        <v>45929</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Thomas Grüneberg, Jens Hafner</t>
+          <t>mohamad albadry, Michael Bock, kerstin baarck, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -23219,57 +23219,57 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>arndt stueber, Ralf Colditz</t>
+          <t>Jens Krause, torsten bartel, gunnar brix, Markus Muench</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45932</v>
+        <v>45931</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bernd Robioneck, Frank Koller</t>
+          <t>Jürgen Hansen, Andreas Dank, Tobias Kahl, heiko thomsen</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45932</v>
+        <v>45931</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -23279,157 +23279,157 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Carsten Gambal, Michael Rabehl</t>
+          <t>patrick buehrsch, kai schroeder</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45936</v>
+        <v>45931</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>D20:00-120 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>tobias kahl, martina schmidt, kerstin baarck, Björn Junker</t>
+          <t>Thomas Grüneberg, Jens Hafner</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45936</v>
+        <v>45931</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sebastian Braune, Jens Hafner, Anke Ihde, mohamad albadry</t>
+          <t>arndt stueber, Ralf Colditz</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45938</v>
+        <v>45932</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bernd Robioneck, Ralf Colditz, Michael Bock, Jens Krause</t>
+          <t>Bernd Robioneck, Frank Koller</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45938</v>
+        <v>45932</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>wolfgang aleksik, Jan Pappenheim, Andreas Dank, gunnar brix</t>
+          <t>Carsten Gambal, Michael Rabehl</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45938</v>
+        <v>45936</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>torsten bartel, Jörg Peters</t>
+          <t>tobias kahl, martina schmidt, kerstin baarck, Björn Junker</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45938</v>
+        <v>45936</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Manfred Grell, Markus Muench</t>
+          <t>Sebastian Braune, Jens Hafner, Anke Ihde, mohamad albadry</t>
         </is>
       </c>
     </row>
@@ -23444,57 +23444,57 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>arndt stueber, kai schroeder</t>
+          <t>Bernd Robioneck, Ralf Colditz, Michael Bock, Jens Krause</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45939</v>
+        <v>45938</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Oliver Böss, Michael Rabehl</t>
+          <t>wolfgang aleksik, Jan Pappenheim, Andreas Dank, gunnar brix</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45939</v>
+        <v>45938</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -23504,97 +23504,97 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Thomas Bretschneider, Frank Koller</t>
+          <t>torsten bartel, Jörg Peters</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>D20:00-120 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>kerstin baarck, martina schmidt, Sebastian Braune, Björn Junker</t>
+          <t>Manfred Grell, Markus Muench</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45943</v>
+        <v>45938</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Carsten Gambal, Jan Pappenheim, mohamad albadry, Tobias Kahl</t>
+          <t>arndt stueber, kai schroeder</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45945</v>
+        <v>45939</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Jens Krause, Jürgen Hansen, Jörg Peters, Michael Bock</t>
+          <t>Oliver Böss, Michael Rabehl</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45945</v>
+        <v>45939</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -23604,163 +23604,163 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>patrick buehrsch, arndt stueber</t>
+          <t>Thomas Bretschneider, Frank Koller</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45945</v>
+        <v>45943</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ralf Colditz, Manfred Grell</t>
+          <t>kerstin baarck, martina schmidt, Sebastian Braune, Björn Junker</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45945</v>
+        <v>45943</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>kai schroeder, Heiko Thomsen</t>
+          <t>Carsten Gambal, Jan Pappenheim, mohamad albadry, Tobias Kahl</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45946</v>
+        <v>45945</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Thomas Bretschneider, Oliver Böss</t>
+          <t>Jens Krause, Jürgen Hansen, Jörg Peters, Michael Bock</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45946</v>
+        <v>45945</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Bernd Robioneck, Torsten Bartel</t>
+          <t>Gunnar Brix, Jens Hafner, Wolfgang Aleksik, Thomas Grüneberg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45950</v>
+        <v>45945</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>D20:00-120 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>kerstin baarck, Anke Ihde, Björn Junker, tobias kahl</t>
+          <t>patrick buehrsch, arndt stueber</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45950</v>
+        <v>45945</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>lena meiss, Carsten Gambal, Jan Pappenheim, mohamad albadry</t>
+          <t>Ralf Colditz, Manfred Grell</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45952</v>
+        <v>45945</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -23769,57 +23769,57 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Jürgen Hansen, Jens Krause, Jan Pappenheim, Anke Ihde</t>
+          <t>kai schroeder, Heiko Thomsen</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45952</v>
+        <v>45946</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jörg Peters, Bernd Robioneck, Michael Bock, Jens Hafner</t>
+          <t>Thomas Bretschneider, Oliver Böss</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45952</v>
+        <v>45946</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -23829,163 +23829,163 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Carsten Gambal, Heiko Thomsen</t>
+          <t>Bernd Robioneck, Torsten Bartel</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45952</v>
+        <v>45950</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ralf Colditz, Markus Muench</t>
+          <t>kerstin baarck, Anke Ihde, Björn Junker, tobias kahl</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45952</v>
+        <v>45950</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>arndt stueber, kai schroeder</t>
+          <t>lena meiss, Carsten Gambal, Jan Pappenheim, mohamad albadry</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45953</v>
+        <v>45952</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Liam Wilde, Oliver Böss</t>
+          <t>Jürgen Hansen, Jens Krause, Jan Pappenheim, Anke Ihde</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45953</v>
+        <v>45952</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Manfred Grell, torsten bartel</t>
+          <t>Jörg Peters, Bernd Robioneck, Michael Bock, Jens Hafner</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45957</v>
+        <v>45952</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>D20:00-120 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Peter Plähn, MARTIN LANGE, Lars Staubermann, Jan Pappenheim</t>
+          <t>Carsten Gambal, Heiko Thomsen</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45957</v>
+        <v>45952</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Torsten Bartel, mohamad albadry, Lorenz Kramp, Michael Rabehl</t>
+          <t>Ralf Colditz, Markus Muench</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45959</v>
+        <v>45952</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -23994,32 +23994,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Bernd Robioneck, Jürgen Hansen, Jens Krause, Michael Bock</t>
+          <t>arndt stueber, kai schroeder</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45959</v>
+        <v>45953</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -24029,22 +24029,22 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>patrick buehrsch, Heiko Thomsen</t>
+          <t>Liam Wilde, Oliver Böss</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45959</v>
+        <v>45953</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -24054,97 +24054,97 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Jörg Peters, Ralf Colditz</t>
+          <t>Manfred Grell, torsten bartel</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45959</v>
+        <v>45957</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Matthias Duddek, kai schroeder</t>
+          <t>Peter Plähn, MARTIN LANGE, Lars Staubermann, Jan Pappenheim</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45960</v>
+        <v>45957</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>arndt stueber, Thomas Bretschneider</t>
+          <t>Torsten Bartel, mohamad albadry, Lorenz Kramp, Michael Rabehl</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45960</v>
+        <v>45959</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Liam Wilde, Oliver Böss</t>
+          <t>Bernd Robioneck, Jürgen Hansen, Jens Krause, Michael Bock</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45964</v>
+        <v>45959</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>D20:00-120 PLA</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -24154,38 +24154,38 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Björn Junker, Peter Plähn, Andreas Dank, Tobias Kahl</t>
+          <t>Markus Muench, Andreas Dank, Bernd Sotzek, Carsten Gambal</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45964</v>
+        <v>45959</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sebastian Braune, Anke Ihde, Lena Meiß, MARTIN LANGE</t>
+          <t>patrick buehrsch, Heiko Thomsen</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -24194,23 +24194,23 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Jörg Peters, wolfgang aleksik, Anke Ihde, Jens Krause</t>
+          <t>Jörg Peters, Ralf Colditz</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -24219,32 +24219,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Karsten Usinger, Andreas Dank, Arndt Stüber, Heiko Thomsen</t>
+          <t>Matthias Duddek, kai schroeder</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45966</v>
+        <v>45960</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -24254,22 +24254,22 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>patrick buehrsch, Matthias Duddek</t>
+          <t>arndt stueber, Thomas Bretschneider</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45966</v>
+        <v>45960</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -24279,72 +24279,72 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Frank Koller, Bernd Sotzek</t>
+          <t>Liam Wilde, Oliver Böss</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45967</v>
+        <v>45964</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Frank Petermann, Michael Rabehl</t>
+          <t>Björn Junker, Peter Plähn, Andreas Dank, Tobias Kahl</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45967</v>
+        <v>45964</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Thomas Bretschneider, Liam Wilde</t>
+          <t>Sebastian Braune, Anke Ihde, Lena Meiß, MARTIN LANGE</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45971</v>
+        <v>45966</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>D20:00-120 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -24354,22 +24354,22 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>liam wilde, Lars Staubermann, kerstin baarck, Lorenz Kramp</t>
+          <t>Jörg Peters, wolfgang aleksik, Anke Ihde, Jens Krause</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45971</v>
+        <v>45966</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -24379,13 +24379,13 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Mohamad Albadry, MARTIN LANGE, Andreas Dank, Tobias Kahl</t>
+          <t>Karsten Usinger, Andreas Dank, Arndt Stüber, Heiko Thomsen</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45973</v>
+        <v>45966</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -24394,23 +24394,23 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Jens Krause, Jürgen Hansen, Karsten Usinger, Markus Muench</t>
+          <t>patrick buehrsch, Matthias Duddek</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45973</v>
+        <v>45966</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -24419,23 +24419,23 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Bernd Robioneck, Ralf Colditz, Michael Bock, wolfgang aleksik</t>
+          <t>Frank Koller, Bernd Sotzek</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45973</v>
+        <v>45966</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -24454,22 +24454,22 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Thomas Grüneberg, Frank Koller</t>
+          <t>Matthias Duddek, Kai Schröder</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45973</v>
+        <v>45967</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -24479,22 +24479,22 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Oliver Böss, Bernd Sotzek</t>
+          <t>Frank Petermann, Michael Rabehl</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45973</v>
+        <v>45967</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -24504,72 +24504,72 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>arndt stueber, Manfred Grell</t>
+          <t>Thomas Bretschneider, Liam Wilde</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45974</v>
+        <v>45971</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Frank Petermann, Michael Rabehl</t>
+          <t>liam wilde, Lars Staubermann, kerstin baarck, Lorenz Kramp</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45974</v>
+        <v>45971</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Thomas Bretschneider, Oliver Böss</t>
+          <t>Mohamad Albadry, MARTIN LANGE, Andreas Dank, Tobias Kahl</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45978</v>
+        <v>45973</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>D20:00-120 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -24579,22 +24579,22 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MARTIN LANGE, Lars Staubermann, Peter Plähn, Björn Junker</t>
+          <t>Jens Krause, Jürgen Hansen, Karsten Usinger, Markus Muench</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45978</v>
+        <v>45973</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -24604,13 +24604,13 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>mohamad albadry, Sebastian Braune, Andreas Dank, Lena Meiß</t>
+          <t>Bernd Robioneck, Ralf Colditz, Michael Bock, wolfgang aleksik</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45980</v>
+        <v>45973</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -24619,23 +24619,23 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Jürgen Hansen, gunnar brix, wolfgang aleksik, Karsten Usinger</t>
+          <t>Thomas Grüneberg, Frank Koller</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45980</v>
+        <v>45973</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -24644,23 +24644,23 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Jörg Peters, Michael Bock, Markus Muench, Jens Hafner</t>
+          <t>Oliver Böss, Bernd Sotzek</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45980</v>
+        <v>45973</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -24679,22 +24679,22 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Frank Koller, Heiko Thomsen</t>
+          <t>arndt stueber, Manfred Grell</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45980</v>
+        <v>45974</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -24704,22 +24704,22 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Lorenz Kramp, Bernd Sotzek</t>
+          <t>Frank Petermann, Michael Rabehl</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45980</v>
+        <v>45974</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -24729,72 +24729,72 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Matthias Duddek, Thomas Grüneberg</t>
+          <t>Thomas Bretschneider, Oliver Böss</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45981</v>
+        <v>45978</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Manfred Grell, Liam Wilde</t>
+          <t>MARTIN LANGE, Lars Staubermann, Peter Plähn, Björn Junker</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45981</v>
+        <v>45978</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Frank Petermann, Torsten Bartel</t>
+          <t>mohamad albadry, Sebastian Braune, Andreas Dank, Lena Meiß</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45985</v>
+        <v>45980</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>D20:00-120 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -24804,22 +24804,22 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Peter Plähn, Lars Staubermann, Björn Junker, Lorenz Kramp</t>
+          <t>Jürgen Hansen, gunnar brix, wolfgang aleksik, Karsten Usinger</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45985</v>
+        <v>45980</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -24829,13 +24829,13 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Carsten Gambal, Anke Ihde, Michael Rabehl, Martina Schmidt</t>
+          <t>Jörg Peters, Michael Bock, Markus Muench, Jens Hafner</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45987</v>
+        <v>45980</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -24844,23 +24844,23 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ralf Colditz, Carsten Gambal, Tobias Kahl, wolfgang aleksik</t>
+          <t>Frank Koller, Heiko Thomsen</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45987</v>
+        <v>45980</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -24869,23 +24869,23 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Jan Pappenheim, Karsten Usinger, Gunnar Brix, Jens Hafner</t>
+          <t>Lorenz Kramp, Bernd Sotzek</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45987</v>
+        <v>45980</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -24904,22 +24904,22 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Thomas Grüneberg, Heiko Thomsen</t>
+          <t>Matthias Duddek, Thomas Grüneberg</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45987</v>
+        <v>45981</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -24929,22 +24929,22 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Matthias Duddek, Bernd Sotzek</t>
+          <t>Manfred Grell, Liam Wilde</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45987</v>
+        <v>45981</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -24954,72 +24954,72 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Frank Koller, Frank Petermann</t>
+          <t>Frank Petermann, Torsten Bartel</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45988</v>
+        <v>45985</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Frank Petermann, Liam Wilde</t>
+          <t>Peter Plähn, Lars Staubermann, Björn Junker, Lorenz Kramp</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45988</v>
+        <v>45985</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Thomas Bretschneider, Oliver Böss</t>
+          <t>Carsten Gambal, Anke Ihde, Michael Rabehl, Martina Schmidt</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45992</v>
+        <v>45987</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>D20:00-120 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -25029,22 +25029,22 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Peter Plähn, MARTIN LANGE, Frank Petermann, Björn Junker</t>
+          <t>Ralf Colditz, Carsten Gambal, Tobias Kahl, wolfgang aleksik</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45992</v>
+        <v>45987</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -25054,13 +25054,13 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Lars Staubermann, Carsten Gambal, Gunnar Brix, Lena Meiß</t>
+          <t>Jan Pappenheim, Karsten Usinger, Gunnar Brix, Jens Hafner</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45994</v>
+        <v>45987</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -25069,23 +25069,23 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Manfred Grell, wolfgang aleksik, Markus Muench, Lorenz Kramp</t>
+          <t>Thomas Grüneberg, Heiko Thomsen</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45994</v>
+        <v>45987</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -25094,23 +25094,23 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Jürgen Hansen, Jörg Peters, Ralf Colditz, Michael Bock</t>
+          <t>Matthias Duddek, Bernd Sotzek</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45994</v>
+        <v>45987</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -25129,22 +25129,22 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Thomas Grüneberg, Patrick Buehrsch</t>
+          <t>Frank Koller, Frank Petermann</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45994</v>
+        <v>45988</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -25154,22 +25154,22 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Bernd Sotzek, Bernd Robioneck</t>
+          <t>Frank Petermann, Liam Wilde</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45994</v>
+        <v>45988</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -25179,72 +25179,72 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Matthias Duddek, Jens Hafner</t>
+          <t>Thomas Bretschneider, Oliver Böss</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45995</v>
+        <v>45992</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Karsten Usinger, Liam Wilde</t>
+          <t>Peter Plähn, MARTIN LANGE, Frank Petermann, Björn Junker</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45995</v>
+        <v>45992</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Thomas Bretschneider, Frank Koller</t>
+          <t>Lars Staubermann, Carsten Gambal, Gunnar Brix, Lena Meiß</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45999</v>
+        <v>45994</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>D20:00-120 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -25254,22 +25254,22 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Peter Plähn, MARTIN LANGE, lena meiss, Björn Junker</t>
+          <t>Manfred Grell, wolfgang aleksik, Markus Muench, Lorenz Kramp</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45999</v>
+        <v>45994</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -25279,13 +25279,13 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Carsten Gambal, Anke Ihde, Michael Rabehl, Martina Schmidt</t>
+          <t>Jürgen Hansen, Jörg Peters, Ralf Colditz, Michael Bock</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -25294,23 +25294,23 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Bernd Robioneck, Karsten Usinger, Gunnar Brix, Thomas Grüneberg</t>
+          <t>Thomas Grüneberg, Patrick Buehrsch</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -25319,23 +25319,23 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Jürgen Hansen, wolfgang aleksik, Jan Pappenheim, Jens Hafner</t>
+          <t>Bernd Sotzek, Bernd Robioneck</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -25354,22 +25354,22 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Tobias Kahl, Heiko Thomsen</t>
+          <t>Matthias Duddek, Jens Hafner</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>46001</v>
+        <v>45995</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -25379,22 +25379,22 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Matthias Duddek, Bernd Sotzek</t>
+          <t>Karsten Usinger, Liam Wilde</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>46001</v>
+        <v>45995</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -25404,72 +25404,72 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Manfred Grell, Oliver Böss</t>
+          <t>Thomas Bretschneider, Frank Koller</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>46002</v>
+        <v>45999</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Frank Petermann, Frank Koller</t>
+          <t>Peter Plähn, MARTIN LANGE, lena meiss, Björn Junker</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>46002</v>
+        <v>45999</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Manfred Grell, Liam Wilde</t>
+          <t>Carsten Gambal, Anke Ihde, Michael Rabehl, Martina Schmidt</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>46006</v>
+        <v>46001</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>D20:00-120 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -25479,22 +25479,22 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Peter Plähn, MARTIN LANGE, Frank Petermann, Björn Junker</t>
+          <t>Bernd Robioneck, Karsten Usinger, Gunnar Brix, Thomas Grüneberg</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>46006</v>
+        <v>46001</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -25504,13 +25504,13 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Kerstin Baarck, Sebastian Braune, Andreas Dank, Lena Meiß</t>
+          <t>Jürgen Hansen, wolfgang aleksik, Jan Pappenheim, Jens Hafner</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>46008</v>
+        <v>46001</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -25519,23 +25519,23 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>D20:00-90 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Jörg Peters, Karsten Usinger, Markus Muench, Gunnar Brix</t>
+          <t>Tobias Kahl, Heiko Thomsen</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>46008</v>
+        <v>46001</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -25544,23 +25544,23 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>D20:00-90 PLB</t>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Doppel</t>
+          <t>Einzel</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Jürgen Hansen, Bernd Robioneck, Ralf Colditz, Michael Bock</t>
+          <t>Matthias Duddek, Bernd Sotzek</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>46008</v>
+        <v>46001</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -25579,22 +25579,22 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Thomas Grüneberg, Patrick Buehrsch</t>
+          <t>Manfred Grell, Oliver Böss</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>46008</v>
+        <v>46002</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E20:00-90 PLA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -25604,22 +25604,22 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Matthias Duddek, Bernd Sotzek</t>
+          <t>Frank Petermann, Frank Koller</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>46008</v>
+        <v>46002</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Mittwoch</t>
+          <t>Donnerstag</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>E19:00-60 PLB</t>
+          <t>E20:00-90 PLB</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -25629,72 +25629,72 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Kai Schröder, Lorenz Kramp</t>
+          <t>Manfred Grell, Liam Wilde</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>46009</v>
+        <v>46006</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>E20:00-90 PLA</t>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sebastian Braune, Torsten Bartel</t>
+          <t>Peter Plähn, MARTIN LANGE, Frank Petermann, Björn Junker</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>46009</v>
+        <v>46006</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Donnerstag</t>
+          <t>Montag</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>E20:00-90 PLB</t>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Lars Staubermann, Thomas Bretschneider</t>
+          <t>Kerstin Baarck, Sebastian Braune, Andreas Dank, Lena Meiß</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>46013</v>
+        <v>46008</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>D20:00-120 PLA</t>
+          <t>D20:00-90 PLA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -25704,22 +25704,22 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Peter Plähn, Frank Petermann, Kerstin Baarck, Sebastian Braune</t>
+          <t>Jörg Peters, Karsten Usinger, Markus Muench, Gunnar Brix</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>46013</v>
+        <v>46008</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Montag</t>
+          <t>Mittwoch</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -25729,13 +25729,13 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Carsten Gambal, Anke Ihde, Michael Rabehl, Martina Schmidt</t>
+          <t>Jürgen Hansen, Bernd Robioneck, Ralf Colditz, Michael Bock</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>46015</v>
+        <v>46008</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -25754,13 +25754,13 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Patrick Buehrsch, Matthias Duddek</t>
+          <t>Thomas Grüneberg, Patrick Buehrsch</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>46015</v>
+        <v>46008</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -25779,13 +25779,13 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Manfred Grell, Bernd Sotzek</t>
+          <t>Matthias Duddek, Bernd Sotzek</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>46015</v>
+        <v>46008</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -25804,13 +25804,13 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Thomas Grüneberg, Lorenz Kramp</t>
+          <t>Kai Schröder, Lorenz Kramp</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>46016</v>
+        <v>46009</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -25829,13 +25829,13 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Lars Staubermann, Jan Pappenheim</t>
+          <t>Sebastian Braune, Torsten Bartel</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>46016</v>
+        <v>46009</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -25854,13 +25854,13 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Thomas Bretschneider, karsten usinger</t>
+          <t>Lars Staubermann, Thomas Bretschneider</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>46020</v>
+        <v>46013</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -25879,13 +25879,13 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Peter Plähn, Lars Staubermann, Kerstin Baarck, Lena Meiß</t>
+          <t>Peter Plähn, Frank Petermann, Kerstin Baarck, Sebastian Braune</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>46020</v>
+        <v>46013</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -25904,13 +25904,13 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Mohamad Albadry, Torsten Bartel, Andreas Dank, Michael Rabehl</t>
+          <t>Carsten Gambal, Anke Ihde, Michael Rabehl, Martina Schmidt</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>46022</v>
+        <v>46015</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -25929,13 +25929,13 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>gunnar brix, Andreas Dank, heiko thomsen, Lorenz Kramp</t>
+          <t>Jens Krause, Frank Petermann, Jan Pappenheim, Jens Hafner</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>46022</v>
+        <v>46015</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -25944,23 +25944,23 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Einzel</t>
+          <t>Doppel</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Patrick Buehrsch, Bernd Sotzek</t>
+          <t>Manfred Grell, Andreas Dank, Bernd Sotzek, Martina Schmidt</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>46022</v>
+        <v>46015</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -25979,32 +25979,332 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Thomas Grüneberg, Matthias Duddek</t>
+          <t>Patrick Buehrsch, Matthias Duddek</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Manfred Grell, Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg, Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Lars Staubermann, Jan Pappenheim</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider, karsten usinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Peter Plähn, Lars Staubermann, Kerstin Baarck, Lena Meiß</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Montag</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry, Torsten Bartel, Andreas Dank, Michael Rabehl</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>46022</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Mittwoch</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>gunnar brix, Andreas Dank, heiko thomsen, Lorenz Kramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Doppel</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Arndt Stüber, Jens Krause, Carsten Gambal, Frank Petermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch, Bernd Sotzek</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Thomas Grüneberg, Matthias Duddek</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Mittwoch</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>Einzel</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>Kai Schröder, Jan Pappenheim</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>46023</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Liam Wilde, liam wilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>46023</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Einzel</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Karsten Usinger, Oliver Böss</t>
         </is>
       </c>
     </row>
@@ -26019,7 +26319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI48"/>
+  <dimension ref="A1:BI49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26370,7 +26670,11 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -26383,13 +26687,25 @@
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
@@ -26442,7 +26758,11 @@
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
@@ -26455,12 +26775,20 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
@@ -26490,7 +26818,11 @@
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
@@ -26538,7 +26870,11 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -26549,7 +26885,11 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -26842,7 +27182,11 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -26884,7 +27228,11 @@
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
@@ -27646,7 +27994,11 @@
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
@@ -27687,14 +28039,26 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
@@ -28289,13 +28653,21 @@
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
@@ -28303,7 +28675,11 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
@@ -28312,7 +28688,11 @@
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr">
         <is>
@@ -28543,7 +28923,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>E18:00-60 PLA</t>
+          <t>E19:00-60 PLB</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -28556,7 +28936,11 @@
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -30735,14 +31119,26 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -30755,8 +31151,16 @@
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
@@ -30767,7 +31171,11 @@
       </c>
       <c r="AL45" t="inlineStr"/>
       <c r="AM45" t="inlineStr"/>
-      <c r="AN45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AO45" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
@@ -31014,13 +31422,25 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
@@ -31060,7 +31480,11 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AP48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AQ48" t="inlineStr"/>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
@@ -31089,6 +31513,91 @@
       <c r="BH48" t="inlineStr"/>
       <c r="BI48" t="inlineStr"/>
     </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Donnerstag</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="inlineStr"/>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AU49" t="inlineStr"/>
+      <c r="AV49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr"/>
+      <c r="AX49" t="inlineStr"/>
+      <c r="AY49" t="inlineStr"/>
+      <c r="AZ49" t="inlineStr"/>
+      <c r="BA49" t="inlineStr"/>
+      <c r="BB49" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="BC49" t="inlineStr"/>
+      <c r="BD49" t="inlineStr"/>
+      <c r="BE49" t="inlineStr"/>
+      <c r="BF49" t="inlineStr"/>
+      <c r="BG49" t="inlineStr"/>
+      <c r="BH49" t="inlineStr"/>
+      <c r="BI49" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trainplan_FIXED.xlsx
+++ b/trainplan_FIXED.xlsx
@@ -22729,7 +22729,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MARTIN LANGE, Frank Petermann, lena meiss, martina schmidt</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -22754,7 +22754,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Liam Wilde, Tobias Kahl, Bernd Sotzek, Björn Junker</t>
+          <t>Liam Wilde, Tobias Kahl, Bernd Sotzek, torsten bartel</t>
         </is>
       </c>
     </row>
@@ -22904,7 +22904,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>martina schmidt, Anke Ihde</t>
+          <t>Sebastian Braune, Thomas Bretschneider</t>
         </is>
       </c>
     </row>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lars Staubermann, Manfred Grell</t>
+          <t>Oliver Böss, Manfred Grell</t>
         </is>
       </c>
     </row>
@@ -22954,7 +22954,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MARTIN LANGE, martina schmidt, Liam Wilde, tobias kahl</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -23179,7 +23179,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sebastian Braune, Anke Ihde, MARTIN LANGE, lena meiss</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -23204,7 +23204,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>mohamad albadry, Michael Bock, kerstin baarck, lars staubermann</t>
+          <t>mohamad albadry, Michael Bock, kerstin baarck, Peter Plähn</t>
         </is>
       </c>
     </row>
@@ -23404,7 +23404,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>tobias kahl, martina schmidt, kerstin baarck, Björn Junker</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -23629,7 +23629,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>kerstin baarck, martina schmidt, Sebastian Braune, Björn Junker</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -23854,7 +23854,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>kerstin baarck, Anke Ihde, Björn Junker, tobias kahl</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -24079,7 +24079,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Peter Plähn, MARTIN LANGE, Lars Staubermann, Jan Pappenheim</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -24304,7 +24304,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Björn Junker, Peter Plähn, Andreas Dank, Tobias Kahl</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -24329,7 +24329,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sebastian Braune, Anke Ihde, Lena Meiß, MARTIN LANGE</t>
+          <t>Sebastian Braune, Anke Ihde, Lena Meiß, torsten bartel</t>
         </is>
       </c>
     </row>
@@ -24404,7 +24404,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>patrick buehrsch, Matthias Duddek</t>
+          <t>patrick buehrsch, tobias kahl</t>
         </is>
       </c>
     </row>
@@ -24529,7 +24529,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>liam wilde, Lars Staubermann, kerstin baarck, Lorenz Kramp</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -24554,7 +24554,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Mohamad Albadry, MARTIN LANGE, Andreas Dank, Tobias Kahl</t>
+          <t>Mohamad Albadry, torsten bartel, Andreas Dank, Tobias Kahl</t>
         </is>
       </c>
     </row>
@@ -24754,7 +24754,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MARTIN LANGE, Lars Staubermann, Peter Plähn, Björn Junker</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -24979,7 +24979,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Peter Plähn, Lars Staubermann, Björn Junker, Lorenz Kramp</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -25129,7 +25129,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Frank Koller, Frank Petermann</t>
+          <t>Frank Koller, lorenz kramp</t>
         </is>
       </c>
     </row>
@@ -25204,7 +25204,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Peter Plähn, MARTIN LANGE, Frank Petermann, Björn Junker</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -25229,7 +25229,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Lars Staubermann, Carsten Gambal, Gunnar Brix, Lena Meiß</t>
+          <t>tobias kahl, Carsten Gambal, Gunnar Brix, Lena Meiß</t>
         </is>
       </c>
     </row>
@@ -25429,7 +25429,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Peter Plähn, MARTIN LANGE, lena meiss, Björn Junker</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -25654,7 +25654,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Peter Plähn, MARTIN LANGE, Frank Petermann, Björn Junker</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -25854,7 +25854,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Lars Staubermann, Thomas Bretschneider</t>
+          <t>liam wilde, Thomas Bretschneider</t>
         </is>
       </c>
     </row>
@@ -25879,7 +25879,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Peter Plähn, Frank Petermann, Kerstin Baarck, Sebastian Braune</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -26004,7 +26004,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Manfred Grell, Bernd Sotzek</t>
+          <t>heiko thomsen, tobias kahl</t>
         </is>
       </c>
     </row>
@@ -26054,7 +26054,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Lars Staubermann, Jan Pappenheim</t>
+          <t>Sebastian Braune, Jan Pappenheim</t>
         </is>
       </c>
     </row>
@@ -26104,7 +26104,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Peter Plähn, Lars Staubermann, Kerstin Baarck, Lena Meiß</t>
+          <t>MARTIN LANGE, Björn Junker, Frank Petermann, lars staubermann</t>
         </is>
       </c>
     </row>
@@ -26279,7 +26279,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Liam Wilde, liam wilde</t>
+          <t>Sebastian Braune, liam wilde</t>
         </is>
       </c>
     </row>
@@ -26689,7 +26689,7 @@
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -26716,23 +26716,23 @@
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr">
+      <c r="AZ2" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
+      <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="BI2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -26885,17 +26885,17 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -26903,16 +26903,20 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
+      <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
@@ -26934,11 +26938,7 @@
       <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
+      <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="inlineStr"/>
@@ -26969,7 +26969,11 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -26981,11 +26985,7 @@
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -27002,7 +27002,11 @@
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
@@ -27023,26 +27027,22 @@
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="inlineStr"/>
     </row>
@@ -27270,7 +27270,11 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -27280,7 +27284,11 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
@@ -27300,20 +27308,16 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr">
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
@@ -27336,14 +27340,10 @@
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="BA8" t="inlineStr">
-        <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
+      <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="inlineStr"/>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -27586,8 +27586,16 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -27640,31 +27648,23 @@
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr">
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="BD11" t="inlineStr"/>
       <c r="BE11" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr"/>
       <c r="BI11" t="inlineStr"/>
     </row>
@@ -27897,8 +27897,16 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -27922,11 +27930,7 @@
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
@@ -27955,20 +27959,16 @@
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr">
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr"/>
       <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="BD14" t="inlineStr"/>
       <c r="BE14" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
@@ -28208,8 +28208,16 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -28237,11 +28245,7 @@
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
@@ -28262,12 +28266,12 @@
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr">
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
@@ -28282,11 +28286,7 @@
         </is>
       </c>
       <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="inlineStr"/>
       <c r="BI17" t="inlineStr"/>
     </row>
@@ -28514,11 +28514,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -28528,20 +28524,16 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -28561,7 +28553,11 @@
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr">
         <is>
@@ -28586,7 +28582,11 @@
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
       <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr"/>
       <c r="BC20" t="inlineStr"/>
@@ -28825,21 +28825,21 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -28861,11 +28861,7 @@
         </is>
       </c>
       <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr">
         <is>
@@ -28877,11 +28873,7 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr">
         <is>
@@ -28901,7 +28893,11 @@
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
       <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr"/>
       <c r="BC23" t="inlineStr"/>
@@ -28909,7 +28905,11 @@
       <c r="BE23" t="inlineStr"/>
       <c r="BF23" t="inlineStr"/>
       <c r="BG23" t="inlineStr"/>
-      <c r="BH23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="BI23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -29025,7 +29025,11 @@
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="BG24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
       <c r="BH24" t="inlineStr"/>
       <c r="BI24" t="inlineStr">
         <is>
@@ -29139,15 +29143,15 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
-        <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
@@ -29175,17 +29179,17 @@
       </c>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="AJ26" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
@@ -29199,24 +29203,24 @@
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr">
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr"/>
-      <c r="BB26" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="inlineStr"/>
       <c r="BE26" t="inlineStr"/>
       <c r="BF26" t="inlineStr"/>
       <c r="BG26" t="inlineStr"/>
-      <c r="BH26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="BI26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -29443,11 +29447,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -29457,12 +29457,12 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
@@ -29515,7 +29515,11 @@
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
       <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="BA29" t="inlineStr"/>
       <c r="BB29" t="inlineStr"/>
       <c r="BC29" t="inlineStr"/>
@@ -29754,22 +29758,22 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -29803,11 +29807,7 @@
         </is>
       </c>
       <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr">
         <is>
@@ -29830,7 +29830,11 @@
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
       <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
+      <c r="AZ32" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="BA32" t="inlineStr"/>
       <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr"/>
@@ -29869,11 +29873,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -29954,7 +29954,11 @@
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
       <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
       <c r="BD33" t="inlineStr"/>
       <c r="BE33" t="inlineStr"/>
       <c r="BF33" t="inlineStr"/>
@@ -30065,11 +30069,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -30084,11 +30084,7 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -30141,14 +30137,22 @@
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
       <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="inlineStr"/>
       <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="inlineStr"/>
       <c r="BE35" t="inlineStr"/>
       <c r="BF35" t="inlineStr"/>
-      <c r="BG35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="BH35" t="inlineStr"/>
       <c r="BI35" t="inlineStr"/>
     </row>
@@ -30376,11 +30380,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -30390,7 +30390,11 @@
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -30448,12 +30452,12 @@
       <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
       <c r="AY38" t="inlineStr"/>
-      <c r="AZ38" t="inlineStr"/>
-      <c r="BA38" t="inlineStr">
+      <c r="AZ38" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
+      <c r="BA38" t="inlineStr"/>
       <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="inlineStr"/>
@@ -30687,11 +30691,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -30763,7 +30763,11 @@
       <c r="AW41" t="inlineStr"/>
       <c r="AX41" t="inlineStr"/>
       <c r="AY41" t="inlineStr"/>
-      <c r="AZ41" t="inlineStr"/>
+      <c r="AZ41" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="BA41" t="inlineStr"/>
       <c r="BB41" t="inlineStr"/>
       <c r="BC41" t="inlineStr"/>
@@ -30920,11 +30924,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -30975,7 +30975,11 @@
       <c r="AY43" t="inlineStr"/>
       <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="inlineStr"/>
-      <c r="BB43" t="inlineStr"/>
+      <c r="BB43" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="BC43" t="inlineStr"/>
       <c r="BD43" t="inlineStr"/>
       <c r="BE43" t="inlineStr"/>
@@ -30998,16 +31002,16 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
@@ -31029,18 +31033,10 @@
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
@@ -31049,7 +31045,11 @@
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AI44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
@@ -31074,7 +31074,11 @@
       <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="inlineStr"/>
       <c r="AY44" t="inlineStr"/>
-      <c r="AZ44" t="inlineStr"/>
+      <c r="AZ44" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="inlineStr"/>
       <c r="BC44" t="inlineStr"/>
@@ -31101,7 +31105,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -31178,7 +31182,7 @@
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>E19:00-60 PLA</t>
+          <t>D20:00-90 PLB</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr"/>
@@ -31186,7 +31190,11 @@
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
       <c r="AT45" t="inlineStr"/>
-      <c r="AU45" t="inlineStr"/>
+      <c r="AU45" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="inlineStr"/>
       <c r="AX45" t="inlineStr"/>
@@ -31198,7 +31206,11 @@
       <c r="BD45" t="inlineStr"/>
       <c r="BE45" t="inlineStr"/>
       <c r="BF45" t="inlineStr"/>
-      <c r="BG45" t="inlineStr"/>
+      <c r="BG45" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="BH45" t="inlineStr"/>
       <c r="BI45" t="inlineStr"/>
     </row>
@@ -31223,11 +31235,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -31250,7 +31258,11 @@
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
@@ -31301,22 +31313,22 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -31332,11 +31344,7 @@
         </is>
       </c>
       <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
@@ -31352,14 +31360,14 @@
       </c>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
-      <c r="AI47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
-      <c r="AL47" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
@@ -31377,7 +31385,11 @@
       <c r="AW47" t="inlineStr"/>
       <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="inlineStr"/>
-      <c r="AZ47" t="inlineStr"/>
+      <c r="AZ47" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="BA47" t="inlineStr"/>
       <c r="BB47" t="inlineStr"/>
       <c r="BC47" t="inlineStr"/>
@@ -31545,11 +31557,7 @@
         </is>
       </c>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -31561,7 +31569,11 @@
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AD49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>

--- a/trainplan_FIXED.xlsx
+++ b/trainplan_FIXED.xlsx
@@ -23,7 +23,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,13 +31,79 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF374151"/>
+        <bgColor rgb="FF374151"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF59E0B"/>
+        <bgColor rgb="FFF59E0B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1D4ED8"/>
+        <bgColor rgb="FF1D4ED8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF10B981"/>
+        <bgColor rgb="FF10B981"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4B5FD"/>
+        <bgColor rgb="FFC4B5FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D28D9"/>
+        <bgColor rgb="FF6D28D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF14B8A6"/>
+        <bgColor rgb="FF14B8A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2DD4BF"/>
+        <bgColor rgb="FF2DD4BF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF38BDF8"/>
+        <bgColor rgb="FF38BDF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0EA5E9"/>
+        <bgColor rgb="FF0EA5E9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,10 +118,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -26319,7 +26414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI49"/>
+  <dimension ref="A1:BG49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26328,307 +26423,297 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Tag</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Andreas Dank</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Anke Ihde</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Arndt Stüber</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Bernd Robioneck</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Bernd Sotzek</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Björn Junker</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Carsten Gambal</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Frank Koller</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Frank Petermann</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Gunnar Brix</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Heiko Thomsen</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>Jan Pappenheim</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Jens Hafner</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>Jens Krause</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Jörg Peters</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>Jürgen Hansen</t>
+        </is>
+      </c>
+      <c r="S1" s="3" t="inlineStr">
+        <is>
+          <t>Kai Schröder</t>
+        </is>
+      </c>
+      <c r="T1" s="3" t="inlineStr">
+        <is>
+          <t>Karsten Usinger</t>
+        </is>
+      </c>
+      <c r="U1" s="3" t="inlineStr">
+        <is>
+          <t>Kerstin Baarck</t>
+        </is>
+      </c>
+      <c r="V1" s="3" t="inlineStr">
+        <is>
+          <t>Lena Meiß</t>
+        </is>
+      </c>
+      <c r="W1" s="3" t="inlineStr">
+        <is>
+          <t>Liam Wilde</t>
+        </is>
+      </c>
+      <c r="X1" s="3" t="inlineStr">
+        <is>
+          <t>Lorenz Kramp</t>
+        </is>
+      </c>
+      <c r="Y1" s="3" t="inlineStr">
+        <is>
+          <t>MARTIN LANGE</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>Manfred Grell</t>
+        </is>
+      </c>
+      <c r="AA1" s="3" t="inlineStr">
+        <is>
+          <t>Markus Muench</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>Martina Schmidt</t>
+        </is>
+      </c>
+      <c r="AC1" s="3" t="inlineStr">
         <is>
           <t>Matthias Duddek</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Manfred Grell</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+      <c r="AD1" s="3" t="inlineStr">
+        <is>
+          <t>Michael Bock</t>
+        </is>
+      </c>
+      <c r="AE1" s="3" t="inlineStr">
+        <is>
+          <t>Michael Rabehl</t>
+        </is>
+      </c>
+      <c r="AF1" s="3" t="inlineStr">
+        <is>
+          <t>Mohamad Albadry</t>
+        </is>
+      </c>
+      <c r="AG1" s="3" t="inlineStr">
+        <is>
+          <t>Oliver Böss</t>
+        </is>
+      </c>
+      <c r="AH1" s="3" t="inlineStr">
+        <is>
+          <t>Patrick Buehrsch</t>
+        </is>
+      </c>
+      <c r="AI1" s="3" t="inlineStr">
+        <is>
+          <t>Peter Plähn</t>
+        </is>
+      </c>
+      <c r="AJ1" s="3" t="inlineStr">
+        <is>
+          <t>Ralf Colditz</t>
+        </is>
+      </c>
+      <c r="AK1" s="3" t="inlineStr">
+        <is>
+          <t>Sebastian Braune</t>
+        </is>
+      </c>
+      <c r="AL1" s="3" t="inlineStr">
+        <is>
+          <t>Thomas Bretschneider</t>
+        </is>
+      </c>
+      <c r="AM1" s="3" t="inlineStr">
         <is>
           <t>Thomas Grüneberg</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Jürgen Hansen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Jörg Peters</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Peter Plähn</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Bernd Robioneck</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Kai Schröder</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Patrick Buehrsch</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Jens Krause</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>MARTIN LANGE</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Frank Petermann</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Lars Staubermann</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Ralf Colditz</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Michael Bock</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Carsten Gambal</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Jan Pappenheim</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Karsten Usinger</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Thomas Bretschneider</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Liam Wilde</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Frank Koller</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Markus Muench</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Mohamad Albadry</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AN1" s="3" t="inlineStr">
+        <is>
+          <t>Tobias Kahl</t>
+        </is>
+      </c>
+      <c r="AO1" s="3" t="inlineStr">
+        <is>
+          <t>Torsten Bartel</t>
+        </is>
+      </c>
+      <c r="AP1" s="3" t="inlineStr">
         <is>
           <t>Wolfgang Aleksik</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Kerstin Baarck</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Torsten Bartel</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Oliver Böss</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Sebastian Braune</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Gunnar Brix</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Andreas Dank</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Jens Hafner</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Anke Ihde</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Björn Junker</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Tobias Kahl</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Lorenz Kramp</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Lena Meiß</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Michael Rabehl</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Martina Schmidt</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Bernd Sotzek</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Arndt Stüber</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Heiko Thomsen</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Dirk Kistner</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AQ1" s="3" t="inlineStr">
         <is>
           <t>arndt stueber</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AR1" s="3" t="inlineStr">
         <is>
           <t>gunnar brix</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AS1" s="3" t="inlineStr">
         <is>
           <t>heiko thomsen</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AT1" s="3" t="inlineStr">
         <is>
           <t>jens hafner</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="AU1" s="3" t="inlineStr">
         <is>
           <t>kai schroeder</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="AV1" s="3" t="inlineStr">
         <is>
           <t>karsten usinger</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="AW1" s="3" t="inlineStr">
         <is>
           <t>kerstin baarck</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="AX1" s="3" t="inlineStr">
         <is>
           <t>lars staubermann</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="AY1" s="3" t="inlineStr">
         <is>
           <t>lena meiss</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="AZ1" s="3" t="inlineStr">
         <is>
           <t>liam wilde</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BA1" s="3" t="inlineStr">
         <is>
           <t>lorenz kramp</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="BB1" s="3" t="inlineStr">
         <is>
           <t>martina schmidt</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="BC1" s="3" t="inlineStr">
         <is>
           <t>mohamad albadry</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="BD1" s="3" t="inlineStr">
         <is>
           <t>patrick buehrsch</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="BE1" s="3" t="inlineStr">
         <is>
           <t>tobias kahl</t>
         </is>
       </c>
-      <c r="BH1" t="inlineStr">
+      <c r="BF1" s="3" t="inlineStr">
         <is>
           <t>torsten bartel</t>
         </is>
       </c>
-      <c r="BI1" t="inlineStr">
+      <c r="BG1" s="3" t="inlineStr">
         <is>
           <t>wolfgang aleksik</t>
         </is>
@@ -26645,95 +26730,93 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="E2" s="4" t="inlineStr"/>
+      <c r="F2" s="4" t="inlineStr"/>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr"/>
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr"/>
+      <c r="M2" s="4" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" s="4" t="inlineStr"/>
+      <c r="Q2" s="4" t="inlineStr"/>
+      <c r="R2" s="4" t="inlineStr"/>
+      <c r="S2" s="4" t="inlineStr"/>
+      <c r="T2" s="4" t="inlineStr"/>
+      <c r="U2" s="4" t="inlineStr"/>
+      <c r="V2" s="4" t="inlineStr"/>
+      <c r="W2" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="Z2" s="4" t="inlineStr"/>
+      <c r="AA2" s="4" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr">
+      <c r="AG2" s="4" t="inlineStr"/>
+      <c r="AH2" s="4" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" s="4" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" s="4" t="inlineStr"/>
+      <c r="AM2" s="4" t="inlineStr"/>
+      <c r="AN2" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="AO2" s="4" t="inlineStr"/>
+      <c r="AP2" s="4" t="inlineStr"/>
+      <c r="AQ2" s="4" t="inlineStr"/>
+      <c r="AR2" s="4" t="inlineStr"/>
+      <c r="AS2" s="4" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" s="4" t="inlineStr"/>
+      <c r="AV2" s="4" t="inlineStr"/>
+      <c r="AW2" s="4" t="inlineStr"/>
+      <c r="AX2" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AY2" s="4" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
+      <c r="BD2" s="4" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr">
+      <c r="BF2" s="4" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="BI2" t="inlineStr"/>
+      <c r="BG2" s="4" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -26744,121 +26827,119 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" s="4" t="inlineStr"/>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" s="4" t="inlineStr"/>
+      <c r="M3" s="4" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="P3" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="Q3" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr"/>
+      <c r="V3" s="4" t="inlineStr"/>
+      <c r="W3" s="4" t="inlineStr"/>
+      <c r="X3" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" s="10" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="AE3" s="4" t="inlineStr"/>
+      <c r="AF3" s="4" t="inlineStr"/>
+      <c r="AG3" s="4" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AI3" s="4" t="inlineStr"/>
+      <c r="AJ3" s="4" t="inlineStr"/>
+      <c r="AK3" s="4" t="inlineStr"/>
+      <c r="AL3" s="4" t="inlineStr"/>
+      <c r="AM3" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr">
+      <c r="AO3" s="4" t="inlineStr"/>
+      <c r="AP3" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AQ3" s="11" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
+      <c r="AR3" s="4" t="inlineStr"/>
+      <c r="AS3" s="4" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr">
+      <c r="AU3" s="11" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="AV3" s="10" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
+      <c r="AW3" s="4" t="inlineStr"/>
+      <c r="AX3" s="4" t="inlineStr"/>
+      <c r="AY3" s="4" t="inlineStr"/>
+      <c r="AZ3" s="4" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
+      <c r="BC3" s="4" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
+      <c r="BF3" s="4" t="inlineStr"/>
       <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -26869,81 +26950,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="L4" s="4" t="inlineStr"/>
+      <c r="M4" s="4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="O4" s="4" t="inlineStr"/>
+      <c r="P4" s="4" t="inlineStr"/>
+      <c r="Q4" s="4" t="inlineStr"/>
+      <c r="R4" s="4" t="inlineStr"/>
+      <c r="S4" s="4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr"/>
+      <c r="V4" s="4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" s="4" t="inlineStr"/>
+      <c r="Y4" s="4" t="inlineStr"/>
+      <c r="Z4" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AA4" s="4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" s="4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" s="4" t="inlineStr"/>
+      <c r="AG4" s="4" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" s="4" t="inlineStr"/>
+      <c r="AJ4" s="4" t="inlineStr"/>
+      <c r="AK4" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AL4" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
+      <c r="AN4" s="4" t="inlineStr"/>
+      <c r="AO4" s="4" t="inlineStr"/>
+      <c r="AP4" s="4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
+      <c r="AR4" s="4" t="inlineStr"/>
+      <c r="AS4" s="4" t="inlineStr"/>
+      <c r="AT4" s="4" t="inlineStr"/>
+      <c r="AU4" s="4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
+      <c r="AW4" s="4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
+      <c r="AY4" s="4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
+      <c r="BA4" s="4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
+      <c r="BC4" s="4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="inlineStr"/>
-      <c r="BG4" t="inlineStr"/>
-      <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="inlineStr"/>
+      <c r="BE4" s="4" t="inlineStr"/>
+      <c r="BF4" s="4" t="inlineStr"/>
+      <c r="BG4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -26956,95 +27035,93 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr"/>
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
+      <c r="L5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="P5" s="4" t="inlineStr"/>
+      <c r="Q5" s="4" t="inlineStr"/>
+      <c r="R5" s="4" t="inlineStr"/>
+      <c r="S5" s="4" t="inlineStr"/>
+      <c r="T5" s="4" t="inlineStr"/>
+      <c r="U5" s="4" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+      <c r="Y5" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="Z5" s="4" t="inlineStr"/>
+      <c r="AA5" s="4" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr">
+      <c r="AG5" s="4" t="inlineStr"/>
+      <c r="AH5" s="4" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" s="4" t="inlineStr"/>
+      <c r="AK5" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="AL5" s="4" t="inlineStr"/>
+      <c r="AM5" s="4" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" s="4" t="inlineStr"/>
+      <c r="AP5" s="4" t="inlineStr"/>
+      <c r="AQ5" s="4" t="inlineStr"/>
+      <c r="AR5" s="4" t="inlineStr"/>
+      <c r="AS5" s="4" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" s="4" t="inlineStr"/>
+      <c r="AV5" s="4" t="inlineStr"/>
+      <c r="AW5" s="4" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="AX5" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
-      <c r="BE5" t="inlineStr">
+      <c r="BC5" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
+      <c r="BD5" s="4" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" s="4" t="inlineStr"/>
+      <c r="BG5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -27058,114 +27135,112 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="L6" s="4" t="inlineStr"/>
+      <c r="M6" s="4" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="P6" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q6" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="R6" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr"/>
+      <c r="V6" s="4" t="inlineStr"/>
+      <c r="W6" s="4" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" s="4" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" s="4" t="inlineStr"/>
+      <c r="AF6" s="4" t="inlineStr"/>
+      <c r="AG6" s="4" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" s="4" t="inlineStr"/>
+      <c r="AJ6" s="4" t="inlineStr"/>
+      <c r="AK6" s="4" t="inlineStr"/>
+      <c r="AL6" s="4" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" s="4" t="inlineStr"/>
+      <c r="AO6" s="4" t="inlineStr"/>
+      <c r="AP6" s="4" t="inlineStr"/>
+      <c r="AQ6" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="AR6" s="4" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AS6" s="4" t="inlineStr"/>
+      <c r="AT6" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AU6" s="10" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" s="4" t="inlineStr"/>
+      <c r="AX6" s="4" t="inlineStr"/>
+      <c r="AY6" s="4" t="inlineStr"/>
+      <c r="AZ6" s="4" t="inlineStr"/>
+      <c r="BA6" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="BB6" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="BC6" s="4" t="inlineStr"/>
+      <c r="BD6" s="7" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="BD6" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr">
+      <c r="BE6" s="4" t="inlineStr"/>
+      <c r="BF6" s="4" t="inlineStr"/>
+      <c r="BG6" s="4" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -27180,81 +27255,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr"/>
+      <c r="H7" s="4" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="L7" s="4" t="inlineStr"/>
+      <c r="M7" s="4" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="O7" s="4" t="inlineStr"/>
+      <c r="P7" s="4" t="inlineStr"/>
+      <c r="Q7" s="4" t="inlineStr"/>
+      <c r="R7" s="4" t="inlineStr"/>
+      <c r="S7" s="4" t="inlineStr"/>
+      <c r="T7" s="4" t="inlineStr"/>
+      <c r="U7" s="4" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="X7" s="4" t="inlineStr"/>
+      <c r="Y7" s="4" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" s="4" t="inlineStr"/>
+      <c r="AE7" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AF7" s="4" t="inlineStr"/>
+      <c r="AG7" s="4" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" s="4" t="inlineStr"/>
+      <c r="AJ7" s="4" t="inlineStr"/>
+      <c r="AK7" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr">
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AN7" s="4" t="inlineStr"/>
+      <c r="AO7" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
+      <c r="AP7" s="4" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
+      <c r="AR7" s="4" t="inlineStr"/>
+      <c r="AS7" s="4" t="inlineStr"/>
+      <c r="AT7" s="4" t="inlineStr"/>
+      <c r="AU7" s="4" t="inlineStr"/>
+      <c r="AV7" s="4" t="inlineStr"/>
+      <c r="AW7" s="4" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
+      <c r="BA7" s="4" t="inlineStr"/>
       <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
+      <c r="BC7" s="4" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr"/>
+      <c r="BE7" s="4" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
-      <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
+      <c r="BG7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -27267,95 +27340,93 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" s="4" t="inlineStr"/>
+      <c r="K8" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="M8" s="4" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="P8" s="4" t="inlineStr"/>
+      <c r="Q8" s="4" t="inlineStr"/>
+      <c r="R8" s="4" t="inlineStr"/>
+      <c r="S8" s="4" t="inlineStr"/>
+      <c r="T8" s="4" t="inlineStr"/>
+      <c r="U8" s="4" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="Y8" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="Z8" s="4" t="inlineStr"/>
+      <c r="AA8" s="4" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
+      <c r="AD8" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr">
+      <c r="AG8" s="4" t="inlineStr"/>
+      <c r="AH8" s="4" t="inlineStr"/>
+      <c r="AI8" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="AJ8" s="4" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" s="4" t="inlineStr"/>
+      <c r="AM8" s="4" t="inlineStr"/>
+      <c r="AN8" s="4" t="inlineStr"/>
+      <c r="AO8" s="4" t="inlineStr"/>
+      <c r="AP8" s="4" t="inlineStr"/>
+      <c r="AQ8" s="4" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" s="4" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" s="4" t="inlineStr"/>
+      <c r="AV8" s="4" t="inlineStr"/>
+      <c r="AW8" s="4" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="AX8" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr">
+      <c r="BC8" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
+      <c r="BD8" s="4" t="inlineStr"/>
+      <c r="BE8" s="4" t="inlineStr"/>
+      <c r="BF8" s="4" t="inlineStr"/>
+      <c r="BG8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -27366,121 +27437,119 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" s="4" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" s="4" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="P9" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
+      <c r="T9" s="4" t="inlineStr"/>
+      <c r="U9" s="4" t="inlineStr"/>
+      <c r="V9" s="4" t="inlineStr"/>
+      <c r="W9" s="4" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" s="4" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr">
+      <c r="AE9" s="4" t="inlineStr"/>
+      <c r="AF9" s="4" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" s="4" t="inlineStr"/>
+      <c r="AJ9" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="AK9" s="4" t="inlineStr"/>
+      <c r="AL9" s="4" t="inlineStr"/>
+      <c r="AM9" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AN9" s="4" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr">
+      <c r="AO9" s="4" t="inlineStr"/>
+      <c r="AP9" s="4" t="inlineStr"/>
+      <c r="AQ9" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="AR9" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AS9" s="4" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr">
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" s="7" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
+      <c r="AV9" s="4" t="inlineStr"/>
+      <c r="AW9" s="4" t="inlineStr"/>
+      <c r="AX9" s="4" t="inlineStr"/>
+      <c r="AY9" s="4" t="inlineStr"/>
+      <c r="AZ9" s="4" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="inlineStr">
+      <c r="BC9" s="4" t="inlineStr"/>
+      <c r="BD9" s="7" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr">
+      <c r="BE9" s="4" t="inlineStr"/>
+      <c r="BF9" s="4" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="BI9" t="inlineStr"/>
+      <c r="BG9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -27491,81 +27560,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="4" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
+      <c r="F10" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="G10" s="4" t="inlineStr"/>
+      <c r="H10" s="4" t="inlineStr"/>
+      <c r="I10" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="J10" s="13" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" s="4" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="O10" s="4" t="inlineStr"/>
+      <c r="P10" s="4" t="inlineStr"/>
+      <c r="Q10" s="4" t="inlineStr"/>
+      <c r="R10" s="4" t="inlineStr"/>
+      <c r="S10" s="4" t="inlineStr"/>
+      <c r="T10" s="4" t="inlineStr"/>
+      <c r="U10" s="4" t="inlineStr"/>
+      <c r="V10" s="4" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" s="4" t="inlineStr"/>
+      <c r="Y10" s="4" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="AA10" s="4" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
+      <c r="AD10" s="4" t="inlineStr"/>
+      <c r="AE10" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AF10" s="4" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="AI10" s="4" t="inlineStr"/>
+      <c r="AJ10" s="4" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" s="4" t="inlineStr"/>
+      <c r="AO10" s="4" t="inlineStr"/>
+      <c r="AP10" s="4" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
+      <c r="AS10" s="4" t="inlineStr"/>
+      <c r="AT10" s="4" t="inlineStr"/>
+      <c r="AU10" s="4" t="inlineStr"/>
+      <c r="AV10" s="4" t="inlineStr"/>
+      <c r="AW10" s="4" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
+      <c r="AY10" s="4" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
+      <c r="BA10" s="4" t="inlineStr"/>
       <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
+      <c r="BC10" s="4" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="inlineStr"/>
+      <c r="BE10" s="4" t="inlineStr"/>
+      <c r="BF10" s="4" t="inlineStr"/>
+      <c r="BG10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -27577,96 +27644,94 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
+      <c r="J11" s="4" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="P11" s="4" t="inlineStr"/>
+      <c r="Q11" s="4" t="inlineStr"/>
+      <c r="R11" s="4" t="inlineStr"/>
+      <c r="S11" s="4" t="inlineStr"/>
+      <c r="T11" s="4" t="inlineStr"/>
+      <c r="U11" s="4" t="inlineStr"/>
+      <c r="V11" s="4" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" s="4" t="inlineStr"/>
+      <c r="Y11" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="Z11" s="4" t="inlineStr"/>
+      <c r="AA11" s="4" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
+      <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr">
+      <c r="AG11" s="4" t="inlineStr"/>
+      <c r="AH11" s="4" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" s="4" t="inlineStr"/>
+      <c r="AK11" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AL11" s="4" t="inlineStr"/>
+      <c r="AM11" s="4" t="inlineStr"/>
+      <c r="AN11" s="4" t="inlineStr"/>
+      <c r="AO11" s="4" t="inlineStr"/>
+      <c r="AP11" s="4" t="inlineStr"/>
+      <c r="AQ11" s="4" t="inlineStr"/>
+      <c r="AR11" s="4" t="inlineStr"/>
+      <c r="AS11" s="4" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" s="4" t="inlineStr"/>
+      <c r="AV11" s="4" t="inlineStr"/>
+      <c r="AW11" s="4" t="inlineStr"/>
+      <c r="AX11" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="AY11" s="4" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" s="4" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
+      <c r="BD11" s="4" t="inlineStr"/>
+      <c r="BE11" s="4" t="inlineStr"/>
+      <c r="BF11" s="4" t="inlineStr"/>
+      <c r="BG11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -27677,117 +27742,115 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" s="4" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="4" t="inlineStr"/>
+      <c r="M12" s="4" t="inlineStr"/>
+      <c r="N12" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
+      <c r="Q12" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr">
+      <c r="S12" s="4" t="inlineStr"/>
+      <c r="T12" s="4" t="inlineStr"/>
+      <c r="U12" s="4" t="inlineStr"/>
+      <c r="V12" s="4" t="inlineStr"/>
+      <c r="W12" s="4" t="inlineStr"/>
+      <c r="X12" s="4" t="inlineStr"/>
+      <c r="Y12" s="4" t="inlineStr"/>
+      <c r="Z12" s="10" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
+      <c r="AA12" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="AD12" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AE12" s="4" t="inlineStr"/>
+      <c r="AF12" s="4" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
+      <c r="AI12" s="4" t="inlineStr"/>
+      <c r="AJ12" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AK12" s="4" t="inlineStr"/>
+      <c r="AL12" s="4" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr">
+      <c r="AN12" s="4" t="inlineStr"/>
+      <c r="AO12" s="4" t="inlineStr"/>
+      <c r="AP12" s="4" t="inlineStr"/>
+      <c r="AQ12" s="11" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr">
+      <c r="AR12" s="4" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr">
+      <c r="AS12" s="4" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" s="4" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
+      <c r="AV12" s="4" t="inlineStr"/>
+      <c r="AW12" s="4" t="inlineStr"/>
+      <c r="AX12" s="4" t="inlineStr"/>
+      <c r="AY12" s="4" t="inlineStr"/>
+      <c r="AZ12" s="4" t="inlineStr"/>
+      <c r="BA12" s="4" t="inlineStr"/>
       <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
+      <c r="BC12" s="4" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>
-      <c r="BE12" t="inlineStr"/>
-      <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="inlineStr"/>
-      <c r="BH12" t="inlineStr">
+      <c r="BE12" s="4" t="inlineStr"/>
+      <c r="BF12" s="4" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="BI12" t="inlineStr">
+      <c r="BG12" s="4" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -27802,81 +27865,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="4" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="G13" s="4" t="inlineStr"/>
+      <c r="H13" s="4" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="L13" s="4" t="inlineStr"/>
+      <c r="M13" s="4" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
+      <c r="O13" s="4" t="inlineStr"/>
+      <c r="P13" s="4" t="inlineStr"/>
+      <c r="Q13" s="4" t="inlineStr"/>
+      <c r="R13" s="4" t="inlineStr"/>
+      <c r="S13" s="4" t="inlineStr"/>
+      <c r="T13" s="4" t="inlineStr"/>
+      <c r="U13" s="4" t="inlineStr"/>
+      <c r="V13" s="4" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" s="4" t="inlineStr"/>
+      <c r="Y13" s="4" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" s="4" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" s="4" t="inlineStr"/>
+      <c r="AE13" s="4" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AF13" s="4" t="inlineStr"/>
+      <c r="AG13" s="13" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" s="4" t="inlineStr"/>
+      <c r="AJ13" s="4" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" s="12" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" s="4" t="inlineStr"/>
+      <c r="AO13" s="4" t="inlineStr"/>
+      <c r="AP13" s="4" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
+      <c r="AR13" s="4" t="inlineStr"/>
+      <c r="AS13" s="4" t="inlineStr"/>
+      <c r="AT13" s="4" t="inlineStr"/>
+      <c r="AU13" s="4" t="inlineStr"/>
+      <c r="AV13" s="4" t="inlineStr"/>
+      <c r="AW13" s="4" t="inlineStr"/>
+      <c r="AX13" s="4" t="inlineStr"/>
+      <c r="AY13" s="4" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
+      <c r="BA13" s="4" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
+      <c r="BC13" s="4" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="inlineStr"/>
+      <c r="BE13" s="4" t="inlineStr"/>
+      <c r="BF13" s="4" t="inlineStr"/>
+      <c r="BG13" s="4" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -27889,95 +27950,93 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="J14" s="4" t="inlineStr"/>
+      <c r="K14" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" s="4" t="inlineStr"/>
+      <c r="Q14" s="4" t="inlineStr"/>
+      <c r="R14" s="4" t="inlineStr"/>
+      <c r="S14" s="4" t="inlineStr"/>
+      <c r="T14" s="4" t="inlineStr"/>
+      <c r="U14" s="4" t="inlineStr"/>
+      <c r="V14" s="4" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" s="4" t="inlineStr"/>
+      <c r="Y14" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
+      <c r="Z14" s="4" t="inlineStr"/>
+      <c r="AA14" s="4" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr">
+      <c r="AG14" s="4" t="inlineStr"/>
+      <c r="AH14" s="4" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" s="4" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" s="4" t="inlineStr"/>
+      <c r="AM14" s="4" t="inlineStr"/>
+      <c r="AN14" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="AO14" s="4" t="inlineStr"/>
+      <c r="AP14" s="4" t="inlineStr"/>
+      <c r="AQ14" s="4" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" s="4" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" s="4" t="inlineStr"/>
+      <c r="AV14" s="4" t="inlineStr"/>
+      <c r="AW14" s="4" t="inlineStr"/>
+      <c r="AX14" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AY14" s="4" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" s="4" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
-      <c r="BE14" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr"/>
-      <c r="BI14" t="inlineStr"/>
+      <c r="BD14" s="4" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" s="4" t="inlineStr"/>
+      <c r="BG14" s="4" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -27989,120 +28048,118 @@
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" s="4" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr"/>
+      <c r="K15" s="4" t="inlineStr"/>
+      <c r="L15" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="M15" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="P15" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q15" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="R15" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" s="4" t="inlineStr"/>
+      <c r="U15" s="4" t="inlineStr"/>
+      <c r="V15" s="4" t="inlineStr"/>
+      <c r="W15" s="4" t="inlineStr"/>
+      <c r="X15" s="4" t="inlineStr"/>
+      <c r="Y15" s="4" t="inlineStr"/>
+      <c r="Z15" s="10" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr"/>
+      <c r="AA15" s="4" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr">
+      <c r="AD15" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AE15" s="4" t="inlineStr"/>
+      <c r="AF15" s="4" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" s="4" t="inlineStr"/>
+      <c r="AJ15" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AK15" s="4" t="inlineStr"/>
+      <c r="AL15" s="4" t="inlineStr"/>
+      <c r="AM15" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr">
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" s="4" t="inlineStr"/>
+      <c r="AP15" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr">
+      <c r="AQ15" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" s="11" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr">
+      <c r="AV15" s="4" t="inlineStr"/>
+      <c r="AW15" s="4" t="inlineStr"/>
+      <c r="AX15" s="4" t="inlineStr"/>
+      <c r="AY15" s="4" t="inlineStr"/>
+      <c r="AZ15" s="4" t="inlineStr"/>
+      <c r="BA15" s="4" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" s="4" t="inlineStr"/>
+      <c r="BD15" s="7" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
       <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="BF15" s="4" t="inlineStr"/>
       <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -28113,81 +28170,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="4" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="12" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr"/>
+      <c r="H16" s="4" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" s="4" t="inlineStr"/>
+      <c r="K16" s="4" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" s="4" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
+      <c r="O16" s="4" t="inlineStr"/>
+      <c r="P16" s="4" t="inlineStr"/>
+      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="R16" s="4" t="inlineStr"/>
+      <c r="S16" s="4" t="inlineStr"/>
+      <c r="T16" s="4" t="inlineStr"/>
+      <c r="U16" s="4" t="inlineStr"/>
+      <c r="V16" s="4" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" s="4" t="inlineStr"/>
+      <c r="Y16" s="4" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" s="4" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" s="4" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" s="4" t="inlineStr"/>
+      <c r="AG16" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr">
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" s="4" t="inlineStr"/>
+      <c r="AJ16" s="4" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" s="13" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" s="4" t="inlineStr"/>
+      <c r="AO16" s="12" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
+      <c r="AP16" s="4" t="inlineStr"/>
+      <c r="AQ16" s="4" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
+      <c r="AS16" s="4" t="inlineStr"/>
+      <c r="AT16" s="4" t="inlineStr"/>
+      <c r="AU16" s="4" t="inlineStr"/>
+      <c r="AV16" s="4" t="inlineStr"/>
+      <c r="AW16" s="4" t="inlineStr"/>
+      <c r="AX16" s="4" t="inlineStr"/>
+      <c r="AY16" s="4" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
+      <c r="BA16" s="4" t="inlineStr"/>
       <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
+      <c r="BC16" s="4" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
-      <c r="BE16" t="inlineStr"/>
+      <c r="BE16" s="4" t="inlineStr"/>
       <c r="BF16" t="inlineStr"/>
-      <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="inlineStr"/>
-      <c r="BI16" t="inlineStr"/>
+      <c r="BG16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -28200,95 +28255,93 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
+      <c r="H17" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="J17" s="4" t="inlineStr"/>
+      <c r="K17" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
+      <c r="L17" s="4" t="inlineStr"/>
+      <c r="M17" s="4" t="inlineStr"/>
+      <c r="N17" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+      <c r="P17" s="4" t="inlineStr"/>
+      <c r="Q17" s="4" t="inlineStr"/>
+      <c r="R17" s="4" t="inlineStr"/>
+      <c r="S17" s="4" t="inlineStr"/>
+      <c r="T17" s="4" t="inlineStr"/>
+      <c r="U17" s="4" t="inlineStr"/>
+      <c r="V17" s="4" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="X17" s="4" t="inlineStr"/>
+      <c r="Y17" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="Z17" s="4" t="inlineStr"/>
+      <c r="AA17" s="4" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr">
+      <c r="AG17" s="4" t="inlineStr"/>
+      <c r="AH17" s="4" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" s="4" t="inlineStr"/>
+      <c r="AK17" s="4" t="inlineStr"/>
+      <c r="AL17" s="4" t="inlineStr"/>
+      <c r="AM17" s="4" t="inlineStr"/>
+      <c r="AN17" s="4" t="inlineStr"/>
+      <c r="AO17" s="4" t="inlineStr"/>
+      <c r="AP17" s="4" t="inlineStr"/>
+      <c r="AQ17" s="4" t="inlineStr"/>
+      <c r="AR17" s="4" t="inlineStr"/>
+      <c r="AS17" s="4" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" s="4" t="inlineStr"/>
+      <c r="AV17" s="4" t="inlineStr"/>
+      <c r="AW17" s="4" t="inlineStr"/>
+      <c r="AX17" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="BA17" t="inlineStr">
+      <c r="AY17" s="4" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" s="4" t="inlineStr"/>
       <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="inlineStr">
+      <c r="BC17" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr"/>
-      <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="inlineStr"/>
+      <c r="BD17" s="4" t="inlineStr"/>
+      <c r="BE17" s="4" t="inlineStr"/>
+      <c r="BF17" s="4" t="inlineStr"/>
+      <c r="BG17" s="4" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -28300,120 +28353,118 @@
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="D18" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" s="4" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="J18" s="4" t="inlineStr"/>
+      <c r="K18" s="4" t="inlineStr"/>
+      <c r="L18" s="4" t="inlineStr"/>
+      <c r="M18" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="N18" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="O18" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="P18" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="R18" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" s="4" t="inlineStr"/>
+      <c r="U18" s="4" t="inlineStr"/>
+      <c r="V18" s="4" t="inlineStr"/>
+      <c r="W18" s="4" t="inlineStr"/>
+      <c r="X18" s="4" t="inlineStr"/>
+      <c r="Y18" s="4" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" s="10" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr">
+      <c r="AD18" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
+      <c r="AE18" s="4" t="inlineStr"/>
+      <c r="AF18" s="4" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" s="4" t="inlineStr"/>
+      <c r="AJ18" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AK18" s="4" t="inlineStr"/>
+      <c r="AL18" s="4" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
+      <c r="AN18" s="4" t="inlineStr"/>
+      <c r="AO18" s="4" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr">
+      <c r="AQ18" s="4" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
+      <c r="AR18" s="4" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
-      <c r="AW18" t="inlineStr">
+      <c r="AU18" s="11" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
+      <c r="AV18" s="4" t="inlineStr"/>
+      <c r="AW18" s="4" t="inlineStr"/>
+      <c r="AX18" s="4" t="inlineStr"/>
+      <c r="AY18" s="4" t="inlineStr"/>
+      <c r="AZ18" s="4" t="inlineStr"/>
+      <c r="BA18" s="4" t="inlineStr"/>
       <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
+      <c r="BC18" s="4" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
-      <c r="BE18" t="inlineStr"/>
-      <c r="BF18" t="inlineStr"/>
+      <c r="BE18" s="4" t="inlineStr"/>
+      <c r="BF18" s="4" t="inlineStr"/>
       <c r="BG18" t="inlineStr"/>
-      <c r="BH18" t="inlineStr"/>
-      <c r="BI18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -28424,81 +28475,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr"/>
+      <c r="H19" s="4" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" s="4" t="inlineStr"/>
+      <c r="K19" s="4" t="inlineStr"/>
+      <c r="L19" s="4" t="inlineStr"/>
+      <c r="M19" s="4" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" s="4" t="inlineStr"/>
+      <c r="P19" s="4" t="inlineStr"/>
+      <c r="Q19" s="4" t="inlineStr"/>
+      <c r="R19" s="4" t="inlineStr"/>
+      <c r="S19" s="4" t="inlineStr"/>
+      <c r="T19" s="4" t="inlineStr"/>
+      <c r="U19" s="4" t="inlineStr"/>
+      <c r="V19" s="4" t="inlineStr"/>
+      <c r="W19" s="13" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="X19" s="4" t="inlineStr"/>
+      <c r="Y19" s="4" t="inlineStr"/>
+      <c r="Z19" s="12" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
+      <c r="AA19" s="4" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" s="4" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" s="4" t="inlineStr"/>
+      <c r="AG19" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AI19" s="4" t="inlineStr"/>
+      <c r="AJ19" s="4" t="inlineStr"/>
+      <c r="AK19" s="4" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
+      <c r="AN19" s="4" t="inlineStr"/>
+      <c r="AO19" s="4" t="inlineStr"/>
+      <c r="AP19" s="4" t="inlineStr"/>
+      <c r="AQ19" s="4" t="inlineStr"/>
+      <c r="AR19" s="4" t="inlineStr"/>
+      <c r="AS19" s="4" t="inlineStr"/>
+      <c r="AT19" s="4" t="inlineStr"/>
+      <c r="AU19" s="4" t="inlineStr"/>
+      <c r="AV19" s="4" t="inlineStr"/>
+      <c r="AW19" s="4" t="inlineStr"/>
+      <c r="AX19" s="4" t="inlineStr"/>
+      <c r="AY19" s="4" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
+      <c r="BA19" s="4" t="inlineStr"/>
       <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
+      <c r="BC19" s="4" t="inlineStr"/>
       <c r="BD19" t="inlineStr"/>
-      <c r="BE19" t="inlineStr"/>
-      <c r="BF19" t="inlineStr"/>
-      <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="inlineStr">
+      <c r="BE19" s="4" t="inlineStr"/>
+      <c r="BF19" s="4" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="BI19" t="inlineStr"/>
+      <c r="BG19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -28511,95 +28560,93 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" s="4" t="inlineStr"/>
+      <c r="P20" s="4" t="inlineStr"/>
+      <c r="Q20" s="4" t="inlineStr"/>
+      <c r="R20" s="4" t="inlineStr"/>
+      <c r="S20" s="4" t="inlineStr"/>
+      <c r="T20" s="4" t="inlineStr"/>
+      <c r="U20" s="4" t="inlineStr"/>
+      <c r="V20" s="4" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="Y20" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
+      <c r="Z20" s="4" t="inlineStr"/>
+      <c r="AA20" s="4" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
+      <c r="AE20" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr">
+      <c r="AG20" s="4" t="inlineStr"/>
+      <c r="AH20" s="4" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" s="4" t="inlineStr"/>
+      <c r="AK20" s="4" t="inlineStr"/>
+      <c r="AL20" s="4" t="inlineStr"/>
+      <c r="AM20" s="4" t="inlineStr"/>
+      <c r="AN20" s="4" t="inlineStr"/>
+      <c r="AO20" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="AP20" s="4" t="inlineStr"/>
+      <c r="AQ20" s="4" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" s="4" t="inlineStr"/>
+      <c r="AT20" s="4" t="inlineStr"/>
+      <c r="AU20" s="4" t="inlineStr"/>
+      <c r="AV20" s="4" t="inlineStr"/>
+      <c r="AW20" s="4" t="inlineStr"/>
+      <c r="AX20" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr"/>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AY20" s="4" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
-      <c r="BE20" t="inlineStr">
+      <c r="BC20" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
+      <c r="BD20" s="4" t="inlineStr"/>
+      <c r="BE20" s="4" t="inlineStr"/>
       <c r="BF20" t="inlineStr"/>
-      <c r="BG20" t="inlineStr"/>
-      <c r="BH20" t="inlineStr"/>
-      <c r="BI20" t="inlineStr"/>
+      <c r="BG20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -28610,121 +28657,119 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr"/>
+      <c r="P21" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q21" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="R21" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" s="4" t="inlineStr"/>
+      <c r="U21" s="4" t="inlineStr"/>
+      <c r="V21" s="4" t="inlineStr"/>
+      <c r="W21" s="4" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" s="4" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" s="11" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="AD21" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="AE21" s="4" t="inlineStr"/>
+      <c r="AF21" s="4" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
+      <c r="AI21" s="4" t="inlineStr"/>
+      <c r="AJ21" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AK21" s="4" t="inlineStr"/>
+      <c r="AL21" s="4" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="AN21" s="4" t="inlineStr"/>
+      <c r="AO21" s="4" t="inlineStr"/>
+      <c r="AP21" s="4" t="inlineStr"/>
+      <c r="AQ21" s="4" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="inlineStr"/>
-      <c r="AV21" t="inlineStr"/>
-      <c r="AW21" t="inlineStr">
+      <c r="AT21" s="4" t="inlineStr"/>
+      <c r="AU21" s="11" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
+      <c r="AV21" s="4" t="inlineStr"/>
+      <c r="AW21" s="4" t="inlineStr"/>
+      <c r="AX21" s="4" t="inlineStr"/>
+      <c r="AY21" s="4" t="inlineStr"/>
+      <c r="AZ21" s="4" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
       <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="inlineStr"/>
-      <c r="BE21" t="inlineStr"/>
-      <c r="BF21" t="inlineStr">
+      <c r="BC21" s="4" t="inlineStr"/>
+      <c r="BD21" s="7" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="BG21" t="inlineStr"/>
-      <c r="BH21" t="inlineStr"/>
-      <c r="BI21" t="inlineStr"/>
+      <c r="BE21" s="4" t="inlineStr"/>
+      <c r="BF21" s="4" t="inlineStr"/>
+      <c r="BG21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -28735,81 +28780,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="4" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" s="4" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" s="4" t="inlineStr"/>
+      <c r="H22" s="4" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" s="4" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" s="4" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
+      <c r="O22" s="4" t="inlineStr"/>
+      <c r="P22" s="4" t="inlineStr"/>
+      <c r="Q22" s="4" t="inlineStr"/>
+      <c r="R22" s="4" t="inlineStr"/>
+      <c r="S22" s="4" t="inlineStr"/>
+      <c r="T22" s="4" t="inlineStr"/>
+      <c r="U22" s="4" t="inlineStr"/>
+      <c r="V22" s="4" t="inlineStr"/>
+      <c r="W22" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="X22" s="4" t="inlineStr"/>
+      <c r="Y22" s="4" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" s="4" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" s="4" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" s="4" t="inlineStr"/>
+      <c r="AG22" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" s="4" t="inlineStr"/>
+      <c r="AJ22" s="4" t="inlineStr"/>
+      <c r="AK22" s="4" t="inlineStr"/>
+      <c r="AL22" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
+      <c r="AN22" s="4" t="inlineStr"/>
+      <c r="AO22" s="4" t="inlineStr"/>
+      <c r="AP22" s="4" t="inlineStr"/>
+      <c r="AQ22" s="4" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="inlineStr"/>
-      <c r="AW22" t="inlineStr"/>
+      <c r="AS22" s="4" t="inlineStr"/>
+      <c r="AT22" s="4" t="inlineStr"/>
+      <c r="AU22" s="4" t="inlineStr"/>
+      <c r="AV22" s="4" t="inlineStr"/>
+      <c r="AW22" s="4" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
+      <c r="AY22" s="4" t="inlineStr"/>
       <c r="AZ22" t="inlineStr"/>
-      <c r="BA22" t="inlineStr"/>
+      <c r="BA22" s="4" t="inlineStr"/>
       <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
+      <c r="BC22" s="4" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>
-      <c r="BE22" t="inlineStr"/>
-      <c r="BF22" t="inlineStr"/>
-      <c r="BG22" t="inlineStr"/>
-      <c r="BH22" t="inlineStr"/>
-      <c r="BI22" t="inlineStr"/>
+      <c r="BE22" s="4" t="inlineStr"/>
+      <c r="BF22" s="4" t="inlineStr"/>
+      <c r="BG22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -28821,96 +28864,94 @@
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" s="4" t="inlineStr"/>
+      <c r="K23" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="M23" s="4" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
+      <c r="P23" s="4" t="inlineStr"/>
+      <c r="Q23" s="4" t="inlineStr"/>
+      <c r="R23" s="4" t="inlineStr"/>
+      <c r="S23" s="4" t="inlineStr"/>
+      <c r="T23" s="4" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
+      <c r="Y23" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="Z23" s="4" t="inlineStr"/>
+      <c r="AA23" s="4" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
+      <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr">
+      <c r="AG23" s="4" t="inlineStr"/>
+      <c r="AH23" s="4" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" s="4" t="inlineStr"/>
+      <c r="AK23" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AL23" s="4" t="inlineStr"/>
+      <c r="AM23" s="4" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" s="4" t="inlineStr"/>
+      <c r="AP23" s="4" t="inlineStr"/>
+      <c r="AQ23" s="4" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" s="4" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" s="4" t="inlineStr"/>
+      <c r="AV23" s="4" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
-      <c r="AV23" t="inlineStr"/>
-      <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr"/>
       <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr"/>
       <c r="BC23" t="inlineStr"/>
-      <c r="BD23" t="inlineStr"/>
+      <c r="BD23" s="4" t="inlineStr"/>
       <c r="BE23" t="inlineStr"/>
-      <c r="BF23" t="inlineStr"/>
-      <c r="BG23" t="inlineStr"/>
-      <c r="BH23" t="inlineStr">
+      <c r="BF23" s="4" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="BI23" t="inlineStr"/>
+      <c r="BG23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -28921,117 +28962,115 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
+      <c r="J24" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="P24" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q24" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
+      <c r="S24" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="T24" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="U24" s="4" t="inlineStr"/>
+      <c r="V24" s="4" t="inlineStr"/>
+      <c r="W24" s="4" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+      <c r="Y24" s="4" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
+      <c r="AC24" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
       <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="AE24" s="4" t="inlineStr"/>
+      <c r="AF24" s="4" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr"/>
+      <c r="AH24" s="4" t="inlineStr"/>
+      <c r="AI24" s="4" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
+      <c r="AK24" s="4" t="inlineStr"/>
+      <c r="AL24" s="4" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AP24" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AQ24" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="AO24" s="4" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
       <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
-      <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
+      <c r="AW24" s="4" t="inlineStr"/>
+      <c r="AX24" s="4" t="inlineStr"/>
+      <c r="AY24" s="4" t="inlineStr"/>
+      <c r="AZ24" s="4" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="inlineStr"/>
-      <c r="BD24" t="inlineStr"/>
-      <c r="BE24" t="inlineStr"/>
-      <c r="BF24" t="inlineStr">
+      <c r="BC24" s="4" t="inlineStr"/>
+      <c r="BD24" s="4" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="BG24" t="inlineStr">
+      <c r="BE24" s="7" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="BH24" t="inlineStr"/>
-      <c r="BI24" t="inlineStr">
+      <c r="BF24" s="4" t="inlineStr"/>
+      <c r="BG24" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
@@ -29046,81 +29085,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="4" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" s="13" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr"/>
+      <c r="P25" s="4" t="inlineStr"/>
+      <c r="Q25" s="4" t="inlineStr"/>
+      <c r="R25" s="4" t="inlineStr"/>
+      <c r="S25" s="4" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" s="12" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+      <c r="X25" s="4" t="inlineStr"/>
+      <c r="Y25" s="4" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
+      <c r="AA25" s="4" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
+      <c r="AD25" s="4" t="inlineStr"/>
+      <c r="AE25" s="13" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AF25" s="4" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
+      <c r="AH25" s="4" t="inlineStr"/>
+      <c r="AI25" s="4" t="inlineStr"/>
+      <c r="AJ25" s="4" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
+      <c r="AL25" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" s="4" t="inlineStr"/>
+      <c r="AO25" s="4" t="inlineStr"/>
+      <c r="AP25" s="4" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
-      <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="inlineStr"/>
+      <c r="AS25" s="4" t="inlineStr"/>
+      <c r="AT25" s="4" t="inlineStr"/>
+      <c r="AU25" s="4" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="inlineStr"/>
-      <c r="BA25" t="inlineStr"/>
+      <c r="BA25" s="4" t="inlineStr"/>
       <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr"/>
-      <c r="BD25" t="inlineStr"/>
-      <c r="BE25" t="inlineStr"/>
-      <c r="BF25" t="inlineStr"/>
-      <c r="BG25" t="inlineStr"/>
-      <c r="BH25" t="inlineStr"/>
-      <c r="BI25" t="inlineStr"/>
+      <c r="BC25" s="4" t="inlineStr"/>
+      <c r="BD25" s="4" t="inlineStr"/>
+      <c r="BE25" s="4" t="inlineStr"/>
+      <c r="BF25" s="4" t="inlineStr"/>
+      <c r="BG25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -29131,97 +29168,95 @@
           <t>Montag</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" s="4" t="inlineStr"/>
+      <c r="K26" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="M26" s="4" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
+      <c r="P26" s="4" t="inlineStr"/>
+      <c r="Q26" s="4" t="inlineStr"/>
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr"/>
+      <c r="T26" s="4" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
+      <c r="Y26" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="Z26" s="4" t="inlineStr"/>
+      <c r="AA26" s="4" t="inlineStr"/>
+      <c r="AB26" s="4" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr">
+      <c r="AF26" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr">
+      <c r="AG26" s="4" t="inlineStr"/>
+      <c r="AH26" s="4" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" s="4" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" s="4" t="inlineStr"/>
+      <c r="AM26" s="4" t="inlineStr"/>
+      <c r="AN26" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="AO26" s="4" t="inlineStr"/>
+      <c r="AP26" s="4" t="inlineStr"/>
+      <c r="AQ26" s="4" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" s="4" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" s="4" t="inlineStr"/>
+      <c r="AV26" s="4" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" s="4" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" s="4" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" s="4" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr"/>
-      <c r="AV26" t="inlineStr"/>
-      <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="BA26" t="inlineStr"/>
-      <c r="BB26" t="inlineStr"/>
-      <c r="BC26" t="inlineStr"/>
-      <c r="BD26" t="inlineStr"/>
-      <c r="BE26" t="inlineStr"/>
-      <c r="BF26" t="inlineStr"/>
-      <c r="BG26" t="inlineStr"/>
-      <c r="BH26" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="BI26" t="inlineStr"/>
+      <c r="BG26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -29233,116 +29268,114 @@
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="G27" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr"/>
+      <c r="I27" s="4" t="inlineStr"/>
+      <c r="J27" s="7" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" s="4" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
+      <c r="P27" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="U27" s="4" t="inlineStr"/>
+      <c r="V27" s="4" t="inlineStr"/>
+      <c r="W27" s="4" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" s="4" t="inlineStr"/>
+      <c r="Z27" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="AA27" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AB27" s="4" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="AE27" s="4" t="inlineStr"/>
+      <c r="AF27" s="4" t="inlineStr"/>
+      <c r="AG27" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AH27" s="4" t="inlineStr"/>
+      <c r="AI27" s="4" t="inlineStr"/>
+      <c r="AJ27" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr">
+      <c r="AK27" s="4" t="inlineStr"/>
+      <c r="AL27" s="4" t="inlineStr"/>
+      <c r="AM27" s="7" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="AO27" s="4" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
+      <c r="AQ27" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
       <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
+      <c r="AS27" s="4" t="inlineStr"/>
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
-      <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
+      <c r="AW27" s="4" t="inlineStr"/>
+      <c r="AX27" s="4" t="inlineStr"/>
+      <c r="AY27" s="4" t="inlineStr"/>
+      <c r="AZ27" s="4" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
-      <c r="BB27" t="inlineStr"/>
-      <c r="BC27" t="inlineStr"/>
-      <c r="BD27" t="inlineStr"/>
+      <c r="BB27" s="4" t="inlineStr"/>
+      <c r="BC27" s="4" t="inlineStr"/>
+      <c r="BD27" s="4" t="inlineStr"/>
       <c r="BE27" t="inlineStr"/>
-      <c r="BF27" t="inlineStr"/>
-      <c r="BG27" t="inlineStr"/>
-      <c r="BH27" t="inlineStr"/>
-      <c r="BI27" t="inlineStr">
+      <c r="BF27" s="4" t="inlineStr"/>
+      <c r="BG27" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -29357,81 +29390,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="4" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" s="4" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr"/>
+      <c r="I28" s="4" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" s="13" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="M28" s="4" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" s="4" t="inlineStr"/>
+      <c r="P28" s="4" t="inlineStr"/>
+      <c r="Q28" s="4" t="inlineStr"/>
+      <c r="R28" s="4" t="inlineStr"/>
+      <c r="S28" s="4" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="X28" s="4" t="inlineStr"/>
+      <c r="Y28" s="4" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr">
+      <c r="AA28" s="4" t="inlineStr"/>
+      <c r="AB28" s="4" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" s="4" t="inlineStr"/>
+      <c r="AE28" s="13" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AF28" s="4" t="inlineStr"/>
+      <c r="AG28" s="12" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+      <c r="AH28" s="4" t="inlineStr"/>
+      <c r="AI28" s="4" t="inlineStr"/>
+      <c r="AJ28" s="4" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
+      <c r="AL28" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" s="4" t="inlineStr"/>
+      <c r="AO28" s="4" t="inlineStr"/>
+      <c r="AP28" s="4" t="inlineStr"/>
+      <c r="AQ28" s="4" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr"/>
+      <c r="AS28" s="4" t="inlineStr"/>
+      <c r="AT28" s="4" t="inlineStr"/>
+      <c r="AU28" s="4" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
       <c r="AY28" t="inlineStr"/>
       <c r="AZ28" t="inlineStr"/>
-      <c r="BA28" t="inlineStr"/>
-      <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr"/>
-      <c r="BD28" t="inlineStr"/>
-      <c r="BE28" t="inlineStr"/>
-      <c r="BF28" t="inlineStr"/>
-      <c r="BG28" t="inlineStr"/>
-      <c r="BH28" t="inlineStr"/>
-      <c r="BI28" t="inlineStr"/>
+      <c r="BA28" s="4" t="inlineStr"/>
+      <c r="BB28" s="4" t="inlineStr"/>
+      <c r="BC28" s="4" t="inlineStr"/>
+      <c r="BD28" s="4" t="inlineStr"/>
+      <c r="BE28" s="4" t="inlineStr"/>
+      <c r="BF28" s="4" t="inlineStr"/>
+      <c r="BG28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -29442,97 +29473,95 @@
           <t>Montag</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
+      <c r="J29" s="4" t="inlineStr"/>
+      <c r="K29" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="L29" s="4" t="inlineStr"/>
+      <c r="M29" s="4" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
+      <c r="P29" s="4" t="inlineStr"/>
+      <c r="Q29" s="4" t="inlineStr"/>
+      <c r="R29" s="4" t="inlineStr"/>
+      <c r="S29" s="4" t="inlineStr"/>
+      <c r="T29" s="4" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
+      <c r="Y29" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="Z29" s="4" t="inlineStr"/>
+      <c r="AA29" s="4" t="inlineStr"/>
+      <c r="AB29" s="4" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr">
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" s="4" t="inlineStr"/>
+      <c r="AH29" s="4" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" s="4" t="inlineStr"/>
+      <c r="AK29" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr">
+      <c r="AL29" s="4" t="inlineStr"/>
+      <c r="AM29" s="4" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" s="4" t="inlineStr"/>
+      <c r="AP29" s="4" t="inlineStr"/>
+      <c r="AQ29" s="4" t="inlineStr"/>
+      <c r="AR29" s="4" t="inlineStr"/>
+      <c r="AS29" s="4" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" s="4" t="inlineStr"/>
+      <c r="AV29" s="4" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" s="4" t="inlineStr"/>
+      <c r="BC29" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr"/>
-      <c r="AV29" t="inlineStr"/>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="BA29" t="inlineStr"/>
-      <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="inlineStr"/>
-      <c r="BD29" t="inlineStr"/>
-      <c r="BE29" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="BF29" t="inlineStr"/>
-      <c r="BG29" t="inlineStr"/>
-      <c r="BH29" t="inlineStr"/>
-      <c r="BI29" t="inlineStr"/>
+      <c r="BD29" s="4" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" s="4" t="inlineStr"/>
+      <c r="BG29" s="4" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -29543,117 +29572,115 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="H30" s="4" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" s="4" t="inlineStr"/>
+      <c r="M30" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="R30" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="U30" s="4" t="inlineStr"/>
+      <c r="V30" s="4" t="inlineStr"/>
+      <c r="W30" s="4" t="inlineStr"/>
+      <c r="X30" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="Y30" s="4" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AB30" s="4" t="inlineStr"/>
+      <c r="AC30" s="11" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="AD30" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AE30" s="4" t="inlineStr"/>
+      <c r="AF30" s="4" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" s="4" t="inlineStr"/>
+      <c r="AI30" s="4" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" s="4" t="inlineStr"/>
+      <c r="AL30" s="4" t="inlineStr"/>
+      <c r="AM30" s="11" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" s="4" t="inlineStr"/>
+      <c r="AP30" s="4" t="inlineStr"/>
+      <c r="AQ30" s="4" t="inlineStr"/>
+      <c r="AR30" s="4" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
+      <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
+      <c r="AW30" s="4" t="inlineStr"/>
+      <c r="AX30" s="4" t="inlineStr"/>
+      <c r="AY30" s="4" t="inlineStr"/>
+      <c r="AZ30" s="4" t="inlineStr"/>
       <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="inlineStr"/>
-      <c r="BD30" t="inlineStr"/>
+      <c r="BB30" s="4" t="inlineStr"/>
+      <c r="BC30" s="4" t="inlineStr"/>
+      <c r="BD30" s="4" t="inlineStr"/>
       <c r="BE30" t="inlineStr"/>
-      <c r="BF30" t="inlineStr"/>
-      <c r="BG30" t="inlineStr"/>
-      <c r="BH30" t="inlineStr"/>
-      <c r="BI30" t="inlineStr">
+      <c r="BF30" s="4" t="inlineStr"/>
+      <c r="BG30" s="4" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
@@ -29668,81 +29695,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="C31" s="4" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" s="4" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="G31" s="4" t="inlineStr"/>
+      <c r="H31" s="4" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
+      <c r="K31" s="12" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="L31" s="4" t="inlineStr"/>
+      <c r="M31" s="4" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" s="4" t="inlineStr"/>
+      <c r="P31" s="4" t="inlineStr"/>
+      <c r="Q31" s="4" t="inlineStr"/>
+      <c r="R31" s="4" t="inlineStr"/>
+      <c r="S31" s="4" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="X31" s="4" t="inlineStr"/>
+      <c r="Y31" s="4" t="inlineStr"/>
+      <c r="Z31" s="13" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AA31" s="4" t="inlineStr"/>
+      <c r="AB31" s="4" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
+      <c r="AD31" s="4" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
+      <c r="AF31" s="4" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
+      <c r="AH31" s="4" t="inlineStr"/>
+      <c r="AI31" s="4" t="inlineStr"/>
+      <c r="AJ31" s="4" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
+      <c r="AN31" s="4" t="inlineStr"/>
+      <c r="AO31" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AP31" s="4" t="inlineStr"/>
+      <c r="AQ31" s="4" t="inlineStr"/>
+      <c r="AR31" s="4" t="inlineStr"/>
+      <c r="AS31" s="4" t="inlineStr"/>
+      <c r="AT31" s="4" t="inlineStr"/>
+      <c r="AU31" s="4" t="inlineStr"/>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
       <c r="AY31" t="inlineStr"/>
       <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
-      <c r="BC31" t="inlineStr"/>
-      <c r="BD31" t="inlineStr"/>
-      <c r="BE31" t="inlineStr"/>
+      <c r="BA31" s="4" t="inlineStr"/>
+      <c r="BB31" s="4" t="inlineStr"/>
+      <c r="BC31" s="4" t="inlineStr"/>
+      <c r="BD31" s="4" t="inlineStr"/>
+      <c r="BE31" s="4" t="inlineStr"/>
       <c r="BF31" t="inlineStr"/>
-      <c r="BG31" t="inlineStr"/>
-      <c r="BH31" t="inlineStr"/>
-      <c r="BI31" t="inlineStr"/>
+      <c r="BG31" s="4" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -29754,96 +29779,94 @@
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr"/>
+      <c r="F32" s="4" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="H32" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="I32" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="inlineStr"/>
+      <c r="K32" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="M32" s="4" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
+      <c r="P32" s="4" t="inlineStr"/>
+      <c r="Q32" s="4" t="inlineStr"/>
+      <c r="R32" s="4" t="inlineStr"/>
+      <c r="S32" s="4" t="inlineStr"/>
+      <c r="T32" s="4" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
+      <c r="Y32" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="Z32" s="4" t="inlineStr"/>
+      <c r="AA32" s="4" t="inlineStr"/>
+      <c r="AB32" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
+      <c r="AE32" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
+      <c r="AG32" s="4" t="inlineStr"/>
+      <c r="AH32" s="4" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" s="4" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" s="4" t="inlineStr"/>
+      <c r="AM32" s="4" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" s="4" t="inlineStr"/>
+      <c r="AP32" s="4" t="inlineStr"/>
+      <c r="AQ32" s="4" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" s="4" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" s="4" t="inlineStr"/>
+      <c r="AV32" s="4" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
-      <c r="AW32" t="inlineStr"/>
-      <c r="AX32" t="inlineStr"/>
       <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AZ32" t="inlineStr"/>
       <c r="BA32" t="inlineStr"/>
       <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr"/>
-      <c r="BD32" t="inlineStr"/>
+      <c r="BD32" s="4" t="inlineStr"/>
       <c r="BE32" t="inlineStr"/>
-      <c r="BF32" t="inlineStr"/>
-      <c r="BG32" t="inlineStr"/>
-      <c r="BH32" t="inlineStr"/>
-      <c r="BI32" t="inlineStr"/>
+      <c r="BF32" s="4" t="inlineStr"/>
+      <c r="BG32" s="4" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -29854,117 +29877,115 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" s="10" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
+      <c r="H33" s="4" t="inlineStr"/>
+      <c r="I33" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="J33" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="M33" s="7" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
+      <c r="N33" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="O33" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
+      <c r="U33" s="4" t="inlineStr"/>
+      <c r="V33" s="4" t="inlineStr"/>
+      <c r="W33" s="4" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
+      <c r="Y33" s="4" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
+      <c r="AC33" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr">
+      <c r="AE33" s="4" t="inlineStr"/>
+      <c r="AF33" s="4" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" s="4" t="inlineStr"/>
+      <c r="AI33" s="4" t="inlineStr"/>
+      <c r="AJ33" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
-      <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="AK33" s="4" t="inlineStr"/>
+      <c r="AL33" s="4" t="inlineStr"/>
+      <c r="AM33" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AN33" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AO33" s="4" t="inlineStr"/>
       <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
       <c r="AT33" t="inlineStr"/>
       <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
-      <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
+      <c r="AW33" s="4" t="inlineStr"/>
+      <c r="AX33" s="4" t="inlineStr"/>
+      <c r="AY33" s="4" t="inlineStr"/>
+      <c r="AZ33" s="4" t="inlineStr"/>
+      <c r="BA33" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
       <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="BD33" t="inlineStr"/>
+      <c r="BC33" s="4" t="inlineStr"/>
+      <c r="BD33" s="4" t="inlineStr"/>
       <c r="BE33" t="inlineStr"/>
-      <c r="BF33" t="inlineStr"/>
-      <c r="BG33" t="inlineStr"/>
-      <c r="BH33" t="inlineStr"/>
-      <c r="BI33" t="inlineStr">
+      <c r="BF33" s="4" t="inlineStr"/>
+      <c r="BG33" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
@@ -29979,81 +30000,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="4" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="G34" s="4" t="inlineStr"/>
+      <c r="H34" s="4" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" s="13" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
+      <c r="M34" s="4" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" s="4" t="inlineStr"/>
+      <c r="P34" s="4" t="inlineStr"/>
+      <c r="Q34" s="4" t="inlineStr"/>
+      <c r="R34" s="4" t="inlineStr"/>
+      <c r="S34" s="4" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
+      <c r="X34" s="4" t="inlineStr"/>
+      <c r="Y34" s="4" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" s="4" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" s="4" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" s="4" t="inlineStr"/>
+      <c r="AG34" s="12" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr">
+      <c r="AH34" s="4" t="inlineStr"/>
+      <c r="AI34" s="4" t="inlineStr"/>
+      <c r="AJ34" s="4" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" s="12" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
+      <c r="AN34" s="4" t="inlineStr"/>
+      <c r="AO34" s="4" t="inlineStr"/>
+      <c r="AP34" s="4" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
+      <c r="AS34" s="4" t="inlineStr"/>
+      <c r="AT34" s="4" t="inlineStr"/>
+      <c r="AU34" s="4" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr"/>
       <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="inlineStr"/>
       <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="inlineStr"/>
+      <c r="BA34" s="4" t="inlineStr"/>
       <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="inlineStr"/>
-      <c r="BD34" t="inlineStr"/>
-      <c r="BE34" t="inlineStr"/>
-      <c r="BF34" t="inlineStr"/>
-      <c r="BG34" t="inlineStr"/>
-      <c r="BH34" t="inlineStr"/>
-      <c r="BI34" t="inlineStr"/>
+      <c r="BC34" s="4" t="inlineStr"/>
+      <c r="BD34" s="4" t="inlineStr"/>
+      <c r="BE34" s="4" t="inlineStr"/>
+      <c r="BF34" s="4" t="inlineStr"/>
+      <c r="BG34" s="4" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -30066,95 +30085,93 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
+      <c r="H35" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="I35" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="J35" s="4" t="inlineStr"/>
+      <c r="K35" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
+      <c r="L35" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="M35" s="4" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
+      <c r="P35" s="4" t="inlineStr"/>
+      <c r="Q35" s="4" t="inlineStr"/>
+      <c r="R35" s="4" t="inlineStr"/>
+      <c r="S35" s="4" t="inlineStr"/>
+      <c r="T35" s="4" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
+      <c r="Y35" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="Z35" s="4" t="inlineStr"/>
+      <c r="AA35" s="4" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
+      <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr">
+      <c r="AG35" s="4" t="inlineStr"/>
+      <c r="AH35" s="4" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" s="4" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" s="4" t="inlineStr"/>
+      <c r="AM35" s="4" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" s="4" t="inlineStr"/>
+      <c r="AP35" s="4" t="inlineStr"/>
+      <c r="AQ35" s="4" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" s="4" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" s="4" t="inlineStr"/>
+      <c r="AV35" s="4" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="inlineStr"/>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
       <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AZ35" t="inlineStr"/>
       <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="inlineStr"/>
       <c r="BC35" t="inlineStr"/>
-      <c r="BD35" t="inlineStr"/>
-      <c r="BE35" t="inlineStr"/>
-      <c r="BF35" t="inlineStr"/>
-      <c r="BG35" t="inlineStr">
+      <c r="BD35" s="4" t="inlineStr"/>
+      <c r="BE35" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="BH35" t="inlineStr"/>
-      <c r="BI35" t="inlineStr"/>
+      <c r="BF35" s="4" t="inlineStr"/>
+      <c r="BG35" s="4" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -30165,117 +30182,115 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="G36" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" s="4" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" s="4" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" s="11" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="R36" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="S36" s="4" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" s="4" t="inlineStr"/>
+      <c r="V36" s="4" t="inlineStr"/>
+      <c r="W36" s="4" t="inlineStr"/>
+      <c r="X36" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="Y36" s="4" t="inlineStr"/>
+      <c r="Z36" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AA36" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="AD36" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AE36" s="4" t="inlineStr"/>
+      <c r="AF36" s="4" t="inlineStr"/>
+      <c r="AG36" s="4" t="inlineStr"/>
+      <c r="AH36" s="7" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="AI36" s="4" t="inlineStr"/>
+      <c r="AJ36" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
+      <c r="AK36" s="4" t="inlineStr"/>
+      <c r="AL36" s="4" t="inlineStr"/>
+      <c r="AM36" s="7" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr"/>
+      <c r="AO36" s="4" t="inlineStr"/>
+      <c r="AP36" s="4" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
+      <c r="AS36" s="4" t="inlineStr"/>
       <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
+      <c r="AU36" s="4" t="inlineStr"/>
       <c r="AV36" t="inlineStr"/>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
+      <c r="AW36" s="4" t="inlineStr"/>
+      <c r="AX36" s="4" t="inlineStr"/>
+      <c r="AY36" s="4" t="inlineStr"/>
+      <c r="AZ36" s="4" t="inlineStr"/>
       <c r="BA36" t="inlineStr"/>
       <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr"/>
+      <c r="BC36" s="4" t="inlineStr"/>
       <c r="BD36" t="inlineStr"/>
       <c r="BE36" t="inlineStr"/>
-      <c r="BF36" t="inlineStr"/>
-      <c r="BG36" t="inlineStr"/>
-      <c r="BH36" t="inlineStr"/>
-      <c r="BI36" t="inlineStr">
+      <c r="BF36" s="4" t="inlineStr"/>
+      <c r="BG36" s="4" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
@@ -30290,81 +30305,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="4" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr"/>
+      <c r="G37" s="4" t="inlineStr"/>
+      <c r="H37" s="4" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="K37" s="4" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" s="4" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr">
+      <c r="O37" s="4" t="inlineStr"/>
+      <c r="P37" s="4" t="inlineStr"/>
+      <c r="Q37" s="4" t="inlineStr"/>
+      <c r="R37" s="4" t="inlineStr"/>
+      <c r="S37" s="4" t="inlineStr"/>
+      <c r="T37" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="X37" s="4" t="inlineStr"/>
+      <c r="Y37" s="4" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+      <c r="AA37" s="4" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
+      <c r="AD37" s="4" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
+      <c r="AF37" s="4" t="inlineStr"/>
+      <c r="AG37" s="4" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
+      <c r="AI37" s="4" t="inlineStr"/>
+      <c r="AJ37" s="4" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
+      <c r="AL37" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AM37" t="inlineStr"/>
-      <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
+      <c r="AN37" s="4" t="inlineStr"/>
+      <c r="AO37" s="4" t="inlineStr"/>
+      <c r="AP37" s="4" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr"/>
+      <c r="AS37" s="4" t="inlineStr"/>
+      <c r="AT37" s="4" t="inlineStr"/>
+      <c r="AU37" s="4" t="inlineStr"/>
       <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="inlineStr"/>
       <c r="AY37" t="inlineStr"/>
       <c r="AZ37" t="inlineStr"/>
-      <c r="BA37" t="inlineStr"/>
+      <c r="BA37" s="4" t="inlineStr"/>
       <c r="BB37" t="inlineStr"/>
-      <c r="BC37" t="inlineStr"/>
+      <c r="BC37" s="4" t="inlineStr"/>
       <c r="BD37" t="inlineStr"/>
-      <c r="BE37" t="inlineStr"/>
-      <c r="BF37" t="inlineStr"/>
-      <c r="BG37" t="inlineStr"/>
-      <c r="BH37" t="inlineStr"/>
-      <c r="BI37" t="inlineStr"/>
+      <c r="BE37" s="4" t="inlineStr"/>
+      <c r="BF37" s="4" t="inlineStr"/>
+      <c r="BG37" s="4" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -30376,96 +30389,94 @@
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr"/>
+      <c r="F38" s="4" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="H38" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="I38" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="inlineStr"/>
+      <c r="K38" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="M38" s="4" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
+      <c r="P38" s="4" t="inlineStr"/>
+      <c r="Q38" s="4" t="inlineStr"/>
+      <c r="R38" s="4" t="inlineStr"/>
+      <c r="S38" s="4" t="inlineStr"/>
+      <c r="T38" s="4" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
+      <c r="Y38" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="Z38" s="4" t="inlineStr"/>
+      <c r="AA38" s="4" t="inlineStr"/>
+      <c r="AB38" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
+      <c r="AE38" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AI38" t="inlineStr">
+      <c r="AG38" s="4" t="inlineStr"/>
+      <c r="AH38" s="4" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" s="4" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" s="4" t="inlineStr"/>
+      <c r="AM38" s="4" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" s="4" t="inlineStr"/>
+      <c r="AP38" s="4" t="inlineStr"/>
+      <c r="AQ38" s="4" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" s="4" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" s="4" t="inlineStr"/>
+      <c r="AV38" s="4" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AN38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr"/>
-      <c r="AV38" t="inlineStr"/>
-      <c r="AW38" t="inlineStr"/>
-      <c r="AX38" t="inlineStr"/>
       <c r="AY38" t="inlineStr"/>
-      <c r="AZ38" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr"/>
       <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="inlineStr"/>
-      <c r="BD38" t="inlineStr"/>
+      <c r="BD38" s="4" t="inlineStr"/>
       <c r="BE38" t="inlineStr"/>
-      <c r="BF38" t="inlineStr"/>
-      <c r="BG38" t="inlineStr"/>
-      <c r="BH38" t="inlineStr"/>
-      <c r="BI38" t="inlineStr"/>
+      <c r="BF38" s="4" t="inlineStr"/>
+      <c r="BG38" s="4" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -30476,117 +30487,115 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="G39" s="10" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
+      <c r="H39" s="4" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="L39" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="M39" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="N39" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="O39" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
+      <c r="R39" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="U39" s="4" t="inlineStr"/>
+      <c r="V39" s="4" t="inlineStr"/>
+      <c r="W39" s="4" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
+      <c r="Y39" s="4" t="inlineStr"/>
+      <c r="Z39" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr">
+      <c r="AC39" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" s="4" t="inlineStr"/>
+      <c r="AF39" s="4" t="inlineStr"/>
+      <c r="AG39" s="11" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr">
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" s="4" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" s="4" t="inlineStr"/>
+      <c r="AL39" s="4" t="inlineStr"/>
+      <c r="AM39" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr">
+      <c r="AN39" s="7" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
-      <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="AO39" s="4" t="inlineStr"/>
       <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
+      <c r="AQ39" t="inlineStr"/>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
       <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="inlineStr"/>
-      <c r="AW39" t="inlineStr"/>
-      <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="inlineStr"/>
-      <c r="AZ39" t="inlineStr"/>
+      <c r="AW39" s="4" t="inlineStr"/>
+      <c r="AX39" s="4" t="inlineStr"/>
+      <c r="AY39" s="4" t="inlineStr"/>
+      <c r="AZ39" s="4" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="inlineStr"/>
-      <c r="BC39" t="inlineStr"/>
+      <c r="BC39" s="4" t="inlineStr"/>
       <c r="BD39" t="inlineStr"/>
       <c r="BE39" t="inlineStr"/>
-      <c r="BF39" t="inlineStr"/>
-      <c r="BG39" t="inlineStr"/>
-      <c r="BH39" t="inlineStr"/>
-      <c r="BI39" t="inlineStr">
+      <c r="BF39" s="4" t="inlineStr"/>
+      <c r="BG39" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
@@ -30601,81 +30610,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="C40" s="4" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" s="4" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr"/>
+      <c r="H40" s="4" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" s="13" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="K40" s="13" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="M40" s="4" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" s="4" t="inlineStr"/>
+      <c r="P40" s="4" t="inlineStr"/>
+      <c r="Q40" s="4" t="inlineStr"/>
+      <c r="R40" s="4" t="inlineStr"/>
+      <c r="S40" s="4" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" s="12" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
+      <c r="X40" s="4" t="inlineStr"/>
+      <c r="Y40" s="4" t="inlineStr"/>
+      <c r="Z40" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AA40" s="4" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
+      <c r="AD40" s="4" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
+      <c r="AF40" s="4" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
+      <c r="AI40" s="4" t="inlineStr"/>
+      <c r="AJ40" s="4" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
-      <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
+      <c r="AN40" s="4" t="inlineStr"/>
+      <c r="AO40" s="4" t="inlineStr"/>
+      <c r="AP40" s="4" t="inlineStr"/>
+      <c r="AQ40" s="4" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
+      <c r="AS40" s="4" t="inlineStr"/>
+      <c r="AT40" s="4" t="inlineStr"/>
+      <c r="AU40" s="4" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
       <c r="AX40" t="inlineStr"/>
       <c r="AY40" t="inlineStr"/>
       <c r="AZ40" t="inlineStr"/>
-      <c r="BA40" t="inlineStr"/>
+      <c r="BA40" s="4" t="inlineStr"/>
       <c r="BB40" t="inlineStr"/>
-      <c r="BC40" t="inlineStr"/>
+      <c r="BC40" s="4" t="inlineStr"/>
       <c r="BD40" t="inlineStr"/>
-      <c r="BE40" t="inlineStr"/>
-      <c r="BF40" t="inlineStr"/>
-      <c r="BG40" t="inlineStr"/>
-      <c r="BH40" t="inlineStr"/>
-      <c r="BI40" t="inlineStr"/>
+      <c r="BE40" s="4" t="inlineStr"/>
+      <c r="BF40" s="4" t="inlineStr"/>
+      <c r="BG40" s="4" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -30686,97 +30693,95 @@
           <t>Montag</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="E41" s="4" t="inlineStr"/>
+      <c r="F41" s="4" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" s="4" t="inlineStr"/>
+      <c r="K41" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="M41" s="4" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="P41" s="4" t="inlineStr"/>
+      <c r="Q41" s="4" t="inlineStr"/>
+      <c r="R41" s="4" t="inlineStr"/>
+      <c r="S41" s="4" t="inlineStr"/>
+      <c r="T41" s="4" t="inlineStr"/>
+      <c r="U41" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="V41" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
+      <c r="Y41" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="Z41" s="4" t="inlineStr"/>
+      <c r="AA41" s="4" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr">
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" s="4" t="inlineStr"/>
+      <c r="AH41" s="4" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" s="4" t="inlineStr"/>
+      <c r="AK41" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr">
+      <c r="AL41" s="4" t="inlineStr"/>
+      <c r="AM41" s="4" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" s="4" t="inlineStr"/>
+      <c r="AP41" s="4" t="inlineStr"/>
+      <c r="AQ41" s="4" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" s="4" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" s="4" t="inlineStr"/>
+      <c r="AV41" s="4" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AM41" t="inlineStr"/>
-      <c r="AN41" t="inlineStr"/>
-      <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AU41" t="inlineStr"/>
-      <c r="AV41" t="inlineStr"/>
-      <c r="AW41" t="inlineStr"/>
-      <c r="AX41" t="inlineStr"/>
       <c r="AY41" t="inlineStr"/>
-      <c r="AZ41" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AZ41" t="inlineStr"/>
       <c r="BA41" t="inlineStr"/>
       <c r="BB41" t="inlineStr"/>
       <c r="BC41" t="inlineStr"/>
-      <c r="BD41" t="inlineStr"/>
+      <c r="BD41" s="4" t="inlineStr"/>
       <c r="BE41" t="inlineStr"/>
-      <c r="BF41" t="inlineStr"/>
-      <c r="BG41" t="inlineStr"/>
-      <c r="BH41" t="inlineStr"/>
-      <c r="BI41" t="inlineStr"/>
+      <c r="BF41" s="4" t="inlineStr"/>
+      <c r="BG41" s="4" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -30787,121 +30792,119 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" s="4" t="inlineStr"/>
+      <c r="F42" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="G42" s="10" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" s="4" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" s="9" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" s="4" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="R42" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="S42" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="T42" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="U42" s="4" t="inlineStr"/>
+      <c r="V42" s="4" t="inlineStr"/>
+      <c r="W42" s="4" t="inlineStr"/>
+      <c r="X42" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="Y42" s="4" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" s="10" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AD42" s="8" t="inlineStr">
         <is>
           <t>D20:00-90 PLB</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AF42" t="inlineStr"/>
+      <c r="AE42" s="4" t="inlineStr"/>
+      <c r="AF42" s="4" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
+      <c r="AH42" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AI42" s="4" t="inlineStr"/>
+      <c r="AJ42" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AK42" s="4" t="inlineStr"/>
+      <c r="AL42" s="4" t="inlineStr"/>
+      <c r="AM42" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
       <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
+      <c r="AO42" s="4" t="inlineStr"/>
+      <c r="AP42" s="4" t="inlineStr"/>
+      <c r="AQ42" s="4" t="inlineStr"/>
       <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr"/>
+      <c r="AS42" s="4" t="inlineStr"/>
       <c r="AT42" t="inlineStr"/>
       <c r="AU42" t="inlineStr"/>
       <c r="AV42" t="inlineStr"/>
-      <c r="AW42" t="inlineStr"/>
-      <c r="AX42" t="inlineStr"/>
-      <c r="AY42" t="inlineStr"/>
-      <c r="AZ42" t="inlineStr"/>
+      <c r="AW42" s="4" t="inlineStr"/>
+      <c r="AX42" s="4" t="inlineStr"/>
+      <c r="AY42" s="4" t="inlineStr"/>
+      <c r="AZ42" s="4" t="inlineStr"/>
       <c r="BA42" t="inlineStr"/>
       <c r="BB42" t="inlineStr"/>
-      <c r="BC42" t="inlineStr"/>
+      <c r="BC42" s="4" t="inlineStr"/>
       <c r="BD42" t="inlineStr"/>
       <c r="BE42" t="inlineStr"/>
-      <c r="BF42" t="inlineStr"/>
-      <c r="BG42" t="inlineStr"/>
-      <c r="BH42" t="inlineStr"/>
-      <c r="BI42" t="inlineStr"/>
+      <c r="BF42" s="4" t="inlineStr"/>
+      <c r="BG42" s="4" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -30912,81 +30915,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="4" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" s="4" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="G43" s="4" t="inlineStr"/>
+      <c r="H43" s="4" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" s="4" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" s="4" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="O43" s="4" t="inlineStr"/>
+      <c r="P43" s="4" t="inlineStr"/>
+      <c r="Q43" s="4" t="inlineStr"/>
+      <c r="R43" s="4" t="inlineStr"/>
+      <c r="S43" s="4" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+      <c r="X43" s="4" t="inlineStr"/>
+      <c r="Y43" s="4" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
+      <c r="AA43" s="4" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLA</t>
-        </is>
-      </c>
+      <c r="AD43" s="4" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
+      <c r="AF43" s="4" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
+      <c r="AI43" s="4" t="inlineStr"/>
+      <c r="AJ43" s="4" t="inlineStr"/>
+      <c r="AK43" s="13" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AL43" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="inlineStr"/>
-      <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
+      <c r="AN43" s="4" t="inlineStr"/>
+      <c r="AO43" s="13" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="AP43" s="4" t="inlineStr"/>
+      <c r="AQ43" s="4" t="inlineStr"/>
       <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr"/>
-      <c r="AT43" t="inlineStr"/>
-      <c r="AU43" t="inlineStr"/>
+      <c r="AS43" s="4" t="inlineStr"/>
+      <c r="AT43" s="4" t="inlineStr"/>
+      <c r="AU43" s="4" t="inlineStr"/>
       <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="inlineStr"/>
       <c r="AY43" t="inlineStr"/>
-      <c r="AZ43" t="inlineStr"/>
-      <c r="BA43" t="inlineStr"/>
-      <c r="BB43" t="inlineStr">
+      <c r="AZ43" s="12" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="BC43" t="inlineStr"/>
+      <c r="BA43" s="4" t="inlineStr"/>
+      <c r="BB43" t="inlineStr"/>
+      <c r="BC43" s="4" t="inlineStr"/>
       <c r="BD43" t="inlineStr"/>
-      <c r="BE43" t="inlineStr"/>
+      <c r="BE43" s="4" t="inlineStr"/>
       <c r="BF43" t="inlineStr"/>
-      <c r="BG43" t="inlineStr"/>
-      <c r="BH43" t="inlineStr"/>
-      <c r="BI43" t="inlineStr"/>
+      <c r="BG43" s="4" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -30998,96 +30999,94 @@
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="inlineStr"/>
+      <c r="F44" s="4" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
+      <c r="H44" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="I44" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
+      <c r="J44" s="4" t="inlineStr"/>
+      <c r="K44" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
+      <c r="L44" s="4" t="inlineStr"/>
+      <c r="M44" s="4" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
+      <c r="P44" s="4" t="inlineStr"/>
+      <c r="Q44" s="4" t="inlineStr"/>
+      <c r="R44" s="4" t="inlineStr"/>
+      <c r="S44" s="4" t="inlineStr"/>
+      <c r="T44" s="4" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
+      <c r="Y44" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="Z44" s="4" t="inlineStr"/>
+      <c r="AA44" s="4" t="inlineStr"/>
+      <c r="AB44" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
+      <c r="AD44" s="4" t="inlineStr"/>
+      <c r="AE44" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AI44" t="inlineStr">
+      <c r="AG44" s="4" t="inlineStr"/>
+      <c r="AH44" s="4" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" s="4" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" s="4" t="inlineStr"/>
+      <c r="AM44" s="4" t="inlineStr"/>
+      <c r="AN44" s="4" t="inlineStr"/>
+      <c r="AO44" s="4" t="inlineStr"/>
+      <c r="AP44" s="4" t="inlineStr"/>
+      <c r="AQ44" s="4" t="inlineStr"/>
+      <c r="AR44" s="4" t="inlineStr"/>
+      <c r="AS44" s="4" t="inlineStr"/>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" s="4" t="inlineStr"/>
+      <c r="AV44" s="4" t="inlineStr"/>
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AN44" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr"/>
-      <c r="AT44" t="inlineStr"/>
-      <c r="AU44" t="inlineStr"/>
-      <c r="AV44" t="inlineStr"/>
-      <c r="AW44" t="inlineStr"/>
-      <c r="AX44" t="inlineStr"/>
       <c r="AY44" t="inlineStr"/>
-      <c r="AZ44" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AZ44" t="inlineStr"/>
       <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="inlineStr"/>
       <c r="BC44" t="inlineStr"/>
-      <c r="BD44" t="inlineStr"/>
-      <c r="BE44" t="inlineStr"/>
-      <c r="BF44" t="inlineStr"/>
-      <c r="BG44" t="inlineStr"/>
-      <c r="BH44" t="inlineStr"/>
-      <c r="BI44" t="inlineStr"/>
+      <c r="BD44" s="4" t="inlineStr"/>
+      <c r="BE44" s="4" t="inlineStr"/>
+      <c r="BF44" s="4" t="inlineStr"/>
+      <c r="BG44" s="4" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -31098,121 +31097,119 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" s="4" t="inlineStr"/>
+      <c r="F45" s="4" t="inlineStr"/>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="H45" s="4" t="inlineStr"/>
+      <c r="I45" s="4" t="inlineStr"/>
+      <c r="J45" s="4" t="inlineStr"/>
+      <c r="K45" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="L45" s="4" t="inlineStr"/>
+      <c r="M45" s="4" t="inlineStr"/>
+      <c r="N45" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="O45" s="4" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="P45" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Q45" s="4" t="inlineStr"/>
+      <c r="R45" s="4" t="inlineStr"/>
+      <c r="S45" s="4" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" s="4" t="inlineStr"/>
+      <c r="V45" s="4" t="inlineStr"/>
+      <c r="W45" s="4" t="inlineStr"/>
+      <c r="X45" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="Y45" s="4" t="inlineStr"/>
+      <c r="Z45" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AA45" s="4" t="inlineStr"/>
+      <c r="AB45" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="AC45" s="7" t="inlineStr">
         <is>
           <t>E18:00-60 PLA</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="AD45" s="4" t="inlineStr"/>
+      <c r="AE45" s="4" t="inlineStr"/>
+      <c r="AF45" s="4" t="inlineStr"/>
+      <c r="AG45" s="4" t="inlineStr"/>
+      <c r="AH45" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AI45" s="4" t="inlineStr"/>
+      <c r="AJ45" s="4" t="inlineStr"/>
+      <c r="AK45" s="4" t="inlineStr"/>
+      <c r="AL45" s="4" t="inlineStr"/>
+      <c r="AM45" s="11" t="inlineStr">
         <is>
           <t>E19:00-60 PLB</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AG45" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AH45" t="inlineStr"/>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr"/>
-      <c r="AN45" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AO45" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
-      <c r="AS45" t="inlineStr"/>
-      <c r="AT45" t="inlineStr"/>
-      <c r="AU45" t="inlineStr">
+      <c r="AN45" s="4" t="inlineStr"/>
+      <c r="AO45" s="4" t="inlineStr"/>
+      <c r="AP45" s="4" t="inlineStr"/>
+      <c r="AQ45" s="4" t="inlineStr"/>
+      <c r="AR45" s="4" t="inlineStr"/>
+      <c r="AS45" s="4" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
+      <c r="AT45" s="4" t="inlineStr"/>
+      <c r="AU45" s="4" t="inlineStr"/>
       <c r="AV45" t="inlineStr"/>
-      <c r="AW45" t="inlineStr"/>
-      <c r="AX45" t="inlineStr"/>
-      <c r="AY45" t="inlineStr"/>
-      <c r="AZ45" t="inlineStr"/>
+      <c r="AW45" s="4" t="inlineStr"/>
+      <c r="AX45" s="4" t="inlineStr"/>
+      <c r="AY45" s="4" t="inlineStr"/>
+      <c r="AZ45" s="4" t="inlineStr"/>
       <c r="BA45" t="inlineStr"/>
       <c r="BB45" t="inlineStr"/>
-      <c r="BC45" t="inlineStr"/>
+      <c r="BC45" s="4" t="inlineStr"/>
       <c r="BD45" t="inlineStr"/>
-      <c r="BE45" t="inlineStr"/>
-      <c r="BF45" t="inlineStr"/>
-      <c r="BG45" t="inlineStr">
+      <c r="BE45" s="4" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="BH45" t="inlineStr"/>
-      <c r="BI45" t="inlineStr"/>
+      <c r="BF45" s="4" t="inlineStr"/>
+      <c r="BG45" s="4" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -31223,81 +31220,79 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="4" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr"/>
+      <c r="G46" s="4" t="inlineStr"/>
+      <c r="H46" s="4" t="inlineStr"/>
+      <c r="I46" s="4" t="inlineStr"/>
+      <c r="J46" s="4" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr">
+      <c r="L46" s="4" t="inlineStr"/>
+      <c r="M46" s="4" t="inlineStr"/>
+      <c r="N46" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
+      <c r="O46" s="4" t="inlineStr"/>
+      <c r="P46" s="4" t="inlineStr"/>
+      <c r="Q46" s="4" t="inlineStr"/>
+      <c r="R46" s="4" t="inlineStr"/>
+      <c r="S46" s="4" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
+      <c r="X46" s="4" t="inlineStr"/>
+      <c r="Y46" s="4" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
+      <c r="AA46" s="4" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr">
+      <c r="AD46" s="4" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" s="4" t="inlineStr"/>
+      <c r="AG46" s="4" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" s="4" t="inlineStr"/>
+      <c r="AJ46" s="4" t="inlineStr"/>
+      <c r="AK46" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr"/>
-      <c r="AL46" t="inlineStr"/>
+      <c r="AL46" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AM46" t="inlineStr"/>
-      <c r="AN46" t="inlineStr"/>
-      <c r="AO46" t="inlineStr"/>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="inlineStr"/>
-      <c r="AS46" t="inlineStr"/>
-      <c r="AT46" t="inlineStr"/>
-      <c r="AU46" t="inlineStr"/>
-      <c r="AV46" t="inlineStr"/>
+      <c r="AN46" s="4" t="inlineStr"/>
+      <c r="AO46" s="4" t="inlineStr"/>
+      <c r="AP46" s="4" t="inlineStr"/>
+      <c r="AQ46" s="4" t="inlineStr"/>
+      <c r="AR46" s="4" t="inlineStr"/>
+      <c r="AS46" s="4" t="inlineStr"/>
+      <c r="AT46" s="4" t="inlineStr"/>
+      <c r="AU46" s="4" t="inlineStr"/>
+      <c r="AV46" s="12" t="inlineStr">
+        <is>
+          <t>E20:00-90 PLB</t>
+        </is>
+      </c>
       <c r="AW46" t="inlineStr"/>
-      <c r="AX46" t="inlineStr">
-        <is>
-          <t>E20:00-90 PLB</t>
-        </is>
-      </c>
+      <c r="AX46" t="inlineStr"/>
       <c r="AY46" t="inlineStr"/>
       <c r="AZ46" t="inlineStr"/>
-      <c r="BA46" t="inlineStr"/>
+      <c r="BA46" s="4" t="inlineStr"/>
       <c r="BB46" t="inlineStr"/>
-      <c r="BC46" t="inlineStr"/>
+      <c r="BC46" s="4" t="inlineStr"/>
       <c r="BD46" t="inlineStr"/>
-      <c r="BE46" t="inlineStr"/>
-      <c r="BF46" t="inlineStr"/>
-      <c r="BG46" t="inlineStr"/>
-      <c r="BH46" t="inlineStr"/>
-      <c r="BI46" t="inlineStr"/>
+      <c r="BE46" s="4" t="inlineStr"/>
+      <c r="BF46" s="4" t="inlineStr"/>
+      <c r="BG46" s="4" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -31308,97 +31303,95 @@
           <t>Montag</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLB</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
+      <c r="H47" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="I47" s="4" t="inlineStr"/>
+      <c r="J47" s="4" t="inlineStr"/>
+      <c r="K47" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
+      <c r="L47" s="4" t="inlineStr"/>
+      <c r="M47" s="4" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
+      <c r="P47" s="4" t="inlineStr"/>
+      <c r="Q47" s="4" t="inlineStr"/>
+      <c r="R47" s="4" t="inlineStr"/>
+      <c r="S47" s="4" t="inlineStr"/>
+      <c r="T47" s="4" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr">
+      <c r="Y47" s="6" t="inlineStr">
+        <is>
+          <t>D20:00-120 PLA</t>
+        </is>
+      </c>
+      <c r="Z47" s="4" t="inlineStr"/>
+      <c r="AA47" s="4" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" s="4" t="inlineStr"/>
+      <c r="AE47" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr">
+      <c r="AF47" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr">
+      <c r="AG47" s="4" t="inlineStr"/>
+      <c r="AH47" s="4" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" s="4" t="inlineStr"/>
+      <c r="AK47" s="4" t="inlineStr"/>
+      <c r="AL47" s="4" t="inlineStr"/>
+      <c r="AM47" s="4" t="inlineStr"/>
+      <c r="AN47" s="4" t="inlineStr"/>
+      <c r="AO47" s="5" t="inlineStr">
         <is>
           <t>D20:00-120 PLB</t>
         </is>
       </c>
-      <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="inlineStr"/>
-      <c r="AI47" t="inlineStr">
+      <c r="AP47" s="4" t="inlineStr"/>
+      <c r="AQ47" s="4" t="inlineStr"/>
+      <c r="AR47" s="4" t="inlineStr"/>
+      <c r="AS47" s="4" t="inlineStr"/>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AU47" s="4" t="inlineStr"/>
+      <c r="AV47" s="4" t="inlineStr"/>
+      <c r="AW47" t="inlineStr"/>
+      <c r="AX47" s="6" t="inlineStr">
         <is>
           <t>D20:00-120 PLA</t>
         </is>
       </c>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr"/>
-      <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLB</t>
-        </is>
-      </c>
-      <c r="AN47" t="inlineStr"/>
-      <c r="AO47" t="inlineStr"/>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr"/>
-      <c r="AT47" t="inlineStr"/>
-      <c r="AU47" t="inlineStr"/>
-      <c r="AV47" t="inlineStr"/>
-      <c r="AW47" t="inlineStr"/>
-      <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="inlineStr"/>
-      <c r="AZ47" t="inlineStr">
-        <is>
-          <t>D20:00-120 PLA</t>
-        </is>
-      </c>
+      <c r="AZ47" t="inlineStr"/>
       <c r="BA47" t="inlineStr"/>
       <c r="BB47" t="inlineStr"/>
       <c r="BC47" t="inlineStr"/>
-      <c r="BD47" t="inlineStr"/>
-      <c r="BE47" t="inlineStr"/>
+      <c r="BD47" s="4" t="inlineStr"/>
+      <c r="BE47" s="4" t="inlineStr"/>
       <c r="BF47" t="inlineStr"/>
-      <c r="BG47" t="inlineStr"/>
-      <c r="BH47" t="inlineStr"/>
-      <c r="BI47" t="inlineStr"/>
+      <c r="BG47" s="4" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -31409,121 +31402,119 @@
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="H48" s="4" t="inlineStr"/>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="J48" s="4" t="inlineStr"/>
+      <c r="K48" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="L48" s="4" t="inlineStr"/>
+      <c r="M48" s="4" t="inlineStr"/>
+      <c r="N48" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" s="8" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLB</t>
+        </is>
+      </c>
+      <c r="Q48" s="4" t="inlineStr"/>
+      <c r="R48" s="4" t="inlineStr"/>
+      <c r="S48" s="11" t="inlineStr">
+        <is>
+          <t>E19:00-60 PLB</t>
+        </is>
+      </c>
+      <c r="T48" s="4" t="inlineStr"/>
+      <c r="U48" s="4" t="inlineStr"/>
+      <c r="V48" s="4" t="inlineStr"/>
+      <c r="W48" s="4" t="inlineStr"/>
+      <c r="X48" s="9" t="inlineStr">
+        <is>
+          <t>D20:00-90 PLA</t>
+        </is>
+      </c>
+      <c r="Y48" s="4" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" s="4" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" s="10" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
+      <c r="AD48" s="4" t="inlineStr"/>
+      <c r="AE48" s="4" t="inlineStr"/>
+      <c r="AF48" s="4" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" s="7" t="inlineStr">
+        <is>
+          <t>E18:00-60 PLA</t>
+        </is>
+      </c>
+      <c r="AI48" s="4" t="inlineStr"/>
+      <c r="AJ48" s="4" t="inlineStr"/>
+      <c r="AK48" s="4" t="inlineStr"/>
+      <c r="AL48" s="4" t="inlineStr"/>
+      <c r="AM48" s="10" t="inlineStr">
         <is>
           <t>E19:00-60 PLA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>E19:00-60 PLB</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr">
+      <c r="AN48" s="4" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" s="4" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" s="4" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="inlineStr"/>
-      <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr">
+      <c r="AS48" s="4" t="inlineStr">
         <is>
           <t>D20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="inlineStr"/>
-      <c r="AN48" t="inlineStr"/>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>E18:00-60 PLA</t>
-        </is>
-      </c>
-      <c r="AP48" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLB</t>
-        </is>
-      </c>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr"/>
-      <c r="AT48" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AU48" t="inlineStr">
-        <is>
-          <t>D20:00-90 PLA</t>
-        </is>
-      </c>
-      <c r="AV48" t="inlineStr"/>
-      <c r="AW48" t="inlineStr"/>
-      <c r="AX48" t="inlineStr"/>
-      <c r="AY48" t="inlineStr"/>
-      <c r="AZ48" t="inlineStr"/>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AU48" t="inlineStr"/>
+      <c r="AV48" s="4" t="inlineStr"/>
+      <c r="AW48" s="4" t="inlineStr"/>
+      <c r="AX48" s="4" t="inlineStr"/>
+      <c r="AY48" s="4" t="inlineStr"/>
+      <c r="AZ48" s="4" t="inlineStr"/>
       <c r="BA48" t="inlineStr"/>
       <c r="BB48" t="inlineStr"/>
-      <c r="BC48" t="inlineStr"/>
+      <c r="BC48" s="4" t="inlineStr"/>
       <c r="BD48" t="inlineStr"/>
-      <c r="BE48" t="inlineStr"/>
+      <c r="BE48" s="4" t="inlineStr"/>
       <c r="BF48" t="inlineStr"/>
-      <c r="BG48" t="inlineStr"/>
-      <c r="BH48" t="inlineStr"/>
-      <c r="BI48" t="inlineStr"/>
+      <c r="BG48" s="4" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -31534,24 +31525,24 @@
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="4" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr"/>
+      <c r="H49" s="4" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" s="4" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" s="4" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr">
+      <c r="O49" s="4" t="inlineStr"/>
+      <c r="P49" s="4" t="inlineStr"/>
+      <c r="Q49" s="4" t="inlineStr"/>
+      <c r="R49" s="4" t="inlineStr"/>
+      <c r="S49" s="4" t="inlineStr"/>
+      <c r="T49" s="12" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
@@ -31559,56 +31550,54 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+      <c r="X49" s="4" t="inlineStr"/>
+      <c r="Y49" s="4" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr">
+      <c r="AA49" s="4" t="inlineStr"/>
+      <c r="AB49" s="4" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" s="4" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" s="4" t="inlineStr"/>
+      <c r="AG49" s="12" t="inlineStr">
         <is>
           <t>E20:00-90 PLB</t>
         </is>
       </c>
-      <c r="AD49" t="inlineStr">
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" s="4" t="inlineStr"/>
+      <c r="AJ49" s="4" t="inlineStr"/>
+      <c r="AK49" s="4" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
       <c r="AM49" t="inlineStr"/>
-      <c r="AN49" t="inlineStr"/>
+      <c r="AN49" s="4" t="inlineStr"/>
       <c r="AO49" t="inlineStr"/>
-      <c r="AP49" t="inlineStr"/>
+      <c r="AP49" s="4" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
       <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr"/>
-      <c r="AT49" t="inlineStr"/>
-      <c r="AU49" t="inlineStr"/>
+      <c r="AS49" s="4" t="inlineStr"/>
+      <c r="AT49" s="4" t="inlineStr"/>
+      <c r="AU49" s="4" t="inlineStr"/>
       <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="inlineStr"/>
       <c r="AX49" t="inlineStr"/>
       <c r="AY49" t="inlineStr"/>
-      <c r="AZ49" t="inlineStr"/>
-      <c r="BA49" t="inlineStr"/>
-      <c r="BB49" t="inlineStr">
+      <c r="AZ49" s="13" t="inlineStr">
         <is>
           <t>E20:00-90 PLA</t>
         </is>
       </c>
-      <c r="BC49" t="inlineStr"/>
+      <c r="BA49" s="4" t="inlineStr"/>
+      <c r="BB49" s="4" t="inlineStr"/>
+      <c r="BC49" s="4" t="inlineStr"/>
       <c r="BD49" t="inlineStr"/>
-      <c r="BE49" t="inlineStr"/>
+      <c r="BE49" s="4" t="inlineStr"/>
       <c r="BF49" t="inlineStr"/>
-      <c r="BG49" t="inlineStr"/>
-      <c r="BH49" t="inlineStr"/>
-      <c r="BI49" t="inlineStr"/>
+      <c r="BG49" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trainplan_FIXED.xlsx
+++ b/trainplan_FIXED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mount\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66B1088-00FD-4A07-A14C-213A5C73FF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3078E9EB-3C7A-4742-9644-6EA224429205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spielerkosten" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4309" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="346">
   <si>
     <t>Rate (EUR / Stunde)</t>
   </si>
@@ -17570,7 +17570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -20055,10 +20055,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BF49"/>
+  <dimension ref="A1:BF50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20293,645 +20293,769 @@
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>45915</v>
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="P2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AE2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BF2" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" t="s">
+        <v>175</v>
+      </c>
+      <c r="P2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>183</v>
+      </c>
+      <c r="R2" t="s">
+        <v>193</v>
+      </c>
+      <c r="S2" t="s">
+        <v>188</v>
+      </c>
+      <c r="T2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U2" t="s">
+        <v>192</v>
+      </c>
+      <c r="V2" t="s">
+        <v>194</v>
+      </c>
+      <c r="W2" t="s">
+        <v>190</v>
+      </c>
+      <c r="X2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>339</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>340</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>341</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>342</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>343</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>344</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>197</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="Q3" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="P3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z3" s="3"/>
-      <c r="AB3" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
+      <c r="X3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AE3" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="AH3" s="3"/>
-      <c r="AI3" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ3" s="3"/>
+      <c r="AI3" s="3"/>
       <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
-      <c r="AN3" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AQ3" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR3" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
-      <c r="AV3" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="AU3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AV3" s="3"/>
       <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="BF3" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="AX3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF3" s="3"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="G4" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="H4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="11" t="s">
-        <v>204</v>
+      <c r="I4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="Q4" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB4" s="3"/>
-      <c r="AE4" s="3"/>
+      <c r="AB4" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
+      <c r="AI4" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
-      <c r="AL4" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AM4" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO4" s="3"/>
-      <c r="AQ4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
+      <c r="AV4" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="AW4" s="3"/>
-      <c r="AZ4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="BB4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BF4" s="3"/>
+      <c r="BC4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF4" s="8" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>45922</v>
+        <v>45918</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="H5" s="5" t="s">
-        <v>199</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="5" t="s">
-        <v>199</v>
+      <c r="K5" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="Z5" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="AB5" s="3"/>
-      <c r="AG5" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="AE5" s="3"/>
+      <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
-      <c r="AL5" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
+      <c r="AL5" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM5" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO5" s="3"/>
       <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
       <c r="AW5" s="3"/>
-      <c r="AX5" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB5" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BD5" s="3"/>
       <c r="BF5" s="3"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="J6" s="9" t="s">
-        <v>202</v>
+        <v>21</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="P6" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="O6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z6" s="3"/>
-      <c r="AB6" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD6" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
+      <c r="Z6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AG6" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="AH6" s="3"/>
-      <c r="AI6" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
+      <c r="AL6" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="AM6" s="3"/>
-      <c r="AO6" s="3"/>
+      <c r="AN6" s="3"/>
       <c r="AQ6" s="3"/>
-      <c r="AR6" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
-      <c r="AU6" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AV6" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="AV6" s="3"/>
       <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="BA6" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="BD6" s="3"/>
+      <c r="AX6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC6" s="3"/>
       <c r="BF6" s="3"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="H7" s="3"/>
+      <c r="J7" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="P7" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="Z7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="11" t="s">
-        <v>204</v>
-      </c>
+      <c r="AB7" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
+      <c r="AI7" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
-      <c r="AL7" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN7" s="11" t="s">
-        <v>204</v>
-      </c>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
       <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
+      <c r="AR7" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
+      <c r="AU7" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV7" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="AW7" s="3"/>
-      <c r="AZ7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA7" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="BB7" s="3"/>
+      <c r="BC7" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>45929</v>
+        <v>45925</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="5" t="s">
-        <v>199</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
       <c r="AB8" s="3"/>
-      <c r="AE8" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
+      <c r="AL8" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN8" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
       <c r="AW8" s="3"/>
-      <c r="AX8" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB8" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BB8" s="3"/>
       <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
       <c r="BF8" s="3"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>45931</v>
+        <v>45929</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="J9" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="Q9" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AB9" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC9" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AI9" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AL9" s="3"/>
+      <c r="W9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AE9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK9" s="3"/>
       <c r="AM9" s="3"/>
-      <c r="AN9" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
-      <c r="AP9" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AS9" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="AR9" s="3"/>
       <c r="AT9" s="3"/>
-      <c r="AV9" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="AV9" s="3"/>
       <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="BA9" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="AX9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
-      <c r="BE9" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="BF9" s="3"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45932</v>
+        <v>45931</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="F10" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="12" t="s">
-        <v>200</v>
+      <c r="J10" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="Q10" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="Y10" s="3"/>
+      <c r="X10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="11" t="s">
-        <v>204</v>
-      </c>
+      <c r="AB10" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
+      <c r="AI10" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
+      <c r="AK10" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="AO10" s="3"/>
+      <c r="AP10" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="AQ10" s="3"/>
+      <c r="AR10" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS10" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
+      <c r="AV10" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="AW10" s="3"/>
-      <c r="AZ10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="BA10" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="BB10" s="3"/>
+      <c r="BC10" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="BD10" s="3"/>
+      <c r="BE10" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="BF10" s="3"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45936</v>
+        <v>45932</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="F11" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="N11" s="3"/>
-      <c r="P11" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -20940,203 +21064,197 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA11" s="3"/>
+      <c r="Z11" s="3"/>
       <c r="AB11" s="3"/>
-      <c r="AG11" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG11" s="3"/>
+      <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
-      <c r="AL11" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
-      <c r="AU11" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
       <c r="AZ11" s="3"/>
-      <c r="BB11" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC11" s="3"/>
+      <c r="BB11" s="3"/>
       <c r="BD11" s="3"/>
       <c r="BF11" s="3"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45938</v>
+        <v>45936</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="J12" s="9" t="s">
-        <v>202</v>
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="P12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD12" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE12" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL12" s="3"/>
+      <c r="Z12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AG12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
+      <c r="AU12" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="AV12" s="3"/>
       <c r="AW12" s="3"/>
       <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
       <c r="AZ12" s="3"/>
-      <c r="BA12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="BB12" s="3"/>
+      <c r="BB12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
       <c r="BF12" s="3"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45939</v>
+        <v>45938</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="G13" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="H13" s="3"/>
-      <c r="K13" s="11" t="s">
-        <v>204</v>
+      <c r="J13" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="O13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB13" s="3"/>
-      <c r="AE13" s="3"/>
+      <c r="AA13" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
-      <c r="AH13" s="12" t="s">
-        <v>200</v>
-      </c>
       <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AM13" s="11" t="s">
-        <v>204</v>
-      </c>
+      <c r="AK13" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
       <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
+      <c r="AR13" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="3"/>
       <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
       <c r="AZ13" s="3"/>
+      <c r="BA13" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="BB13" s="3"/>
       <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
       <c r="BF13" s="3"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>45943</v>
+        <v>45939</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="K14" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -21145,217 +21263,211 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="AB14" s="3"/>
-      <c r="AG14" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
-      <c r="AL14" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="AM14" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO14" s="3"/>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="3"/>
       <c r="AX14" s="3"/>
       <c r="AZ14" s="3"/>
-      <c r="BB14" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="BB14" s="3"/>
+      <c r="BD14" s="3"/>
       <c r="BF14" s="3"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>45945</v>
+        <v>45943</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="J15" s="9" t="s">
-        <v>202</v>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
+      <c r="Z15" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
-      <c r="AE15" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AI15" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL15" s="3"/>
+      <c r="AG15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="AM15" s="3"/>
-      <c r="AN15" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ15" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AR15" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS15" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT15" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AU15" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV15" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AV15" s="3"/>
       <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
       <c r="AZ15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="BF15" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="BB15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF15" s="3"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>45946</v>
+        <v>45945</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="H16" s="3"/>
+      <c r="J16" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="M16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AB16" s="3"/>
-      <c r="AE16" s="3"/>
+      <c r="AE16" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
-      <c r="AH16" s="12" t="s">
-        <v>200</v>
+      <c r="AI16" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AM16" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
+      <c r="AK16" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR16" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT16" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV16" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
       <c r="AZ16" s="3"/>
       <c r="BB16" s="3"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="BF16" s="3"/>
+      <c r="BC16" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF16" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45950</v>
+        <v>45946</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="F17" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -21364,209 +21476,207 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA17" s="3"/>
+      <c r="Z17" s="3"/>
       <c r="AB17" s="3"/>
-      <c r="AC17" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG17" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="AE17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
+      <c r="AM17" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="AO17" s="3"/>
+      <c r="AP17" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
       <c r="AW17" s="3"/>
       <c r="AX17" s="3"/>
       <c r="AZ17" s="3"/>
-      <c r="BA17" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB17" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC17" s="3"/>
+      <c r="BB17" s="3"/>
       <c r="BD17" s="3"/>
+      <c r="BE17" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="BF17" s="3"/>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>45952</v>
+        <v>45950</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>202</v>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AB18" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE18" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="Z18" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
+      <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
-      <c r="AT18" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AU18" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV18" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="AT18" s="3"/>
+      <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
       <c r="AZ18" s="3"/>
-      <c r="BB18" s="3"/>
+      <c r="BA18" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB18" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
+      <c r="BF18" s="3"/>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>45953</v>
+        <v>45952</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="E19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="H19" s="3"/>
+      <c r="I19" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="N19" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-      <c r="X19" s="12" t="s">
-        <v>200</v>
-      </c>
+      <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AA19" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB19" s="3"/>
-      <c r="AE19" s="3"/>
+      <c r="AB19" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
-      <c r="AH19" s="12" t="s">
-        <v>200</v>
-      </c>
       <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
+      <c r="AK19" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
       <c r="AO19" s="3"/>
-      <c r="AP19" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
+      <c r="AT19" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV19" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="AW19" s="3"/>
       <c r="AX19" s="3"/>
-      <c r="AY19" s="12" t="s">
-        <v>200</v>
-      </c>
+      <c r="AY19" s="3"/>
       <c r="AZ19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BD19" s="3"/>
-      <c r="BE19" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="BF19" s="3"/>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>45957</v>
+        <v>45953</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -21576,2009 +21686,2075 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-      <c r="Y20" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA20" s="3"/>
+      <c r="X20" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="AB20" s="3"/>
-      <c r="AF20" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG20" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="AE20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
+      <c r="AP20" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="AW20" s="3"/>
-      <c r="AX20" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AZ20" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB20" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ20" s="3"/>
+      <c r="BB20" s="3"/>
       <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
+      <c r="BE20" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="BF20" s="3"/>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>45959</v>
+        <v>45957</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>197</v>
+        <v>21</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="F21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>202</v>
-      </c>
       <c r="K21" s="3"/>
-      <c r="N21" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="L21" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="N21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="T21" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AB21" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD21" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE21" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AI21" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ21" s="3"/>
+      <c r="Y21" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AF21" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG21" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
-      <c r="AT21" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
-      <c r="AV21" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="AV21" s="3"/>
       <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="AX21" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AZ21" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB21" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
       <c r="BF21" s="3"/>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>45960</v>
+        <v>45959</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="H22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="I22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="K22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="12" t="s">
-        <v>200</v>
+      <c r="N22" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
+      <c r="Q22" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-      <c r="X22" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y22" s="3"/>
+      <c r="X22" s="3"/>
       <c r="Z22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AE22" s="3"/>
+      <c r="AB22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE22" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
-      <c r="AH22" s="11" t="s">
-        <v>204</v>
+      <c r="AI22" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
-      <c r="AM22" s="12" t="s">
-        <v>200</v>
-      </c>
+      <c r="AM22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
-      <c r="AT22" s="3"/>
+      <c r="AT22" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
+      <c r="AV22" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="AW22" s="3"/>
-      <c r="AY22" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
       <c r="BB22" s="3"/>
+      <c r="BC22" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="BD22" s="3"/>
       <c r="BF22" s="3"/>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>45964</v>
+        <v>45960</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="H23" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="N23" s="3"/>
+      <c r="O23" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z23" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
       <c r="AB23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
-      <c r="AL23" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AP23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO23" s="3"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
       <c r="AW23" s="3"/>
-      <c r="AX23" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BC23" s="3"/>
-      <c r="BE23" s="3"/>
+      <c r="AY23" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BD23" s="3"/>
       <c r="BF23" s="3"/>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>45966</v>
+        <v>45964</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="J24" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="U24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AD24" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AL24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="AM24" s="3"/>
-      <c r="AO24" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AQ24" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV24" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="BB24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="BC24" s="3"/>
-      <c r="BD24" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="BF24" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>45967</v>
+        <v>45966</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="G25" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="H25" s="3"/>
-      <c r="L25" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="N25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="X25" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y25" s="3"/>
+      <c r="J25" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
       <c r="Z25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="12" t="s">
-        <v>200</v>
-      </c>
+      <c r="AD25" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AM25" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
-      <c r="AY25" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ25" s="3"/>
+      <c r="AK25" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AO25" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV25" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BC25" s="3"/>
-      <c r="BD25" s="3"/>
-      <c r="BF25" s="3"/>
+      <c r="BD25" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF25" s="8" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>45971</v>
+        <v>45967</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="H26" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="5" t="s">
-        <v>199</v>
+        <v>36</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="L26" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="N26" s="3"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z26" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA26" s="3"/>
+      <c r="X26" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AG26" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG26" s="3"/>
       <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP26" s="3"/>
+      <c r="AM26" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO26" s="3"/>
       <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
       <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA26" s="3"/>
-      <c r="BB26" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="AY26" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ26" s="3"/>
+      <c r="BB26" s="3"/>
       <c r="BC26" s="3"/>
-      <c r="BD26" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE26" s="3"/>
+      <c r="BD26" s="3"/>
       <c r="BF26" s="3"/>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>45973</v>
+        <v>45971</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>203</v>
+        <v>21</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="Q27" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="U27" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB27" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
-      <c r="AE27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="AG27" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL27" s="3"/>
+      <c r="AK27" s="3"/>
       <c r="AM27" s="3"/>
-      <c r="AN27" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AQ27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AR27" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
       <c r="AT27" s="3"/>
-      <c r="AW27" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="BA27" s="3"/>
-      <c r="BB27" s="3"/>
+      <c r="BB27" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="BC27" s="3"/>
-      <c r="BF27" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="BD27" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>45974</v>
+        <v>45973</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="G28" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="L28" s="12" t="s">
-        <v>200</v>
+      <c r="J28" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="N28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="Y28" s="3"/>
+      <c r="Q28" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="U28" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
       <c r="Z28" s="3"/>
-      <c r="AB28" s="3"/>
+      <c r="AA28" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB28" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="AC28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="12" t="s">
-        <v>200</v>
-      </c>
+      <c r="AE28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
-      <c r="AH28" s="11" t="s">
-        <v>204</v>
+      <c r="AH28" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AM28" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
+      <c r="AK28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR28" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AZ28" s="3"/>
+      <c r="AW28" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
       <c r="BA28" s="3"/>
       <c r="BB28" s="3"/>
       <c r="BC28" s="3"/>
-      <c r="BD28" s="3"/>
-      <c r="BF28" s="3"/>
+      <c r="BF28" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>45978</v>
+        <v>45974</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="H29" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="M29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="L29" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="N29" s="3"/>
+      <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="W29" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z29" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
-      <c r="AG29" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
-      <c r="AL29" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
+      <c r="AM29" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO29" s="3"/>
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
       <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="AZ29" s="3"/>
       <c r="BA29" s="3"/>
-      <c r="BB29" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="BB29" s="3"/>
       <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
       <c r="BF29" s="3"/>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>45980</v>
+        <v>45978</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="G30" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="J30" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>203</v>
+      <c r="F30" s="3"/>
+      <c r="H30" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="R30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="S30" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="U30" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z30" s="3"/>
-      <c r="AB30" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="N30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="W30" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z30" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
-      <c r="AD30" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
+      <c r="AG30" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AL30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="AM30" s="3"/>
-      <c r="AN30" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO30" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="AN30" s="3"/>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
       <c r="AS30" s="3"/>
-      <c r="AT30" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AU30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AW30" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX30" s="3"/>
-      <c r="AY30" s="3"/>
-      <c r="AZ30" s="9" t="s">
-        <v>202</v>
+      <c r="AT30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="BA30" s="3"/>
-      <c r="BB30" s="3"/>
+      <c r="BB30" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="BC30" s="3"/>
-      <c r="BD30" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="BF30" s="3"/>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>45981</v>
+        <v>45980</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>26</v>
+      </c>
       <c r="E31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="H31" s="3"/>
-      <c r="L31" s="11" t="s">
-        <v>204</v>
+      <c r="J31" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="X31" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y31" s="3"/>
+      <c r="N31" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="Z31" s="3"/>
-      <c r="AA31" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB31" s="3"/>
+      <c r="AB31" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="AC31" s="3"/>
-      <c r="AE31" s="3"/>
+      <c r="AD31" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
-      <c r="AO31" s="3"/>
-      <c r="AP31" s="11" t="s">
-        <v>204</v>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO31" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="AQ31" s="3"/>
       <c r="AR31" s="3"/>
       <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
-      <c r="AU31" s="3"/>
-      <c r="AV31" s="3"/>
-      <c r="AY31" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AZ31" s="3"/>
+      <c r="AT31" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW31" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="BA31" s="3"/>
       <c r="BB31" s="3"/>
       <c r="BC31" s="3"/>
-      <c r="BD31" s="3"/>
-      <c r="BE31" s="11" t="s">
-        <v>204</v>
+      <c r="BD31" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="BF31" s="3"/>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>45985</v>
+        <v>45981</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="H32" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="L32" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="M32" s="3"/>
       <c r="N32" s="3"/>
+      <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="Z32" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA32" s="3"/>
+      <c r="X32" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="AB32" s="3"/>
-      <c r="AC32" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF32" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AG32" s="3"/>
       <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
-      <c r="AM32" s="3"/>
-      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
       <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
-      <c r="AW32" s="3"/>
-      <c r="AX32" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA32" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="AY32" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
       <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+      <c r="BE32" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="BF32" s="3"/>
     </row>
     <row r="33" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>45987</v>
+        <v>45985</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="U33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z33" s="3"/>
-      <c r="AD33" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="Z33" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF33" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL33" s="3"/>
+      <c r="AK33" s="3"/>
       <c r="AM33" s="3"/>
-      <c r="AN33" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AO33" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AQ33" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AS33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT33" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AU33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AW33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="BB33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA33" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="BC33" s="3"/>
-      <c r="BD33" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="BF33" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="BF33" s="3"/>
     </row>
     <row r="34" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="G34" s="3"/>
+        <v>26</v>
+      </c>
       <c r="H34" s="3"/>
-      <c r="L34" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="N34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="X34" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y34" s="3"/>
+      <c r="I34" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="Z34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AE34" s="3"/>
+      <c r="AD34" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
-      <c r="AH34" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AM34" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AY34" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AZ34" s="3"/>
+      <c r="AK34" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO34" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ34" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT34" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="BB34" s="3"/>
       <c r="BC34" s="3"/>
-      <c r="BD34" s="3"/>
-      <c r="BF34" s="3"/>
+      <c r="BD34" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF34" s="8" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="35" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>45992</v>
+        <v>45988</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="H35" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="4" t="s">
-        <v>198</v>
+        <v>36</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="L35" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="N35" s="3"/>
+      <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="W35" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z35" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA35" s="3"/>
+      <c r="X35" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
       <c r="AB35" s="3"/>
-      <c r="AH35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="AI35" s="3"/>
-      <c r="AJ35" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="AM35" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO35" s="3"/>
       <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="AY35" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ35" s="3"/>
+      <c r="BB35" s="3"/>
       <c r="BC35" s="3"/>
-      <c r="BD35" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="BD35" s="3"/>
       <c r="BF35" s="3"/>
     </row>
     <row r="36" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>45994</v>
+        <v>45992</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="J36" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="H36" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K36" s="3"/>
       <c r="L36" s="3"/>
+      <c r="M36" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="N36" s="3"/>
-      <c r="P36" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="R36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="S36" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB36" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC36" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD36" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="W36" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
       <c r="AH36" s="3"/>
-      <c r="AI36" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK36" s="3"/>
       <c r="AM36" s="3"/>
-      <c r="AN36" s="6" t="s">
-        <v>203</v>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="AT36" s="3"/>
-      <c r="AU36" s="10" t="s">
-        <v>206</v>
-      </c>
       <c r="AV36" s="3"/>
-      <c r="AX36" s="3"/>
-      <c r="AY36" s="3"/>
-      <c r="AZ36" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA36" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="BB36" s="3"/>
-      <c r="BC36" s="6" t="s">
-        <v>203</v>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="BF36" s="3"/>
     </row>
     <row r="37" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>26</v>
+      </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="G37" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="H37" s="3"/>
-      <c r="K37" s="11" t="s">
-        <v>204</v>
+      <c r="J37" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="L37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
+      <c r="P37" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="T37" s="3"/>
-      <c r="U37" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="X37" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="Z37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AE37" s="3"/>
+      <c r="AA37" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB37" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC37" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD37" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE37" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
+      <c r="AI37" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="AJ37" s="3"/>
-      <c r="AK37" s="3"/>
-      <c r="AM37" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO37" s="3"/>
+      <c r="AK37" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="AQ37" s="3"/>
       <c r="AT37" s="3"/>
-      <c r="AU37" s="3"/>
+      <c r="AU37" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="AV37" s="3"/>
-      <c r="AW37" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AY37" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AZ37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA37" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="BB37" s="3"/>
-      <c r="BD37" s="3"/>
+      <c r="BC37" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="BF37" s="3"/>
     </row>
     <row r="38" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>45999</v>
+        <v>45995</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="H38" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="K38" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="L38" s="3"/>
       <c r="N38" s="3"/>
+      <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="Z38" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA38" s="3"/>
+      <c r="U38" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="X38" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
       <c r="AB38" s="3"/>
-      <c r="AC38" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF38" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="AE38" s="3"/>
+      <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
-      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
-      <c r="AM38" s="3"/>
-      <c r="AN38" s="3"/>
+      <c r="AM38" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO38" s="3"/>
       <c r="AQ38" s="3"/>
-      <c r="AR38" s="3"/>
       <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
-      <c r="AW38" s="3"/>
-      <c r="AX38" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA38" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC38" s="3"/>
+      <c r="AW38" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AY38" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BD38" s="3"/>
       <c r="BF38" s="3"/>
     </row>
     <row r="39" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>46001</v>
+        <v>45999</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="J39" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="U39" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD39" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ39" s="3"/>
-      <c r="AL39" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="Z39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF39" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AK39" s="3"/>
       <c r="AM39" s="3"/>
-      <c r="AN39" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO39" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AQ39" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS39" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AT39" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AU39" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AW39" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX39" s="3"/>
-      <c r="AY39" s="3"/>
-      <c r="BB39" s="3"/>
-      <c r="BD39" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="BF39" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="AN39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA39" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC39" s="3"/>
+      <c r="BF39" s="3"/>
     </row>
     <row r="40" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="G40" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="H40" s="3"/>
-      <c r="K40" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="N40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="X40" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y40" s="3"/>
+      <c r="J40" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
       <c r="Z40" s="3"/>
-      <c r="AA40" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB40" s="3"/>
-      <c r="AE40" s="3"/>
+      <c r="AA40" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD40" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
+      <c r="AH40" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="AJ40" s="3"/>
-      <c r="AK40" s="3"/>
-      <c r="AO40" s="3"/>
-      <c r="AQ40" s="3"/>
-      <c r="AR40" s="3"/>
-      <c r="AT40" s="3"/>
-      <c r="AU40" s="3"/>
-      <c r="AV40" s="3"/>
-      <c r="AY40" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO40" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ40" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS40" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT40" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU40" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW40" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
       <c r="BB40" s="3"/>
-      <c r="BD40" s="3"/>
-      <c r="BF40" s="3"/>
+      <c r="BD40" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF40" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="41" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>46006</v>
+        <v>46002</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="H41" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="5" t="s">
-        <v>199</v>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="K41" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="N41" s="3"/>
+      <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="W41" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z41" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA41" s="3"/>
+      <c r="X41" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="AB41" s="3"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
-      <c r="AL41" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM41" s="3"/>
-      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
       <c r="AQ41" s="3"/>
       <c r="AR41" s="3"/>
       <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
-      <c r="AW41" s="3"/>
-      <c r="AX41" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BC41" s="3"/>
+      <c r="AY41" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BD41" s="3"/>
       <c r="BF41" s="3"/>
     </row>
     <row r="42" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>46008</v>
+        <v>46006</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="J42" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>201</v>
+      <c r="F42" s="3"/>
+      <c r="H42" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="N42" s="3"/>
-      <c r="R42" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="S42" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="T42" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="U42" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z42" s="3"/>
-      <c r="AB42" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD42" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE42" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-      <c r="AI42" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="AM42" s="3"/>
-      <c r="AN42" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="AN42" s="3"/>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
-      <c r="AS42" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="AT42" s="3"/>
-      <c r="AV42" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW42" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX42" s="3"/>
-      <c r="AY42" s="3"/>
-      <c r="AZ42" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="BB42" s="3"/>
-      <c r="BC42" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC42" s="3"/>
       <c r="BF42" s="3"/>
     </row>
     <row r="43" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>46009</v>
+        <v>46008</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>26</v>
+      </c>
       <c r="E43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="F43" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="H43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="J43" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="N43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="X43" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y43" s="3"/>
+      <c r="R43" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="T43" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="U43" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="Z43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AE43" s="3"/>
+      <c r="AB43" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD43" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE43" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
+      <c r="AI43" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="AJ43" s="3"/>
-      <c r="AK43" s="3"/>
-      <c r="AL43" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AM43" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO43" s="3"/>
-      <c r="AP43" s="12" t="s">
-        <v>200</v>
+      <c r="AK43" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="AQ43" s="3"/>
       <c r="AR43" s="3"/>
+      <c r="AS43" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="AT43" s="3"/>
-      <c r="AU43" s="3"/>
-      <c r="AV43" s="3"/>
-      <c r="AY43" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ43" s="3"/>
+      <c r="AV43" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW43" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="BB43" s="3"/>
-      <c r="BD43" s="3"/>
-      <c r="BE43" s="12" t="s">
-        <v>200</v>
+      <c r="BC43" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="BF43" s="3"/>
     </row>
     <row r="44" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>46013</v>
+        <v>46009</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="M44" s="3"/>
       <c r="N44" s="3"/>
+      <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="W44" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="X44" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="X44" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
-      <c r="AC44" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="AE44" s="3"/>
-      <c r="AF44" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH44" s="3"/>
-      <c r="AI44" s="3"/>
-      <c r="AJ44" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="AG44" s="3"/>
+      <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
-      <c r="AM44" s="3"/>
-      <c r="AN44" s="3"/>
+      <c r="AL44" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM44" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="AO44" s="3"/>
+      <c r="AP44" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="AQ44" s="3"/>
       <c r="AR44" s="3"/>
-      <c r="AS44" s="3"/>
       <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
-      <c r="AW44" s="3"/>
-      <c r="AX44" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AY44" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA44" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC44" s="3"/>
+      <c r="AY44" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ44" s="3"/>
+      <c r="BB44" s="3"/>
       <c r="BD44" s="3"/>
+      <c r="BE44" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="BF44" s="3"/>
     </row>
     <row r="45" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>46015</v>
+        <v>46013</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="I45" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="M45" s="3"/>
-      <c r="N45" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="N45" s="3"/>
+      <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="10" t="s">
-        <v>206</v>
+      <c r="U45" s="3"/>
+      <c r="W45" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="Z45" s="3"/>
-      <c r="AA45" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
-      <c r="AC45" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD45" s="6" t="s">
-        <v>203</v>
+      <c r="AC45" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AG45" s="3"/>
+      <c r="AF45" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="AH45" s="3"/>
-      <c r="AI45" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="AK45" s="3"/>
-      <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
-      <c r="AN45" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
       <c r="AQ45" s="3"/>
       <c r="AR45" s="3"/>
       <c r="AS45" s="3"/>
-      <c r="AT45" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU45" s="3"/>
+      <c r="AT45" s="3"/>
       <c r="AV45" s="3"/>
-      <c r="AX45" s="3"/>
-      <c r="AY45" s="3"/>
-      <c r="AZ45" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="BA45" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="BB45" s="3"/>
-      <c r="BC45" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="AW45" s="3"/>
+      <c r="AX45" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY45" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA45" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC45" s="3"/>
       <c r="BD45" s="3"/>
       <c r="BF45" s="3"/>
     </row>
     <row r="46" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>46016</v>
+        <v>46015</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="G46" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="J46" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="K46" s="3"/>
+      <c r="L46" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="12" t="s">
-        <v>200</v>
+      <c r="N46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="Q46" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
-      <c r="U46" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="Z46" s="3"/>
+      <c r="AA46" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="AB46" s="3"/>
+      <c r="AC46" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD46" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
+      <c r="AI46" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
-      <c r="AL46" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AM46" s="11" t="s">
-        <v>204</v>
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="AO46" s="3"/>
       <c r="AQ46" s="3"/>
       <c r="AR46" s="3"/>
       <c r="AS46" s="3"/>
-      <c r="AT46" s="3"/>
+      <c r="AT46" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
-      <c r="AW46" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ46" s="3"/>
+      <c r="AX46" s="3"/>
+      <c r="AY46" s="3"/>
+      <c r="AZ46" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="BA46" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="BB46" s="3"/>
+      <c r="BC46" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="BD46" s="3"/>
       <c r="BF46" s="3"/>
     </row>
     <row r="47" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>46020</v>
+        <v>46016</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
+      <c r="O47" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="W47" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="X47" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="U47" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AE47" s="3"/>
-      <c r="AF47" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG47" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
-      <c r="AI47" s="3"/>
-      <c r="AJ47" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
-      <c r="AL47" s="3"/>
-      <c r="AM47" s="3"/>
-      <c r="AN47" s="3"/>
+      <c r="AL47" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM47" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="AO47" s="3"/>
-      <c r="AP47" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="AQ47" s="3"/>
       <c r="AR47" s="3"/>
       <c r="AS47" s="3"/>
       <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
       <c r="AV47" s="3"/>
-      <c r="AW47" s="3"/>
-      <c r="AX47" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AY47" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB47" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC47" s="3"/>
+      <c r="AW47" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ47" s="3"/>
+      <c r="BB47" s="3"/>
       <c r="BD47" s="3"/>
-      <c r="BE47" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="BF47" s="3"/>
     </row>
     <row r="48" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>46022</v>
+        <v>46020</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="H48" s="3"/>
-      <c r="I48" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="T48" s="3"/>
       <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="8" t="s">
-        <v>201</v>
+      <c r="W48" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="Z48" s="3"/>
-      <c r="AA48" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
-      <c r="AD48" s="9" t="s">
-        <v>202</v>
-      </c>
       <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AI48" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ48" s="3"/>
+      <c r="AF48" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG48" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
       <c r="AM48" s="3"/>
-      <c r="AN48" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
+      <c r="AP48" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="AQ48" s="3"/>
-      <c r="AR48" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="AR48" s="3"/>
       <c r="AS48" s="3"/>
       <c r="AT48" s="3"/>
-      <c r="AU48" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AV48" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="AV48" s="3"/>
       <c r="AW48" s="3"/>
-      <c r="AX48" s="3"/>
-      <c r="AY48" s="3"/>
-      <c r="AZ48" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="BB48" s="3"/>
-      <c r="BC48" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="AX48" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY48" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB48" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC48" s="3"/>
       <c r="BD48" s="3"/>
+      <c r="BE48" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="BF48" s="3"/>
     </row>
     <row r="49" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>46023</v>
+        <v>46022</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="H49" s="3"/>
+      <c r="I49" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J49" s="3"/>
       <c r="K49" s="3"/>
+      <c r="L49" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
+      <c r="O49" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="X49" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y49" s="3"/>
+      <c r="T49" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="Z49" s="3"/>
+      <c r="AA49" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
+      <c r="AD49" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="AE49" s="3"/>
-      <c r="AF49" s="12" t="s">
-        <v>200</v>
-      </c>
+      <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
-      <c r="AH49" s="11" t="s">
-        <v>204</v>
+      <c r="AI49" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="AO49" s="3"/>
       <c r="AQ49" s="3"/>
+      <c r="AR49" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS49" s="3"/>
       <c r="AT49" s="3"/>
-      <c r="AU49" s="3"/>
-      <c r="AV49" s="3"/>
-      <c r="AW49" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AY49" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AZ49" s="3"/>
-      <c r="BA49" s="3"/>
+      <c r="AU49" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV49" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="BB49" s="3"/>
+      <c r="BC49" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="BD49" s="3"/>
       <c r="BF49" s="3"/>
+    </row>
+    <row r="50" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="X50" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
+      <c r="AO50" s="3"/>
+      <c r="AQ50" s="3"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY50" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ50" s="3"/>
+      <c r="BA50" s="3"/>
+      <c r="BB50" s="3"/>
+      <c r="BD50" s="3"/>
+      <c r="BF50" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trainplan_FIXED.xlsx
+++ b/trainplan_FIXED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mount\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3078E9EB-3C7A-4742-9644-6EA224429205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3837A8FC-6B1C-4740-BCBA-30AA159D53BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Players Cost" sheetId="2" r:id="rId2"/>
     <sheet name="Spielplan" sheetId="3" r:id="rId3"/>
     <sheet name="Herren 40–50–60" sheetId="4" r:id="rId4"/>
+    <sheet name="Kosten" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4427" uniqueCount="349">
   <si>
     <t>Rate (EUR / Stunde)</t>
   </si>
@@ -1066,6 +1067,15 @@
   </si>
   <si>
     <t>wolfgang aleksik</t>
+  </si>
+  <si>
+    <t>Teilnahmen</t>
+  </si>
+  <si>
+    <t>Minuten</t>
+  </si>
+  <si>
+    <t>Summe</t>
   </si>
 </sst>
 </file>
@@ -23759,4 +23769,815 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1950</v>
+      </c>
+      <c r="D2">
+        <v>174.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>900</v>
+      </c>
+      <c r="D3">
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>900</v>
+      </c>
+      <c r="D4">
+        <v>131.19999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1680</v>
+      </c>
+      <c r="D5">
+        <v>122.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>990</v>
+      </c>
+      <c r="D6">
+        <v>118.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1560</v>
+      </c>
+      <c r="D7">
+        <v>113.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1560</v>
+      </c>
+      <c r="D8">
+        <v>113.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>900</v>
+      </c>
+      <c r="D9">
+        <v>111.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1050</v>
+      </c>
+      <c r="D10">
+        <v>109.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>750</v>
+      </c>
+      <c r="D11">
+        <v>109.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>780</v>
+      </c>
+      <c r="D12">
+        <v>107.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1080</v>
+      </c>
+      <c r="D13">
+        <v>104.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>840</v>
+      </c>
+      <c r="D14">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1230</v>
+      </c>
+      <c r="D15">
+        <v>100.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>660</v>
+      </c>
+      <c r="D16">
+        <v>96.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1050</v>
+      </c>
+      <c r="D17">
+        <v>94.039999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>900</v>
+      </c>
+      <c r="D18">
+        <v>85.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>1080</v>
+      </c>
+      <c r="D19">
+        <v>83.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>1080</v>
+      </c>
+      <c r="D20">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1080</v>
+      </c>
+      <c r="D21">
+        <v>78.739999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>810</v>
+      </c>
+      <c r="D22">
+        <v>72.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>990</v>
+      </c>
+      <c r="D23">
+        <v>72.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>840</v>
+      </c>
+      <c r="D24">
+        <v>69.97999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>960</v>
+      </c>
+      <c r="D25">
+        <v>69.97999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>750</v>
+      </c>
+      <c r="D26">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>690</v>
+      </c>
+      <c r="D27">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>840</v>
+      </c>
+      <c r="D28">
+        <v>65.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>900</v>
+      </c>
+      <c r="D29">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>720</v>
+      </c>
+      <c r="D30">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>840</v>
+      </c>
+      <c r="D31">
+        <v>61.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>840</v>
+      </c>
+      <c r="D32">
+        <v>61.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>840</v>
+      </c>
+      <c r="D33">
+        <v>61.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>450</v>
+      </c>
+      <c r="D34">
+        <v>59.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>570</v>
+      </c>
+      <c r="D35">
+        <v>54.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>331</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>360</v>
+      </c>
+      <c r="D36">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>335</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>360</v>
+      </c>
+      <c r="D37">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>600</v>
+      </c>
+      <c r="D38">
+        <v>48.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>390</v>
+      </c>
+      <c r="D39">
+        <v>48.11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>300</v>
+      </c>
+      <c r="D40">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>342</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>240</v>
+      </c>
+      <c r="D41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>480</v>
+      </c>
+      <c r="D42">
+        <v>34.989999999999988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>180</v>
+      </c>
+      <c r="D43">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>360</v>
+      </c>
+      <c r="D44">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>180</v>
+      </c>
+      <c r="D45">
+        <v>26.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>360</v>
+      </c>
+      <c r="D46">
+        <v>26.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>344</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>180</v>
+      </c>
+      <c r="D47">
+        <v>19.68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>240</v>
+      </c>
+      <c r="D48">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>343</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>180</v>
+      </c>
+      <c r="D49">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>150</v>
+      </c>
+      <c r="D50">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>180</v>
+      </c>
+      <c r="D51">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>180</v>
+      </c>
+      <c r="D52">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>336</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>90</v>
+      </c>
+      <c r="D53">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>333</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>60</v>
+      </c>
+      <c r="D54">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>332</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>90</v>
+      </c>
+      <c r="D55">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>334</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>90</v>
+      </c>
+      <c r="D56">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>340</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>90</v>
+      </c>
+      <c r="D57">
+        <v>6.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>